--- a/Color Mixtures/Color Blends.xlsx
+++ b/Color Mixtures/Color Blends.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PauloGarcia/Desktop/blendingbox/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulogarcia/Desktop/MEIC/blendingbox/Color Mixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="680" yWindow="8700" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Color Mixtures First Study" sheetId="1" r:id="rId1"/>
@@ -731,7 +731,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="116">
+  <fills count="117">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,6 +1419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCBD7D1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,7 +1891,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="351">
+  <cellXfs count="356">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2087,9 +2093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2164,9 +2167,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2730,76 +2730,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2826,67 +2865,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3284,10 +3305,10 @@
   </sheetPr>
   <dimension ref="A2:AI60"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="F41" sqref="F41"/>
+      <selection pane="topRight" activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3302,10 +3323,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="331" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="331"/>
+      <c r="B2" s="316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="316"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -3374,13 +3395,13 @@
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I7" s="171"/>
-      <c r="J7" s="171"/>
-      <c r="K7" s="171"/>
-      <c r="L7" s="171"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
+      <c r="M7" s="169"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="169"/>
     </row>
     <row r="8" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -3488,10 +3509,10 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="321" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="337"/>
+      <c r="C10" s="321"/>
       <c r="D10" s="4">
         <v>0</v>
       </c>
@@ -3546,10 +3567,10 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="338" t="s">
+      <c r="B11" s="322" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="338"/>
+      <c r="C11" s="322"/>
       <c r="D11" s="4">
         <v>120</v>
       </c>
@@ -3604,10 +3625,10 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="339" t="s">
+      <c r="B12" s="323" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="339"/>
+      <c r="C12" s="323"/>
       <c r="D12" s="25">
         <v>240</v>
       </c>
@@ -3662,10 +3683,10 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="340" t="s">
+      <c r="B13" s="324" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="340"/>
+      <c r="C13" s="324"/>
       <c r="D13" s="4">
         <v>180</v>
       </c>
@@ -3720,10 +3741,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="341" t="s">
+      <c r="B14" s="325" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="341"/>
+      <c r="C14" s="325"/>
       <c r="D14" s="4">
         <v>300</v>
       </c>
@@ -3778,10 +3799,10 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="336" t="s">
+      <c r="B15" s="320" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="336"/>
+      <c r="C15" s="320"/>
       <c r="D15" s="6">
         <v>60</v>
       </c>
@@ -3837,52 +3858,52 @@
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="305" t="s">
+      <c r="B17" s="341" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="306"/>
-      <c r="D17" s="321" t="s">
+      <c r="C17" s="342"/>
+      <c r="D17" s="317" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="298"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="298" t="s">
+      <c r="E17" s="318"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="318" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="298"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="321" t="s">
+      <c r="H17" s="318"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="317" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="298"/>
-      <c r="L17" s="298"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="321" t="s">
+      <c r="K17" s="318"/>
+      <c r="L17" s="318"/>
+      <c r="M17" s="319"/>
+      <c r="N17" s="317" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="298"/>
-      <c r="P17" s="298"/>
-      <c r="Q17" s="322" t="s">
+      <c r="O17" s="318"/>
+      <c r="P17" s="318"/>
+      <c r="Q17" s="333" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="323"/>
-      <c r="S17" s="324"/>
-      <c r="T17" s="317" t="s">
+      <c r="R17" s="334"/>
+      <c r="S17" s="335"/>
+      <c r="T17" s="330" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="318"/>
-      <c r="V17" s="318"/>
-      <c r="W17" s="318"/>
-      <c r="X17" s="318"/>
-      <c r="Y17" s="318"/>
-      <c r="Z17" s="318"/>
-      <c r="AA17" s="318"/>
-      <c r="AB17" s="318"/>
-      <c r="AC17" s="319"/>
+      <c r="U17" s="331"/>
+      <c r="V17" s="331"/>
+      <c r="W17" s="331"/>
+      <c r="X17" s="331"/>
+      <c r="Y17" s="331"/>
+      <c r="Z17" s="331"/>
+      <c r="AA17" s="331"/>
+      <c r="AB17" s="331"/>
+      <c r="AC17" s="332"/>
     </row>
     <row r="18" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="307"/>
-      <c r="C18" s="308"/>
+      <c r="B18" s="343"/>
+      <c r="C18" s="344"/>
       <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
@@ -3931,32 +3952,32 @@
       <c r="S18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="T18" s="325" t="s">
+      <c r="T18" s="336" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="326"/>
-      <c r="V18" s="327" t="s">
+      <c r="U18" s="337"/>
+      <c r="V18" s="338" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="326"/>
-      <c r="X18" s="327" t="s">
+      <c r="W18" s="337"/>
+      <c r="X18" s="338" t="s">
         <v>10</v>
       </c>
-      <c r="Y18" s="326"/>
-      <c r="Z18" s="327" t="s">
+      <c r="Y18" s="337"/>
+      <c r="Z18" s="338" t="s">
         <v>27</v>
       </c>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="328" t="s">
+      <c r="AA18" s="337"/>
+      <c r="AB18" s="339" t="s">
         <v>91</v>
       </c>
-      <c r="AC18" s="329"/>
+      <c r="AC18" s="340"/>
     </row>
     <row r="19" spans="1:35" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="313" t="s">
+      <c r="B19" s="347" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="314"/>
+      <c r="C19" s="348"/>
       <c r="D19" s="20">
         <v>60</v>
       </c>
@@ -3992,17 +4013,17 @@
       <c r="N19" s="30">
         <v>127.5</v>
       </c>
-      <c r="O19" s="71">
+      <c r="O19" s="70">
         <v>127.5</v>
       </c>
       <c r="P19" s="29">
         <v>0</v>
       </c>
-      <c r="Q19" s="74">
+      <c r="Q19" s="73">
         <f>SUM(((Q11-Q10) / 2), Q10)</f>
         <v>70.484999999999999</v>
       </c>
-      <c r="R19" s="70">
+      <c r="R19" s="69">
         <f>SUM(((R10-R11)/2),R11)</f>
         <v>-3.0349999999999966</v>
       </c>
@@ -4010,35 +4031,35 @@
         <f>SUM(((S11-S10)/2),S10)</f>
         <v>75.2</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="349" t="s">
         <v>61</v>
       </c>
       <c r="U19" s="32"/>
-      <c r="V19" s="71" t="s">
+      <c r="V19" s="350" t="s">
         <v>141</v>
       </c>
-      <c r="W19" s="159"/>
-      <c r="X19" s="70" t="s">
+      <c r="W19" s="157"/>
+      <c r="X19" s="350" t="s">
         <v>83</v>
       </c>
       <c r="Y19" s="68"/>
-      <c r="Z19" s="27" t="s">
+      <c r="Z19" s="350" t="s">
         <v>83</v>
       </c>
       <c r="AA19" s="68"/>
-      <c r="AB19" s="1" t="s">
+      <c r="AB19" s="351" t="s">
         <v>94</v>
       </c>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="320" t="s">
+      <c r="AC19" s="75"/>
+      <c r="AD19" s="327" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B20" s="313" t="s">
+      <c r="B20" s="347" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="314"/>
+      <c r="C20" s="348"/>
       <c r="D20" s="20">
         <v>300</v>
       </c>
@@ -4071,13 +4092,13 @@
       <c r="M20" s="21">
         <v>0</v>
       </c>
-      <c r="N20" s="72">
+      <c r="N20" s="71">
         <v>127.5</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="73">
+      <c r="P20" s="72">
         <v>127.5</v>
       </c>
       <c r="Q20" s="54">
@@ -4088,37 +4109,37 @@
         <f>SUM(((R10-R12) /2),R12)</f>
         <v>79.655000000000001</v>
       </c>
-      <c r="S20" s="78">
+      <c r="S20" s="77">
         <f>SUM(((S10-S12) /2),S12)</f>
         <v>-20.320000000000007</v>
       </c>
-      <c r="T20" s="2" t="s">
+      <c r="T20" s="349" t="s">
         <v>60</v>
       </c>
       <c r="U20" s="33"/>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="349" t="s">
         <v>140</v>
       </c>
-      <c r="W20" s="158"/>
-      <c r="X20" s="2" t="s">
+      <c r="W20" s="156"/>
+      <c r="X20" s="349" t="s">
         <v>84</v>
       </c>
       <c r="Y20" s="44"/>
-      <c r="Z20" s="2" t="s">
+      <c r="Z20" s="349" t="s">
         <v>84</v>
       </c>
       <c r="AA20" s="44"/>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="351" t="s">
         <v>95</v>
       </c>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="320"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="327"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B21" s="315" t="s">
+      <c r="B21" s="298" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="316"/>
+      <c r="C21" s="299"/>
       <c r="D21" s="20">
         <v>180</v>
       </c>
@@ -4152,13 +4173,13 @@
       <c r="M21" s="21">
         <v>0</v>
       </c>
-      <c r="N21" s="107">
-        <v>0</v>
-      </c>
-      <c r="O21" s="108">
+      <c r="N21" s="105">
+        <v>0</v>
+      </c>
+      <c r="O21" s="106">
         <v>127.5</v>
       </c>
-      <c r="P21" s="109">
+      <c r="P21" s="107">
         <v>127.5</v>
       </c>
       <c r="Q21" s="54">
@@ -4169,146 +4190,146 @@
         <f>SUM(((R12-R11)/2),R11)</f>
         <v>-3.4900000000000091</v>
       </c>
-      <c r="S21" s="78">
+      <c r="S21" s="77">
         <f>SUM(((S11-S12)/2),S12)</f>
         <v>-12.339999999999989</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="349" t="s">
         <v>59</v>
       </c>
       <c r="U21" s="34"/>
-      <c r="V21" s="311" t="s">
+      <c r="V21" s="308" t="s">
         <v>151</v>
       </c>
-      <c r="W21" s="312"/>
-      <c r="X21" s="2" t="s">
+      <c r="W21" s="309"/>
+      <c r="X21" s="349" t="s">
         <v>85</v>
       </c>
       <c r="Y21" s="45"/>
-      <c r="Z21" s="2" t="s">
+      <c r="Z21" s="349" t="s">
         <v>85</v>
       </c>
       <c r="AA21" s="45"/>
-      <c r="AB21" s="1" t="s">
+      <c r="AB21" s="351" t="s">
         <v>96</v>
       </c>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="320"/>
+      <c r="AC21" s="80"/>
+      <c r="AD21" s="327"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="348" t="s">
+      <c r="A22" s="310" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="332" t="s">
+      <c r="B22" s="306" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="333"/>
-      <c r="D22" s="95">
+      <c r="C22" s="307"/>
+      <c r="D22" s="94">
         <v>90</v>
       </c>
-      <c r="E22" s="96">
-        <v>100</v>
-      </c>
-      <c r="F22" s="97">
-        <v>100</v>
-      </c>
-      <c r="G22" s="98">
+      <c r="E22" s="95">
+        <v>100</v>
+      </c>
+      <c r="F22" s="96">
+        <v>100</v>
+      </c>
+      <c r="G22" s="97">
         <f>SUM(((G13-G10)/2),G10)</f>
         <v>72.174999999999997</v>
       </c>
-      <c r="H22" s="98">
+      <c r="H22" s="97">
         <f>SUM(((H10-H13)/2),H13)</f>
         <v>77.34</v>
       </c>
-      <c r="I22" s="99">
+      <c r="I22" s="98">
         <f>I10+78.195</f>
         <v>118.19499999999999</v>
       </c>
-      <c r="J22" s="95">
+      <c r="J22" s="94">
         <v>50</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="95">
         <v>50</v>
       </c>
-      <c r="L22" s="96">
+      <c r="L22" s="95">
         <v>50</v>
       </c>
-      <c r="M22" s="97">
-        <v>0</v>
-      </c>
-      <c r="N22" s="95">
+      <c r="M22" s="96">
+        <v>0</v>
+      </c>
+      <c r="N22" s="94">
         <v>127.5</v>
       </c>
-      <c r="O22" s="96">
+      <c r="O22" s="95">
         <v>127.5</v>
       </c>
-      <c r="P22" s="96">
+      <c r="P22" s="95">
         <v>127.5</v>
       </c>
-      <c r="Q22" s="100">
+      <c r="Q22" s="99">
         <f>SUM(((Q13-Q10)/2),Q10)</f>
         <v>72.174999999999997</v>
       </c>
-      <c r="R22" s="98">
+      <c r="R22" s="97">
         <f>SUM(((R10-R13)/2),R13)</f>
         <v>16.015000000000001</v>
       </c>
-      <c r="S22" s="101">
+      <c r="S22" s="100">
         <f>SUM(((S10-S13)/2),S13)</f>
         <v>26.54</v>
       </c>
-      <c r="T22" s="102" t="s">
+      <c r="T22" s="355" t="s">
         <v>66</v>
       </c>
-      <c r="U22" s="103"/>
-      <c r="V22" s="96" t="s">
+      <c r="U22" s="101"/>
+      <c r="V22" s="355" t="s">
         <v>109</v>
       </c>
-      <c r="W22" s="104"/>
-      <c r="X22" s="96" t="s">
+      <c r="W22" s="102"/>
+      <c r="X22" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="Y22" s="105"/>
-      <c r="Z22" s="96" t="s">
+      <c r="Y22" s="103"/>
+      <c r="Z22" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="AA22" s="105"/>
-      <c r="AB22" s="96" t="s">
+      <c r="AA22" s="103"/>
+      <c r="AB22" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="AC22" s="106"/>
-      <c r="AD22" s="320"/>
+      <c r="AC22" s="104"/>
+      <c r="AD22" s="327"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="348"/>
-      <c r="B23" s="311"/>
-      <c r="C23" s="312"/>
-      <c r="D23" s="107">
+      <c r="A23" s="310"/>
+      <c r="B23" s="308"/>
+      <c r="C23" s="309"/>
+      <c r="D23" s="105">
         <v>270</v>
       </c>
-      <c r="E23" s="108">
-        <v>100</v>
-      </c>
-      <c r="F23" s="109">
-        <v>100</v>
-      </c>
-      <c r="G23" s="302"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="346"/>
+      <c r="E23" s="106">
+        <v>100</v>
+      </c>
+      <c r="F23" s="107">
+        <v>100</v>
+      </c>
+      <c r="G23" s="303"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="311"/>
       <c r="J23" s="300"/>
-      <c r="K23" s="347"/>
-      <c r="L23" s="347"/>
+      <c r="K23" s="302"/>
+      <c r="L23" s="302"/>
       <c r="M23" s="301"/>
       <c r="N23" s="300"/>
-      <c r="O23" s="347"/>
+      <c r="O23" s="302"/>
       <c r="P23" s="301"/>
-      <c r="Q23" s="302"/>
-      <c r="R23" s="303"/>
-      <c r="S23" s="304"/>
-      <c r="T23" s="110" t="s">
+      <c r="Q23" s="303"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="354" t="s">
         <v>114</v>
       </c>
-      <c r="U23" s="111"/>
+      <c r="U23" s="109"/>
       <c r="V23" s="300"/>
       <c r="W23" s="301"/>
       <c r="X23" s="300"/>
@@ -4317,13 +4338,13 @@
       <c r="AA23" s="301"/>
       <c r="AB23" s="300"/>
       <c r="AC23" s="301"/>
-      <c r="AD23" s="320"/>
+      <c r="AD23" s="327"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B24" s="315" t="s">
+      <c r="B24" s="298" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="316"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="20">
         <v>330</v>
       </c>
@@ -4373,37 +4394,37 @@
         <f>SUM(((R14-R10)/2),R10)</f>
         <v>89.18</v>
       </c>
-      <c r="S24" s="78">
+      <c r="S24" s="77">
         <f>SUM(((S10-S14)/2),S14)</f>
         <v>3.1899999999999977</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="349" t="s">
         <v>68</v>
       </c>
       <c r="U24" s="36"/>
-      <c r="V24" s="2" t="s">
+      <c r="V24" s="349" t="s">
         <v>68</v>
       </c>
       <c r="W24" s="36"/>
-      <c r="X24" s="2" t="s">
+      <c r="X24" s="349" t="s">
         <v>68</v>
       </c>
       <c r="Y24" s="36"/>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="349" t="s">
         <v>68</v>
       </c>
       <c r="AA24" s="36"/>
-      <c r="AB24" s="1" t="s">
+      <c r="AB24" s="351" t="s">
         <v>98</v>
       </c>
-      <c r="AC24" s="82"/>
-      <c r="AD24" s="320"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="327"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B25" s="315" t="s">
+      <c r="B25" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="316"/>
+      <c r="C25" s="299"/>
       <c r="D25" s="20">
         <v>30</v>
       </c>
@@ -4454,37 +4475,37 @@
         <f>SUM(((R10-R15)/2),R15)</f>
         <v>29.275000000000002</v>
       </c>
-      <c r="S25" s="78">
+      <c r="S25" s="77">
         <f>SUM(((S10-S15)/2),S15)</f>
         <v>80.849999999999994</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="349" t="s">
         <v>69</v>
       </c>
       <c r="U25" s="37"/>
-      <c r="V25" s="2" t="s">
+      <c r="V25" s="349" t="s">
         <v>142</v>
       </c>
-      <c r="W25" s="160"/>
-      <c r="X25" s="2" t="s">
+      <c r="W25" s="158"/>
+      <c r="X25" s="349" t="s">
         <v>69</v>
       </c>
       <c r="Y25" s="37"/>
-      <c r="Z25" s="2" t="s">
+      <c r="Z25" s="349" t="s">
         <v>69</v>
       </c>
       <c r="AA25" s="37"/>
-      <c r="AB25" s="1" t="s">
+      <c r="AB25" s="351" t="s">
         <v>99</v>
       </c>
-      <c r="AC25" s="83"/>
-      <c r="AD25" s="320"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="327"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B26" s="315" t="s">
+      <c r="B26" s="298" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="316"/>
+      <c r="C26" s="299"/>
       <c r="D26" s="20">
         <v>240</v>
       </c>
@@ -4535,37 +4556,37 @@
         <f>SUM(((R14-R13)/2),R13)</f>
         <v>25.084999999999994</v>
       </c>
-      <c r="S26" s="78">
+      <c r="S26" s="77">
         <f>SUM(((S13-S14)/2),S14)</f>
         <v>-37.49</v>
       </c>
-      <c r="T26" s="2" t="s">
+      <c r="T26" s="349" t="s">
         <v>63</v>
       </c>
       <c r="U26" s="38"/>
-      <c r="V26" s="69" t="s">
+      <c r="V26" s="352" t="s">
         <v>110</v>
       </c>
-      <c r="W26" s="91"/>
-      <c r="X26" s="2" t="s">
+      <c r="W26" s="90"/>
+      <c r="X26" s="349" t="s">
         <v>87</v>
       </c>
       <c r="Y26" s="46"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Z26" s="349" t="s">
         <v>87</v>
       </c>
       <c r="AA26" s="46"/>
-      <c r="AB26" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC26" s="84"/>
-      <c r="AD26" s="320"/>
+      <c r="AB26" s="349" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="83"/>
+      <c r="AD26" s="327"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B27" s="315" t="s">
+      <c r="B27" s="298" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="316"/>
+      <c r="C27" s="299"/>
       <c r="D27" s="20">
         <v>0</v>
       </c>
@@ -4615,37 +4636,37 @@
         <f>SUM(((R14-R15)/2),R15)</f>
         <v>38.344999999999999</v>
       </c>
-      <c r="S27" s="78">
+      <c r="S27" s="77">
         <f>SUM(((S15-S14)/2),S14)</f>
         <v>16.819999999999993</v>
       </c>
-      <c r="T27" s="2" t="s">
+      <c r="T27" s="349" t="s">
         <v>56</v>
       </c>
       <c r="U27" s="39"/>
-      <c r="V27" s="72" t="s">
+      <c r="V27" s="352" t="s">
         <v>143</v>
       </c>
-      <c r="W27" s="161"/>
-      <c r="X27" s="2" t="s">
+      <c r="W27" s="159"/>
+      <c r="X27" s="349" t="s">
         <v>88</v>
       </c>
       <c r="Y27" s="47"/>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="349" t="s">
         <v>88</v>
       </c>
       <c r="AA27" s="47"/>
-      <c r="AB27" s="2" t="s">
+      <c r="AB27" s="349" t="s">
         <v>101</v>
       </c>
-      <c r="AC27" s="85"/>
-      <c r="AD27" s="320"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="327"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B28" s="315" t="s">
+      <c r="B28" s="298" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="316"/>
+      <c r="C28" s="299"/>
       <c r="D28" s="20">
         <v>150</v>
       </c>
@@ -4696,145 +4717,145 @@
         <f>SUM(((R13-R11)/2),R11)</f>
         <v>-67.13</v>
       </c>
-      <c r="S28" s="78">
+      <c r="S28" s="77">
         <f>SUM(((S11-S13)/2),S13)</f>
         <v>34.520000000000003</v>
       </c>
-      <c r="T28" s="2" t="s">
+      <c r="T28" s="349" t="s">
         <v>64</v>
       </c>
       <c r="U28" s="40"/>
-      <c r="V28" s="69" t="s">
+      <c r="V28" s="352" t="s">
         <v>111</v>
       </c>
-      <c r="W28" s="92"/>
-      <c r="X28" s="2" t="s">
+      <c r="W28" s="91"/>
+      <c r="X28" s="349" t="s">
         <v>64</v>
       </c>
       <c r="Y28" s="40"/>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="349" t="s">
         <v>64</v>
       </c>
       <c r="AA28" s="40"/>
-      <c r="AB28" s="2" t="s">
+      <c r="AB28" s="349" t="s">
         <v>102</v>
       </c>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="320"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="327"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="348" t="s">
+      <c r="A29" s="310" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="332" t="s">
+      <c r="B29" s="306" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="333"/>
-      <c r="D29" s="95">
+      <c r="C29" s="307"/>
+      <c r="D29" s="94">
         <v>210</v>
       </c>
-      <c r="E29" s="96">
-        <v>100</v>
-      </c>
-      <c r="F29" s="97">
-        <v>100</v>
-      </c>
-      <c r="G29" s="98">
+      <c r="E29" s="95">
+        <v>100</v>
+      </c>
+      <c r="F29" s="96">
+        <v>100</v>
+      </c>
+      <c r="G29" s="97">
         <f>SUM(((G11-G14)/2),G14)</f>
         <v>74.03</v>
       </c>
-      <c r="H29" s="98">
+      <c r="H29" s="97">
         <f>SUM(((H11-H14)/2),H14)</f>
         <v>117.66499999999999</v>
       </c>
-      <c r="I29" s="99">
+      <c r="I29" s="98">
         <v>52.12</v>
       </c>
-      <c r="J29" s="95">
+      <c r="J29" s="94">
         <v>50</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="95">
         <v>50</v>
       </c>
-      <c r="L29" s="96">
+      <c r="L29" s="95">
         <v>50</v>
       </c>
-      <c r="M29" s="97">
-        <v>0</v>
-      </c>
-      <c r="N29" s="95">
+      <c r="M29" s="96">
+        <v>0</v>
+      </c>
+      <c r="N29" s="94">
         <v>127.5</v>
       </c>
-      <c r="O29" s="96">
+      <c r="O29" s="95">
         <v>127.5</v>
       </c>
-      <c r="P29" s="96">
+      <c r="P29" s="95">
         <v>127.5</v>
       </c>
-      <c r="Q29" s="100">
+      <c r="Q29" s="99">
         <f>SUM(((Q11-Q14)/2),Q14)</f>
         <v>74.03</v>
       </c>
-      <c r="R29" s="98">
+      <c r="R29" s="97">
         <f>SUM(((R14-R11)/2),R11)</f>
         <v>6.0349999999999966</v>
       </c>
-      <c r="S29" s="101">
+      <c r="S29" s="100">
         <f>SUM(((S11-S14)/2),S14)</f>
         <v>11.170000000000002</v>
       </c>
-      <c r="T29" s="102" t="s">
+      <c r="T29" s="355" t="s">
         <v>67</v>
       </c>
-      <c r="U29" s="112"/>
-      <c r="V29" s="95" t="s">
+      <c r="U29" s="110"/>
+      <c r="V29" s="353" t="s">
         <v>144</v>
       </c>
-      <c r="W29" s="162"/>
-      <c r="X29" s="96" t="s">
+      <c r="W29" s="160"/>
+      <c r="X29" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="Y29" s="105"/>
-      <c r="Z29" s="96" t="s">
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="AA29" s="105"/>
-      <c r="AB29" s="96" t="s">
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="AC29" s="113"/>
-      <c r="AD29" s="320"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="327"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="348"/>
-      <c r="B30" s="311"/>
-      <c r="C30" s="312"/>
-      <c r="D30" s="107">
+      <c r="A30" s="310"/>
+      <c r="B30" s="308"/>
+      <c r="C30" s="309"/>
+      <c r="D30" s="105">
         <v>30</v>
       </c>
-      <c r="E30" s="108">
-        <v>100</v>
-      </c>
-      <c r="F30" s="109">
-        <v>100</v>
-      </c>
-      <c r="G30" s="302"/>
-      <c r="H30" s="303"/>
-      <c r="I30" s="346"/>
+      <c r="E30" s="106">
+        <v>100</v>
+      </c>
+      <c r="F30" s="107">
+        <v>100</v>
+      </c>
+      <c r="G30" s="303"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="311"/>
       <c r="J30" s="300"/>
-      <c r="K30" s="347"/>
-      <c r="L30" s="347"/>
+      <c r="K30" s="302"/>
+      <c r="L30" s="302"/>
       <c r="M30" s="301"/>
       <c r="N30" s="300"/>
-      <c r="O30" s="347"/>
+      <c r="O30" s="302"/>
       <c r="P30" s="301"/>
-      <c r="Q30" s="302"/>
-      <c r="R30" s="303"/>
-      <c r="S30" s="304"/>
-      <c r="T30" s="110" t="s">
+      <c r="Q30" s="303"/>
+      <c r="R30" s="304"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="354" t="s">
         <v>115</v>
       </c>
-      <c r="U30" s="114"/>
+      <c r="U30" s="112"/>
       <c r="V30" s="300"/>
       <c r="W30" s="301"/>
       <c r="X30" s="300"/>
@@ -4843,13 +4864,13 @@
       <c r="AA30" s="301"/>
       <c r="AB30" s="300"/>
       <c r="AC30" s="301"/>
-      <c r="AD30" s="320"/>
+      <c r="AD30" s="327"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B31" s="315" t="s">
+      <c r="B31" s="298" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="316"/>
+      <c r="C31" s="299"/>
       <c r="D31" s="20">
         <v>90</v>
       </c>
@@ -4900,41 +4921,41 @@
         <f>SUM(((R15-R11)/2),R11)</f>
         <v>-53.870000000000005</v>
       </c>
-      <c r="S31" s="78">
+      <c r="S31" s="77">
         <f>SUM(((S15-S11)/2),S11)</f>
         <v>88.830000000000013</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="349" t="s">
         <v>66</v>
       </c>
       <c r="U31" s="35"/>
-      <c r="V31" s="72" t="s">
+      <c r="V31" s="352" t="s">
         <v>145</v>
       </c>
-      <c r="W31" s="163"/>
-      <c r="X31" s="2" t="s">
+      <c r="W31" s="161"/>
+      <c r="X31" s="349" t="s">
         <v>66</v>
       </c>
       <c r="Y31" s="35"/>
-      <c r="Z31" s="2" t="s">
+      <c r="Z31" s="349" t="s">
         <v>66</v>
       </c>
       <c r="AA31" s="35"/>
-      <c r="AB31" s="2" t="s">
+      <c r="AB31" s="349" t="s">
         <v>104</v>
       </c>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="320"/>
-      <c r="AH31" s="331" t="s">
+      <c r="AC31" s="86"/>
+      <c r="AD31" s="327"/>
+      <c r="AH31" s="316" t="s">
         <v>93</v>
       </c>
-      <c r="AI31" s="331"/>
+      <c r="AI31" s="316"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B32" s="315" t="s">
+      <c r="B32" s="298" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="316"/>
+      <c r="C32" s="299"/>
       <c r="D32" s="20">
         <v>210</v>
       </c>
@@ -4985,37 +5006,37 @@
         <f>SUM(((R12-R13)/2),R13)</f>
         <v>15.560000000000002</v>
       </c>
-      <c r="S32" s="78">
+      <c r="S32" s="77">
         <f>SUM(((S13-S12)/2),S12)</f>
         <v>-61</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="349" t="s">
         <v>67</v>
       </c>
       <c r="U32" s="41"/>
-      <c r="V32" s="69" t="s">
+      <c r="V32" s="352" t="s">
         <v>112</v>
       </c>
-      <c r="W32" s="93"/>
-      <c r="X32" s="2" t="s">
+      <c r="W32" s="92"/>
+      <c r="X32" s="349" t="s">
         <v>67</v>
       </c>
       <c r="Y32" s="41"/>
-      <c r="Z32" s="2" t="s">
+      <c r="Z32" s="349" t="s">
         <v>67</v>
       </c>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="2" t="s">
+      <c r="AB32" s="349" t="s">
         <v>105</v>
       </c>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="320"/>
+      <c r="AC32" s="87"/>
+      <c r="AD32" s="327"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B33" s="315" t="s">
+      <c r="B33" s="298" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="316"/>
+      <c r="C33" s="299"/>
       <c r="D33" s="20">
         <v>270</v>
       </c>
@@ -5066,145 +5087,145 @@
         <f>SUM(((R14-R12)/2),R12)</f>
         <v>88.724999999999994</v>
       </c>
-      <c r="S33" s="78">
+      <c r="S33" s="77">
         <f>SUM(((S14-S12)/2),S12)</f>
         <v>-84.35</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="349" t="s">
         <v>65</v>
       </c>
       <c r="U33" s="42"/>
-      <c r="V33" s="72" t="s">
+      <c r="V33" s="352" t="s">
         <v>146</v>
       </c>
-      <c r="W33" s="164"/>
-      <c r="X33" s="2" t="s">
+      <c r="W33" s="162"/>
+      <c r="X33" s="349" t="s">
         <v>65</v>
       </c>
       <c r="Y33" s="42"/>
-      <c r="Z33" s="2" t="s">
+      <c r="Z33" s="349" t="s">
         <v>65</v>
       </c>
       <c r="AA33" s="42"/>
-      <c r="AB33" s="2" t="s">
+      <c r="AB33" s="349" t="s">
         <v>106</v>
       </c>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="320"/>
+      <c r="AC33" s="88"/>
+      <c r="AD33" s="327"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="348" t="s">
+      <c r="A34" s="310" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="332" t="s">
+      <c r="B34" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="95">
+      <c r="C34" s="307"/>
+      <c r="D34" s="94">
         <v>150</v>
       </c>
-      <c r="E34" s="96">
-        <v>100</v>
-      </c>
-      <c r="F34" s="97">
-        <v>100</v>
-      </c>
-      <c r="G34" s="98">
+      <c r="E34" s="95">
+        <v>100</v>
+      </c>
+      <c r="F34" s="96">
+        <v>100</v>
+      </c>
+      <c r="G34" s="97">
         <f>SUM(((G15-G12)/2),G12)</f>
         <v>64.72</v>
       </c>
-      <c r="H34" s="98">
+      <c r="H34" s="97">
         <f>SUM(((H12-H15)/2),H15)</f>
         <v>115.355</v>
       </c>
-      <c r="I34" s="99">
+      <c r="I34" s="98">
         <v>24.57</v>
       </c>
-      <c r="J34" s="95">
+      <c r="J34" s="94">
         <v>50</v>
       </c>
-      <c r="K34" s="96">
+      <c r="K34" s="95">
         <v>50</v>
       </c>
-      <c r="L34" s="96">
+      <c r="L34" s="95">
         <v>50</v>
       </c>
-      <c r="M34" s="97">
-        <v>0</v>
-      </c>
-      <c r="N34" s="95">
+      <c r="M34" s="96">
+        <v>0</v>
+      </c>
+      <c r="N34" s="94">
         <v>127.5</v>
       </c>
-      <c r="O34" s="96">
+      <c r="O34" s="95">
         <v>127.5</v>
       </c>
-      <c r="P34" s="96">
+      <c r="P34" s="95">
         <v>127.5</v>
       </c>
-      <c r="Q34" s="100">
+      <c r="Q34" s="99">
         <f>SUM(((Q15-Q12)/2),Q12)</f>
         <v>64.72</v>
       </c>
-      <c r="R34" s="98">
+      <c r="R34" s="97">
         <f>SUM(((R12-R15)/2),R15)</f>
         <v>28.820000000000004</v>
       </c>
-      <c r="S34" s="101">
+      <c r="S34" s="100">
         <f>SUM(((S15-S12)/2),S12)</f>
         <v>-6.6899999999999977</v>
       </c>
-      <c r="T34" s="96" t="s">
+      <c r="T34" s="355" t="s">
         <v>64</v>
       </c>
-      <c r="U34" s="115"/>
-      <c r="V34" s="95" t="s">
+      <c r="U34" s="113"/>
+      <c r="V34" s="353" t="s">
         <v>147</v>
       </c>
-      <c r="W34" s="165"/>
-      <c r="X34" s="96" t="s">
+      <c r="W34" s="163"/>
+      <c r="X34" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="Y34" s="105"/>
-      <c r="Z34" s="96" t="s">
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="355" t="s">
         <v>86</v>
       </c>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="96" t="s">
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="AC34" s="116"/>
-      <c r="AD34" s="320"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="327"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="348"/>
-      <c r="B35" s="311"/>
-      <c r="C35" s="312"/>
-      <c r="D35" s="107">
+      <c r="A35" s="310"/>
+      <c r="B35" s="308"/>
+      <c r="C35" s="309"/>
+      <c r="D35" s="105">
         <v>330</v>
       </c>
-      <c r="E35" s="108">
-        <v>100</v>
-      </c>
-      <c r="F35" s="109">
-        <v>100</v>
-      </c>
-      <c r="G35" s="302"/>
-      <c r="H35" s="303"/>
-      <c r="I35" s="346"/>
+      <c r="E35" s="106">
+        <v>100</v>
+      </c>
+      <c r="F35" s="107">
+        <v>100</v>
+      </c>
+      <c r="G35" s="303"/>
+      <c r="H35" s="304"/>
+      <c r="I35" s="311"/>
       <c r="J35" s="300"/>
-      <c r="K35" s="347"/>
-      <c r="L35" s="347"/>
+      <c r="K35" s="302"/>
+      <c r="L35" s="302"/>
       <c r="M35" s="301"/>
       <c r="N35" s="300"/>
-      <c r="O35" s="347"/>
+      <c r="O35" s="302"/>
       <c r="P35" s="301"/>
-      <c r="Q35" s="302"/>
-      <c r="R35" s="303"/>
-      <c r="S35" s="304"/>
-      <c r="T35" s="110" t="s">
+      <c r="Q35" s="303"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="305"/>
+      <c r="T35" s="354" t="s">
         <v>117</v>
       </c>
-      <c r="U35" s="117"/>
+      <c r="U35" s="115"/>
       <c r="V35" s="300"/>
       <c r="W35" s="301"/>
       <c r="X35" s="300"/>
@@ -5213,13 +5234,13 @@
       <c r="AA35" s="301"/>
       <c r="AB35" s="300"/>
       <c r="AC35" s="301"/>
-      <c r="AD35" s="320"/>
+      <c r="AD35" s="327"/>
     </row>
     <row r="36" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="315" t="s">
+      <c r="B36" s="298" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="316"/>
+      <c r="C36" s="299"/>
       <c r="D36" s="20">
         <v>120</v>
       </c>
@@ -5262,173 +5283,173 @@
       <c r="P36" s="2">
         <v>127.5</v>
       </c>
-      <c r="Q36" s="75">
+      <c r="Q36" s="74">
         <f>SUM(((Q15-Q13)/2),Q13)</f>
         <v>94.13</v>
       </c>
-      <c r="R36" s="79">
+      <c r="R36" s="78">
         <f>SUM(((R15-R13)/2),R13)</f>
         <v>-34.82</v>
       </c>
-      <c r="S36" s="80">
+      <c r="S36" s="79">
         <f>SUM(((S15-S13)/2),S13)</f>
         <v>40.17</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="349" t="s">
         <v>70</v>
       </c>
       <c r="U36" s="43"/>
-      <c r="V36" s="69" t="s">
+      <c r="V36" s="352" t="s">
         <v>113</v>
       </c>
-      <c r="W36" s="94"/>
-      <c r="X36" s="2" t="s">
+      <c r="W36" s="93"/>
+      <c r="X36" s="349" t="s">
         <v>89</v>
       </c>
       <c r="Y36" s="48"/>
-      <c r="Z36" s="2" t="s">
+      <c r="Z36" s="349" t="s">
         <v>89</v>
       </c>
       <c r="AA36" s="48"/>
-      <c r="AB36" s="2" t="s">
+      <c r="AB36" s="349" t="s">
         <v>108</v>
       </c>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="320"/>
+      <c r="AC36" s="89"/>
+      <c r="AD36" s="327"/>
     </row>
     <row r="37" spans="1:30" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="309" t="s">
+      <c r="B37" s="345" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="310"/>
-      <c r="D37" s="310"/>
-      <c r="E37" s="310"/>
-      <c r="F37" s="310"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="310"/>
-      <c r="I37" s="310"/>
-      <c r="J37" s="310"/>
-      <c r="K37" s="310"/>
-      <c r="L37" s="310"/>
-      <c r="M37" s="310"/>
-      <c r="N37" s="310"/>
-      <c r="O37" s="310"/>
-      <c r="P37" s="310"/>
-      <c r="Q37" s="310"/>
-      <c r="R37" s="310"/>
-      <c r="S37" s="310"/>
-      <c r="T37" s="310"/>
-      <c r="U37" s="310"/>
-      <c r="V37" s="310"/>
-      <c r="W37" s="310"/>
-      <c r="X37" s="310"/>
-      <c r="Y37" s="310"/>
-      <c r="Z37" s="310"/>
-      <c r="AA37" s="310"/>
-      <c r="AB37" s="310"/>
-      <c r="AC37" s="310"/>
+      <c r="C37" s="346"/>
+      <c r="D37" s="346"/>
+      <c r="E37" s="346"/>
+      <c r="F37" s="346"/>
+      <c r="G37" s="346"/>
+      <c r="H37" s="346"/>
+      <c r="I37" s="346"/>
+      <c r="J37" s="346"/>
+      <c r="K37" s="346"/>
+      <c r="L37" s="346"/>
+      <c r="M37" s="346"/>
+      <c r="N37" s="346"/>
+      <c r="O37" s="346"/>
+      <c r="P37" s="346"/>
+      <c r="Q37" s="346"/>
+      <c r="R37" s="346"/>
+      <c r="S37" s="346"/>
+      <c r="T37" s="346"/>
+      <c r="U37" s="346"/>
+      <c r="V37" s="346"/>
+      <c r="W37" s="346"/>
+      <c r="X37" s="346"/>
+      <c r="Y37" s="346"/>
+      <c r="Z37" s="346"/>
+      <c r="AA37" s="346"/>
+      <c r="AB37" s="346"/>
+      <c r="AC37" s="346"/>
       <c r="AD37" s="28"/>
     </row>
     <row r="38" spans="1:30" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="260"/>
-      <c r="B38" s="342" t="s">
+      <c r="A38" s="258"/>
+      <c r="B38" s="312" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="343"/>
-      <c r="D38" s="179">
+      <c r="C38" s="313"/>
+      <c r="D38" s="177">
         <f>SUM(((D19-D12)/2),D12)</f>
         <v>150</v>
       </c>
-      <c r="E38" s="71">
+      <c r="E38" s="70">
         <f t="shared" ref="E38:S38" si="1">SUM(((E19-E12)/2),E12)</f>
         <v>100</v>
       </c>
-      <c r="F38" s="180">
+      <c r="F38" s="178">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="G38" s="74">
+      <c r="G38" s="73">
         <f t="shared" si="1"/>
         <v>51.392499999999998</v>
       </c>
-      <c r="H38" s="181">
+      <c r="H38" s="179">
         <f t="shared" si="1"/>
         <v>122.99</v>
       </c>
-      <c r="I38" s="182">
+      <c r="I38" s="180">
         <v>17.149999999999999</v>
       </c>
-      <c r="J38" s="248">
+      <c r="J38" s="246">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="K38" s="249">
+      <c r="K38" s="247">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="L38" s="249">
+      <c r="L38" s="247">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="M38" s="250">
+      <c r="M38" s="248">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N38" s="257">
+      <c r="N38" s="255">
         <f>SUM(((N19-N12)/2),N12)</f>
         <v>63.75</v>
       </c>
-      <c r="O38" s="258">
+      <c r="O38" s="256">
         <f t="shared" si="1"/>
         <v>63.75</v>
       </c>
-      <c r="P38" s="259">
+      <c r="P38" s="257">
         <f t="shared" si="1"/>
         <v>127.5</v>
       </c>
-      <c r="Q38" s="74">
+      <c r="Q38" s="73">
         <f t="shared" si="1"/>
         <v>51.392499999999998</v>
       </c>
-      <c r="R38" s="181">
+      <c r="R38" s="179">
         <f t="shared" si="1"/>
         <v>38.082500000000003</v>
       </c>
-      <c r="S38" s="183">
+      <c r="S38" s="181">
         <f t="shared" si="1"/>
         <v>-16.329999999999998</v>
       </c>
-      <c r="T38" s="96" t="s">
+      <c r="T38" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="U38" s="115"/>
-      <c r="V38" s="232" t="s">
+      <c r="U38" s="113"/>
+      <c r="V38" s="230" t="s">
         <v>196</v>
       </c>
-      <c r="W38" s="261"/>
-      <c r="X38" s="232" t="s">
+      <c r="W38" s="259"/>
+      <c r="X38" s="230" t="s">
         <v>200</v>
       </c>
-      <c r="Y38" s="265"/>
-      <c r="Z38" s="71" t="s">
+      <c r="Y38" s="263"/>
+      <c r="Z38" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="AA38" s="265"/>
-      <c r="AB38" s="71" t="s">
+      <c r="AA38" s="263"/>
+      <c r="AB38" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="AC38" s="271"/>
-      <c r="AD38" s="320" t="s">
+      <c r="AC38" s="269"/>
+      <c r="AD38" s="327" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="260"/>
-      <c r="B39" s="315" t="s">
+      <c r="A39" s="258"/>
+      <c r="B39" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="316"/>
-      <c r="D39" s="122">
+      <c r="C39" s="299"/>
+      <c r="D39" s="120">
         <f>SUM(((D20-D11)/2),D11)</f>
         <v>210</v>
       </c>
@@ -5436,7 +5457,7 @@
         <f t="shared" ref="E39:S39" si="2">SUM(((E20-E11)/2),E11)</f>
         <v>100</v>
       </c>
-      <c r="F39" s="123">
+      <c r="F39" s="121">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
@@ -5451,31 +5472,31 @@
       <c r="I39" s="56">
         <v>64.58</v>
       </c>
-      <c r="J39" s="251">
+      <c r="J39" s="249">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="K39" s="252">
+      <c r="K39" s="250">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L39" s="252">
+      <c r="L39" s="250">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="M39" s="253">
+      <c r="M39" s="251">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N39" s="144">
+      <c r="N39" s="142">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="O39" s="140">
+      <c r="O39" s="138">
         <f t="shared" si="2"/>
         <v>127.5</v>
       </c>
-      <c r="P39" s="145">
+      <c r="P39" s="143">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
@@ -5487,7 +5508,7 @@
         <f t="shared" si="2"/>
         <v>-3.2625000000000028</v>
       </c>
-      <c r="S39" s="78">
+      <c r="S39" s="77">
         <f t="shared" si="2"/>
         <v>31.43</v>
       </c>
@@ -5495,90 +5516,90 @@
         <v>67</v>
       </c>
       <c r="U39" s="41"/>
-      <c r="V39" s="247" t="s">
+      <c r="V39" s="245" t="s">
         <v>197</v>
       </c>
-      <c r="W39" s="262"/>
-      <c r="X39" s="247" t="s">
+      <c r="W39" s="260"/>
+      <c r="X39" s="245" t="s">
         <v>201</v>
       </c>
-      <c r="Y39" s="266"/>
-      <c r="Z39" s="247" t="s">
+      <c r="Y39" s="264"/>
+      <c r="Z39" s="245" t="s">
         <v>201</v>
       </c>
-      <c r="AA39" s="266"/>
+      <c r="AA39" s="264"/>
       <c r="AB39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AC39" s="272"/>
-      <c r="AD39" s="320"/>
+      <c r="AC39" s="270"/>
+      <c r="AD39" s="327"/>
     </row>
     <row r="40" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="260"/>
-      <c r="B40" s="344" t="s">
+      <c r="A40" s="258"/>
+      <c r="B40" s="314" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="345"/>
-      <c r="D40" s="120">
+      <c r="C40" s="315"/>
+      <c r="D40" s="118">
         <f>SUM(((D21-D10)/2),D10)</f>
         <v>90</v>
       </c>
-      <c r="E40" s="108">
+      <c r="E40" s="106">
         <f t="shared" ref="E40:S40" si="3">SUM(((E21-E10)/2),E10)</f>
         <v>100</v>
       </c>
-      <c r="F40" s="121">
+      <c r="F40" s="119">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G40" s="127">
         <f t="shared" si="3"/>
         <v>56.625</v>
       </c>
-      <c r="H40" s="127">
+      <c r="H40" s="125">
         <f t="shared" si="3"/>
         <v>115.67999999999999</v>
       </c>
-      <c r="I40" s="128">
+      <c r="I40" s="126">
         <v>310.57499999999999</v>
       </c>
-      <c r="J40" s="254">
+      <c r="J40" s="252">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="K40" s="255">
+      <c r="K40" s="253">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L40" s="255">
+      <c r="L40" s="253">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="M40" s="256">
+      <c r="M40" s="254">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N40" s="146">
+      <c r="N40" s="144">
         <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
-      <c r="O40" s="141">
+      <c r="O40" s="139">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="P40" s="147">
+      <c r="P40" s="145">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="Q40" s="129">
+      <c r="Q40" s="127">
         <f t="shared" si="3"/>
         <v>56.625</v>
       </c>
-      <c r="R40" s="127">
+      <c r="R40" s="125">
         <f t="shared" si="3"/>
         <v>38.309999999999995</v>
       </c>
-      <c r="S40" s="148">
+      <c r="S40" s="146">
         <f t="shared" si="3"/>
         <v>27.440000000000005</v>
       </c>
@@ -5586,122 +5607,122 @@
         <v>66</v>
       </c>
       <c r="U40" s="35"/>
-      <c r="V40" s="349" t="s">
+      <c r="V40" s="296" t="s">
         <v>151</v>
       </c>
-      <c r="W40" s="350"/>
-      <c r="X40" s="246" t="s">
+      <c r="W40" s="297"/>
+      <c r="X40" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="Y40" s="267"/>
-      <c r="Z40" s="246" t="s">
+      <c r="Y40" s="265"/>
+      <c r="Z40" s="244" t="s">
         <v>202</v>
       </c>
-      <c r="AA40" s="267"/>
-      <c r="AB40" s="110" t="s">
+      <c r="AA40" s="265"/>
+      <c r="AB40" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="AC40" s="273"/>
-      <c r="AD40" s="320"/>
+      <c r="AC40" s="271"/>
+      <c r="AD40" s="327"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41" s="233"/>
-      <c r="B41" s="332" t="s">
+      <c r="A41" s="231"/>
+      <c r="B41" s="306" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="333"/>
-      <c r="D41" s="95">
+      <c r="C41" s="307"/>
+      <c r="D41" s="94">
         <f>SUM(((D24-D12)/2),D12)</f>
         <v>285</v>
       </c>
-      <c r="E41" s="96">
+      <c r="E41" s="95">
         <f>SUM(((E24-E12)/2),E12)</f>
         <v>100</v>
       </c>
-      <c r="F41" s="97">
+      <c r="F41" s="96">
         <f>SUM(((F24-F12)/2),F12)</f>
         <v>100</v>
       </c>
-      <c r="G41" s="100">
+      <c r="G41" s="99">
         <f>SUM(((G24-G12)/2),G12)</f>
         <v>44.537499999999994</v>
       </c>
-      <c r="H41" s="98">
+      <c r="H41" s="97">
         <f>SUM(((H24-H12)/2),H12)</f>
         <v>121.9375</v>
       </c>
-      <c r="I41" s="99">
+      <c r="I41" s="98">
         <v>335.20499999999998</v>
       </c>
-      <c r="J41" s="133">
+      <c r="J41" s="131">
         <f>SUM(((J12-J24)/2),J24)</f>
         <v>50</v>
       </c>
-      <c r="K41" s="130">
+      <c r="K41" s="128">
         <f t="shared" ref="K41:S41" si="4">SUM(((K12-K24)/2),K24)</f>
         <v>100</v>
       </c>
-      <c r="L41" s="130">
+      <c r="L41" s="128">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="M41" s="134">
+      <c r="M41" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N41" s="142">
+      <c r="N41" s="140">
         <f>SUM(((N12-N24)/2),N24)</f>
         <v>127.5</v>
       </c>
-      <c r="O41" s="139">
+      <c r="O41" s="137">
         <f>SUM(((O12-O24)/2),O24)</f>
         <v>0</v>
       </c>
-      <c r="P41" s="143">
+      <c r="P41" s="141">
         <f>SUM(((P12-P24)/2),P24)</f>
         <v>191.25</v>
       </c>
-      <c r="Q41" s="100">
+      <c r="Q41" s="99">
         <f t="shared" si="4"/>
         <v>44.537499999999994</v>
       </c>
-      <c r="R41" s="98">
+      <c r="R41" s="97">
         <f t="shared" si="4"/>
         <v>84.19</v>
       </c>
-      <c r="S41" s="101">
+      <c r="S41" s="100">
         <f t="shared" si="4"/>
         <v>-52.335000000000001</v>
       </c>
-      <c r="T41" s="96" t="s">
+      <c r="T41" s="95" t="s">
         <v>129</v>
       </c>
-      <c r="U41" s="125"/>
-      <c r="V41" s="118" t="s">
+      <c r="U41" s="123"/>
+      <c r="V41" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="118" t="s">
+      <c r="W41" s="155"/>
+      <c r="X41" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="118" t="s">
+      <c r="Y41" s="149"/>
+      <c r="Z41" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="96" t="s">
+      <c r="AA41" s="149"/>
+      <c r="AB41" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="AC41" s="152"/>
-      <c r="AD41" s="320"/>
+      <c r="AC41" s="150"/>
+      <c r="AD41" s="327"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42" s="233"/>
-      <c r="B42" s="315" t="s">
+      <c r="A42" s="231"/>
+      <c r="B42" s="298" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="316"/>
-      <c r="D42" s="72">
+      <c r="C42" s="299"/>
+      <c r="D42" s="71">
         <f>SUM(((D20-D14)/2),D14)</f>
         <v>300</v>
       </c>
@@ -5709,7 +5730,7 @@
         <f t="shared" ref="E42:F42" si="5">SUM(((E20-E14)/2),E14)</f>
         <v>100</v>
       </c>
-      <c r="F42" s="73">
+      <c r="F42" s="72">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
@@ -5725,43 +5746,43 @@
         <f>SUM(((I20-I14)/2),I14)</f>
         <v>340.69</v>
       </c>
-      <c r="J42" s="135">
+      <c r="J42" s="133">
         <f>SUM(((J20-J14)/2),J14)</f>
         <v>25</v>
       </c>
-      <c r="K42" s="131">
+      <c r="K42" s="129">
         <f t="shared" ref="K42:S42" si="6">SUM(((K20-K14)/2),K14)</f>
         <v>100</v>
       </c>
-      <c r="L42" s="131">
+      <c r="L42" s="129">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="M42" s="136">
+      <c r="M42" s="134">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N42" s="144">
+      <c r="N42" s="142">
         <f t="shared" si="6"/>
         <v>191.25</v>
       </c>
-      <c r="O42" s="140">
+      <c r="O42" s="138">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P42" s="145">
+      <c r="P42" s="143">
         <f t="shared" si="6"/>
         <v>191.25</v>
       </c>
-      <c r="Q42" s="144">
+      <c r="Q42" s="142">
         <f t="shared" si="6"/>
         <v>51.542500000000004</v>
       </c>
-      <c r="R42" s="140">
+      <c r="R42" s="138">
         <f t="shared" si="6"/>
         <v>88.952500000000001</v>
       </c>
-      <c r="S42" s="149">
+      <c r="S42" s="147">
         <f t="shared" si="6"/>
         <v>-40.580000000000005</v>
       </c>
@@ -5769,214 +5790,214 @@
         <v>60</v>
       </c>
       <c r="U42" s="33"/>
-      <c r="V42" s="122" t="s">
+      <c r="V42" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="W42" s="166"/>
-      <c r="X42" s="122" t="s">
+      <c r="W42" s="164"/>
+      <c r="X42" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="Y42" s="153"/>
-      <c r="Z42" s="122" t="s">
+      <c r="Y42" s="151"/>
+      <c r="Z42" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="AA42" s="153"/>
+      <c r="AA42" s="151"/>
       <c r="AB42" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AC42" s="154"/>
-      <c r="AD42" s="320"/>
+      <c r="AC42" s="152"/>
+      <c r="AD42" s="327"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43" s="233"/>
-      <c r="B43" s="311" t="s">
+      <c r="A43" s="231"/>
+      <c r="B43" s="308" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="312"/>
-      <c r="D43" s="107">
+      <c r="C43" s="309"/>
+      <c r="D43" s="105">
         <f>SUM(((D33-D10)/2),D10)</f>
         <v>135</v>
       </c>
-      <c r="E43" s="108">
+      <c r="E43" s="106">
         <f t="shared" ref="E43:F43" si="7">SUM(((E33-E10)/2),E10)</f>
         <v>100</v>
       </c>
-      <c r="F43" s="109">
+      <c r="F43" s="107">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="G43" s="129">
+      <c r="G43" s="127">
         <f>SUM(((G10-G33)/2),G33)</f>
         <v>49.769999999999996</v>
       </c>
-      <c r="H43" s="127">
+      <c r="H43" s="125">
         <f>SUM(((H33-H10)/2),H10)</f>
         <v>114.6275</v>
       </c>
-      <c r="I43" s="128">
+      <c r="I43" s="126">
         <v>358.63</v>
       </c>
-      <c r="J43" s="137">
+      <c r="J43" s="135">
         <f>SUM(((J33-J10)/2),J10)</f>
         <v>25</v>
       </c>
-      <c r="K43" s="132">
+      <c r="K43" s="130">
         <f t="shared" ref="K43:S43" si="8">SUM(((K33-K10)/2),K10)</f>
         <v>100</v>
       </c>
-      <c r="L43" s="132">
+      <c r="L43" s="130">
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="M43" s="138">
+      <c r="M43" s="136">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N43" s="146">
+      <c r="N43" s="144">
         <f t="shared" si="8"/>
         <v>191.25</v>
       </c>
-      <c r="O43" s="141">
+      <c r="O43" s="139">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P43" s="147">
+      <c r="P43" s="145">
         <f t="shared" si="8"/>
         <v>127.5</v>
       </c>
-      <c r="Q43" s="146">
+      <c r="Q43" s="144">
         <f t="shared" si="8"/>
         <v>49.769999999999996</v>
       </c>
-      <c r="R43" s="141">
+      <c r="R43" s="139">
         <f t="shared" si="8"/>
         <v>84.41749999999999</v>
       </c>
-      <c r="S43" s="150">
+      <c r="S43" s="148">
         <f t="shared" si="8"/>
         <v>-8.5649999999999977</v>
       </c>
-      <c r="T43" s="108" t="s">
+      <c r="T43" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="U43" s="126"/>
-      <c r="V43" s="120" t="s">
+      <c r="U43" s="124"/>
+      <c r="V43" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="W43" s="170"/>
-      <c r="X43" s="120" t="s">
+      <c r="W43" s="168"/>
+      <c r="X43" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="Y43" s="155"/>
-      <c r="Z43" s="120" t="s">
+      <c r="Y43" s="153"/>
+      <c r="Z43" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="AA43" s="155"/>
-      <c r="AB43" s="108" t="s">
+      <c r="AA43" s="153"/>
+      <c r="AB43" s="106" t="s">
         <v>138</v>
       </c>
-      <c r="AC43" s="156"/>
-      <c r="AD43" s="320"/>
+      <c r="AC43" s="154"/>
+      <c r="AD43" s="327"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44" s="233"/>
-      <c r="B44" s="332" t="s">
+      <c r="A44" s="231"/>
+      <c r="B44" s="306" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="333"/>
-      <c r="D44" s="95">
+      <c r="C44" s="307"/>
+      <c r="D44" s="94">
         <f t="shared" ref="D44:I44" si="9">SUM(((D12-D28)/2),D28)</f>
         <v>195</v>
       </c>
-      <c r="E44" s="96">
+      <c r="E44" s="95">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="96">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="G44" s="100">
+      <c r="G44" s="99">
         <f t="shared" si="9"/>
         <v>60.865000000000002</v>
       </c>
-      <c r="H44" s="98">
+      <c r="H44" s="97">
         <f t="shared" si="9"/>
         <v>109.375</v>
       </c>
-      <c r="I44" s="99">
+      <c r="I44" s="98">
         <f t="shared" si="9"/>
         <v>236.245</v>
       </c>
-      <c r="J44" s="95">
+      <c r="J44" s="94">
         <f t="shared" ref="J44:S44" si="10">SUM(((J12-J28)/2),J28)</f>
         <v>100</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="95">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="L44" s="96">
+      <c r="L44" s="95">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="M44" s="97">
+      <c r="M44" s="96">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N44" s="142">
+      <c r="N44" s="140">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O44" s="139">
+      <c r="O44" s="137">
         <f t="shared" si="10"/>
         <v>127.5</v>
       </c>
-      <c r="P44" s="143">
+      <c r="P44" s="141">
         <f t="shared" si="10"/>
         <v>191.25</v>
       </c>
-      <c r="Q44" s="100">
+      <c r="Q44" s="99">
         <f t="shared" si="10"/>
         <v>60.865000000000002</v>
       </c>
-      <c r="R44" s="98">
+      <c r="R44" s="97">
         <f t="shared" si="10"/>
         <v>6.0349999999999966</v>
       </c>
-      <c r="S44" s="101">
+      <c r="S44" s="100">
         <f t="shared" si="10"/>
         <v>-36.669999999999995</v>
       </c>
-      <c r="T44" s="96" t="s">
+      <c r="T44" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="U44" s="167"/>
-      <c r="V44" s="332" t="s">
+      <c r="U44" s="165"/>
+      <c r="V44" s="306" t="s">
         <v>151</v>
       </c>
-      <c r="W44" s="333"/>
-      <c r="X44" s="118" t="s">
+      <c r="W44" s="307"/>
+      <c r="X44" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="Y44" s="173"/>
-      <c r="Z44" s="118" t="s">
+      <c r="Y44" s="171"/>
+      <c r="Z44" s="116" t="s">
         <v>153</v>
       </c>
-      <c r="AA44" s="173"/>
-      <c r="AB44" s="96" t="s">
+      <c r="AA44" s="171"/>
+      <c r="AB44" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="AC44" s="176"/>
-      <c r="AD44" s="320"/>
+      <c r="AC44" s="174"/>
+      <c r="AD44" s="327"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A45" s="233"/>
-      <c r="B45" s="315" t="s">
+      <c r="A45" s="231"/>
+      <c r="B45" s="298" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="316"/>
-      <c r="D45" s="72">
+      <c r="C45" s="299"/>
+      <c r="D45" s="71">
         <f>SUM(((D32-D11)/2),D11)</f>
         <v>165</v>
       </c>
@@ -5984,7 +6005,7 @@
         <f>SUM(((E32-E11)/2),E11)</f>
         <v>100</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="72">
         <f>SUM(((F32-F11)/2),F11)</f>
         <v>100</v>
       </c>
@@ -6000,7 +6021,7 @@
         <f>SUM(((I11-I32)/2),I32)</f>
         <v>193.67499999999998</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="71">
         <f t="shared" ref="J45:S45" si="11">SUM(((J11-J32)/2),J32)</f>
         <v>100</v>
       </c>
@@ -6012,19 +6033,19 @@
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="M45" s="73">
+      <c r="M45" s="72">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="N45" s="144">
+      <c r="N45" s="142">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="O45" s="140">
+      <c r="O45" s="138">
         <f t="shared" si="11"/>
         <v>191.25</v>
       </c>
-      <c r="P45" s="145">
+      <c r="P45" s="143">
         <f t="shared" si="11"/>
         <v>127.5</v>
       </c>
@@ -6036,223 +6057,223 @@
         <f t="shared" si="11"/>
         <v>-35.31</v>
       </c>
-      <c r="S45" s="78">
+      <c r="S45" s="77">
         <f t="shared" si="11"/>
         <v>11.090000000000003</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="U45" s="168"/>
-      <c r="V45" s="122" t="s">
+      <c r="U45" s="166"/>
+      <c r="V45" s="120" t="s">
         <v>152</v>
       </c>
-      <c r="W45" s="172"/>
-      <c r="X45" s="122" t="s">
+      <c r="W45" s="170"/>
+      <c r="X45" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="Y45" s="174"/>
-      <c r="Z45" s="122" t="s">
+      <c r="Y45" s="172"/>
+      <c r="Z45" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="AA45" s="174"/>
+      <c r="AA45" s="172"/>
       <c r="AB45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="AC45" s="177"/>
-      <c r="AD45" s="320"/>
+      <c r="AC45" s="175"/>
+      <c r="AD45" s="327"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46" s="233"/>
-      <c r="B46" s="311" t="s">
+      <c r="A46" s="231"/>
+      <c r="B46" s="308" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="312"/>
-      <c r="D46" s="107">
+      <c r="C46" s="309"/>
+      <c r="D46" s="105">
         <f>SUM(((D21-D13)/2),D13)</f>
         <v>180</v>
       </c>
-      <c r="E46" s="108">
+      <c r="E46" s="106">
         <f>SUM(((E21-E13)/2),E13)</f>
         <v>100</v>
       </c>
-      <c r="F46" s="109">
+      <c r="F46" s="107">
         <f>SUM(((F21-F13)/2),F13)</f>
         <v>100</v>
       </c>
-      <c r="G46" s="129">
+      <c r="G46" s="127">
         <f>SUM(((G13-G21)/2),G21)</f>
         <v>75.569999999999993</v>
       </c>
-      <c r="H46" s="127">
+      <c r="H46" s="125">
         <f t="shared" ref="H46:S46" si="12">SUM(((H13-H21)/2),H21)</f>
         <v>88.449999999999989</v>
       </c>
-      <c r="I46" s="128">
+      <c r="I46" s="126">
         <f t="shared" si="12"/>
         <v>208.76999999999998</v>
       </c>
-      <c r="J46" s="107">
+      <c r="J46" s="105">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="K46" s="108">
+      <c r="K46" s="106">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="L46" s="108">
+      <c r="L46" s="106">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="M46" s="109">
+      <c r="M46" s="107">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="N46" s="146">
+      <c r="N46" s="144">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="O46" s="141">
+      <c r="O46" s="139">
         <f t="shared" si="12"/>
         <v>191.25</v>
       </c>
-      <c r="P46" s="147">
+      <c r="P46" s="145">
         <f t="shared" si="12"/>
         <v>191.25</v>
       </c>
-      <c r="Q46" s="129">
+      <c r="Q46" s="127">
         <f t="shared" si="12"/>
         <v>75.569999999999993</v>
       </c>
-      <c r="R46" s="127">
+      <c r="R46" s="125">
         <f t="shared" si="12"/>
         <v>-25.785000000000004</v>
       </c>
-      <c r="S46" s="148">
+      <c r="S46" s="146">
         <f t="shared" si="12"/>
         <v>-13.239999999999995</v>
       </c>
-      <c r="T46" s="108" t="s">
+      <c r="T46" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="U46" s="169"/>
-      <c r="V46" s="311" t="s">
+      <c r="U46" s="167"/>
+      <c r="V46" s="308" t="s">
         <v>151</v>
       </c>
-      <c r="W46" s="312"/>
-      <c r="X46" s="120" t="s">
+      <c r="W46" s="309"/>
+      <c r="X46" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="Y46" s="175"/>
-      <c r="Z46" s="120" t="s">
+      <c r="Y46" s="173"/>
+      <c r="Z46" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="AA46" s="175"/>
-      <c r="AB46" s="108" t="s">
+      <c r="AA46" s="173"/>
+      <c r="AB46" s="106" t="s">
         <v>158</v>
       </c>
-      <c r="AC46" s="178"/>
-      <c r="AD46" s="320"/>
+      <c r="AC46" s="176"/>
+      <c r="AD46" s="327"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="260"/>
-      <c r="B47" s="332" t="s">
+      <c r="A47" s="258"/>
+      <c r="B47" s="306" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="333"/>
-      <c r="D47" s="118">
+      <c r="C47" s="307"/>
+      <c r="D47" s="116">
         <f>SUM(((D26-D15)/2),D15)</f>
         <v>150</v>
       </c>
-      <c r="E47" s="96">
+      <c r="E47" s="95">
         <f t="shared" ref="E47:H47" si="13">SUM(((E26-E15)/2),E15)</f>
         <v>100</v>
       </c>
-      <c r="F47" s="119">
+      <c r="F47" s="117">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="G47" s="100">
+      <c r="G47" s="99">
         <f t="shared" si="13"/>
         <v>86.43</v>
       </c>
-      <c r="H47" s="98">
+      <c r="H47" s="97">
         <f t="shared" si="13"/>
         <v>89.867500000000007</v>
       </c>
-      <c r="I47" s="99">
+      <c r="I47" s="98">
         <f>SUM(((I26-I15)/2),I15)</f>
         <v>182.59999999999997</v>
       </c>
-      <c r="J47" s="133">
+      <c r="J47" s="131">
         <f t="shared" ref="J47:M47" si="14">SUM(((J26-J15)/2),J15)</f>
         <v>25</v>
       </c>
-      <c r="K47" s="130">
+      <c r="K47" s="128">
         <f t="shared" si="14"/>
         <v>25</v>
       </c>
-      <c r="L47" s="130">
+      <c r="L47" s="128">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="M47" s="134">
+      <c r="M47" s="132">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="N47" s="142">
+      <c r="N47" s="140">
         <f t="shared" ref="N47:S47" si="15">SUM(((N26-N15)/2),N15)</f>
         <v>191.25</v>
       </c>
-      <c r="O47" s="139">
+      <c r="O47" s="137">
         <f t="shared" si="15"/>
         <v>191.25</v>
       </c>
-      <c r="P47" s="143">
+      <c r="P47" s="141">
         <f t="shared" si="15"/>
         <v>127.5</v>
       </c>
-      <c r="Q47" s="100">
+      <c r="Q47" s="99">
         <f t="shared" si="15"/>
         <v>86.43</v>
       </c>
-      <c r="R47" s="98">
+      <c r="R47" s="97">
         <f t="shared" si="15"/>
         <v>1.7624999999999993</v>
       </c>
-      <c r="S47" s="101">
+      <c r="S47" s="100">
         <f t="shared" si="15"/>
         <v>28.495000000000005</v>
       </c>
-      <c r="T47" s="96" t="s">
+      <c r="T47" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="U47" s="115"/>
-      <c r="V47" s="118" t="s">
+      <c r="U47" s="113"/>
+      <c r="V47" s="116" t="s">
         <v>198</v>
       </c>
-      <c r="W47" s="263"/>
-      <c r="X47" s="118" t="s">
+      <c r="W47" s="261"/>
+      <c r="X47" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="Y47" s="268"/>
-      <c r="Z47" s="118" t="s">
+      <c r="Y47" s="266"/>
+      <c r="Z47" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="AA47" s="268"/>
-      <c r="AB47" s="96" t="s">
+      <c r="AA47" s="266"/>
+      <c r="AB47" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="AC47" s="274"/>
-      <c r="AD47" s="320"/>
+      <c r="AC47" s="272"/>
+      <c r="AD47" s="327"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="260"/>
-      <c r="B48" s="315" t="s">
+      <c r="A48" s="258"/>
+      <c r="B48" s="298" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="316"/>
-      <c r="D48" s="122">
+      <c r="C48" s="299"/>
+      <c r="D48" s="120">
         <f>SUM(((D36-D14)/2),D14)</f>
         <v>210</v>
       </c>
@@ -6260,7 +6281,7 @@
         <f t="shared" ref="E48:H48" si="16">SUM(((E36-E14)/2),E14)</f>
         <v>100</v>
       </c>
-      <c r="F48" s="123">
+      <c r="F48" s="121">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
@@ -6276,31 +6297,31 @@
         <f>SUM(((I36-I14)/2),I14)</f>
         <v>238.92500000000001</v>
       </c>
-      <c r="J48" s="135">
+      <c r="J48" s="133">
         <f t="shared" ref="J48:M48" si="17">SUM(((J36-J14)/2),J14)</f>
         <v>25</v>
       </c>
-      <c r="K48" s="131">
+      <c r="K48" s="129">
         <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="L48" s="131">
+      <c r="L48" s="129">
         <f t="shared" si="17"/>
         <v>25</v>
       </c>
-      <c r="M48" s="136">
+      <c r="M48" s="134">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N48" s="144">
+      <c r="N48" s="142">
         <f t="shared" ref="N48:S48" si="18">SUM(((N36-N14)/2),N14)</f>
         <v>191.25</v>
       </c>
-      <c r="O48" s="140">
+      <c r="O48" s="138">
         <f t="shared" si="18"/>
         <v>127.5</v>
       </c>
-      <c r="P48" s="145">
+      <c r="P48" s="143">
         <f t="shared" si="18"/>
         <v>191.25</v>
       </c>
@@ -6312,7 +6333,7 @@
         <f t="shared" si="18"/>
         <v>31.715000000000003</v>
       </c>
-      <c r="S48" s="78">
+      <c r="S48" s="77">
         <f t="shared" si="18"/>
         <v>-10.335000000000001</v>
       </c>
@@ -6320,91 +6341,91 @@
         <v>67</v>
       </c>
       <c r="U48" s="41"/>
-      <c r="V48" s="315" t="s">
+      <c r="V48" s="298" t="s">
         <v>151</v>
       </c>
-      <c r="W48" s="316"/>
-      <c r="X48" s="122" t="s">
+      <c r="W48" s="299"/>
+      <c r="X48" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="Y48" s="269"/>
-      <c r="Z48" s="122" t="s">
+      <c r="Y48" s="267"/>
+      <c r="Z48" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="AA48" s="269"/>
+      <c r="AA48" s="267"/>
       <c r="AB48" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AC48" s="275"/>
-      <c r="AD48" s="320"/>
+      <c r="AC48" s="273"/>
+      <c r="AD48" s="327"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A49" s="260"/>
-      <c r="B49" s="311" t="s">
+      <c r="A49" s="258"/>
+      <c r="B49" s="308" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="312"/>
-      <c r="D49" s="120">
+      <c r="C49" s="309"/>
+      <c r="D49" s="118">
         <f>SUM(((D27-D13)/2),D13)</f>
         <v>90</v>
       </c>
-      <c r="E49" s="108">
+      <c r="E49" s="106">
         <f t="shared" ref="E49:H49" si="19">SUM(((E27-E13)/2),E13)</f>
         <v>100</v>
       </c>
-      <c r="F49" s="121">
+      <c r="F49" s="119">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="G49" s="129">
+      <c r="G49" s="127">
         <f t="shared" si="19"/>
         <v>84.925000000000011</v>
       </c>
-      <c r="H49" s="127">
+      <c r="H49" s="125">
         <f t="shared" si="19"/>
         <v>78.17</v>
       </c>
-      <c r="I49" s="128">
+      <c r="I49" s="126">
         <f>SUM(((I27-I13)/2),I13)</f>
         <v>115.96499999999999</v>
       </c>
-      <c r="J49" s="137">
+      <c r="J49" s="135">
         <f t="shared" ref="J49:M49" si="20">SUM(((J27-J13)/2),J13)</f>
         <v>50</v>
       </c>
-      <c r="K49" s="132">
+      <c r="K49" s="130">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="L49" s="132">
+      <c r="L49" s="130">
         <f t="shared" si="20"/>
         <v>25</v>
       </c>
-      <c r="M49" s="138">
+      <c r="M49" s="136">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N49" s="146">
+      <c r="N49" s="144">
         <f t="shared" ref="N49:S49" si="21">SUM(((N27-N13)/2),N13)</f>
         <v>127.5</v>
       </c>
-      <c r="O49" s="141">
+      <c r="O49" s="139">
         <f t="shared" si="21"/>
         <v>191.25</v>
       </c>
-      <c r="P49" s="147">
+      <c r="P49" s="145">
         <f t="shared" si="21"/>
         <v>191.25</v>
       </c>
-      <c r="Q49" s="129">
+      <c r="Q49" s="127">
         <f t="shared" si="21"/>
         <v>84.925000000000011</v>
       </c>
-      <c r="R49" s="127">
+      <c r="R49" s="125">
         <f t="shared" si="21"/>
         <v>-4.8674999999999997</v>
       </c>
-      <c r="S49" s="148">
+      <c r="S49" s="146">
         <f t="shared" si="21"/>
         <v>1.3399999999999963</v>
       </c>
@@ -6412,121 +6433,121 @@
         <v>66</v>
       </c>
       <c r="U49" s="35"/>
-      <c r="V49" s="120" t="s">
+      <c r="V49" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="W49" s="264"/>
-      <c r="X49" s="120" t="s">
+      <c r="W49" s="262"/>
+      <c r="X49" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="Y49" s="270"/>
-      <c r="Z49" s="120" t="s">
+      <c r="Y49" s="268"/>
+      <c r="Z49" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="AA49" s="270"/>
-      <c r="AB49" s="108" t="s">
+      <c r="AA49" s="268"/>
+      <c r="AB49" s="106" t="s">
         <v>211</v>
       </c>
-      <c r="AC49" s="276"/>
-      <c r="AD49" s="320"/>
+      <c r="AC49" s="274"/>
+      <c r="AD49" s="327"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B50" s="332" t="s">
+      <c r="B50" s="306" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="333"/>
-      <c r="D50" s="95">
+      <c r="C50" s="307"/>
+      <c r="D50" s="94">
         <f>SUM(((D26-D12)/2),D12)</f>
         <v>240</v>
       </c>
-      <c r="E50" s="96">
+      <c r="E50" s="95">
         <f>SUM(((E26-E12)/2),E12)</f>
         <v>100</v>
       </c>
-      <c r="F50" s="97">
+      <c r="F50" s="96">
         <f>SUM(((F26-F12)/2),F12)</f>
         <v>100</v>
       </c>
-      <c r="G50" s="100">
+      <c r="G50" s="99">
         <f t="shared" ref="G50:H50" si="22">SUM(((G26-G12)/2),G12)</f>
         <v>54.01</v>
       </c>
-      <c r="H50" s="98">
+      <c r="H50" s="97">
         <f t="shared" si="22"/>
         <v>108.32250000000001</v>
       </c>
-      <c r="I50" s="99">
+      <c r="I50" s="98">
         <f>SUM(((I26-I12)/2),I12)</f>
         <v>284.32</v>
       </c>
-      <c r="J50" s="133">
+      <c r="J50" s="131">
         <f t="shared" ref="J50:S50" si="23">SUM(((J26-J12)/2),J12)</f>
         <v>75</v>
       </c>
-      <c r="K50" s="130">
+      <c r="K50" s="128">
         <f t="shared" si="23"/>
         <v>75</v>
       </c>
-      <c r="L50" s="130">
+      <c r="L50" s="128">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M50" s="134">
+      <c r="M50" s="132">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="N50" s="142">
+      <c r="N50" s="140">
         <f t="shared" si="23"/>
         <v>63.75</v>
       </c>
-      <c r="O50" s="139">
+      <c r="O50" s="137">
         <f t="shared" si="23"/>
         <v>63.75</v>
       </c>
-      <c r="P50" s="143">
+      <c r="P50" s="141">
         <f t="shared" si="23"/>
         <v>255</v>
       </c>
-      <c r="Q50" s="100">
+      <c r="Q50" s="99">
         <f t="shared" si="23"/>
         <v>54.01</v>
       </c>
-      <c r="R50" s="98">
+      <c r="R50" s="97">
         <f t="shared" si="23"/>
         <v>52.142499999999998</v>
       </c>
-      <c r="S50" s="101">
+      <c r="S50" s="100">
         <f t="shared" si="23"/>
         <v>-72.674999999999997</v>
       </c>
-      <c r="T50" s="96" t="s">
+      <c r="T50" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="U50" s="200"/>
-      <c r="V50" s="332" t="s">
+      <c r="U50" s="198"/>
+      <c r="V50" s="306" t="s">
         <v>151</v>
       </c>
-      <c r="W50" s="333"/>
-      <c r="X50" s="118" t="s">
+      <c r="W50" s="307"/>
+      <c r="X50" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="Y50" s="213"/>
-      <c r="Z50" s="118" t="s">
+      <c r="Y50" s="211"/>
+      <c r="Z50" s="116" t="s">
         <v>171</v>
       </c>
-      <c r="AA50" s="213"/>
-      <c r="AB50" s="96" t="s">
+      <c r="AA50" s="211"/>
+      <c r="AB50" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="AC50" s="223"/>
-      <c r="AD50" s="320"/>
+      <c r="AC50" s="221"/>
+      <c r="AD50" s="327"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B51" s="315" t="s">
+      <c r="B51" s="298" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="316"/>
-      <c r="D51" s="72">
+      <c r="C51" s="299"/>
+      <c r="D51" s="71">
         <f>SUM(((D14-D32)/2),D32)</f>
         <v>255</v>
       </c>
@@ -6534,7 +6555,7 @@
         <f t="shared" ref="E51:S51" si="24">SUM(((E14-E32)/2),E32)</f>
         <v>100</v>
       </c>
-      <c r="F51" s="73">
+      <c r="F51" s="72">
         <f t="shared" si="24"/>
         <v>100</v>
       </c>
@@ -6550,31 +6571,31 @@
         <f t="shared" si="24"/>
         <v>289.78499999999997</v>
       </c>
-      <c r="J51" s="135">
+      <c r="J51" s="133">
         <f t="shared" si="24"/>
         <v>50</v>
       </c>
-      <c r="K51" s="131">
+      <c r="K51" s="129">
         <f t="shared" si="24"/>
         <v>75</v>
       </c>
-      <c r="L51" s="131">
+      <c r="L51" s="129">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M51" s="136">
+      <c r="M51" s="134">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="N51" s="144">
+      <c r="N51" s="142">
         <f t="shared" si="24"/>
         <v>127.5</v>
       </c>
-      <c r="O51" s="140">
+      <c r="O51" s="138">
         <f t="shared" si="24"/>
         <v>63.75</v>
       </c>
-      <c r="P51" s="145">
+      <c r="P51" s="143">
         <f t="shared" si="24"/>
         <v>255</v>
       </c>
@@ -6586,231 +6607,231 @@
         <f t="shared" si="24"/>
         <v>56.905000000000001</v>
       </c>
-      <c r="S51" s="78">
+      <c r="S51" s="77">
         <f t="shared" si="24"/>
         <v>-60.92</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="201"/>
-      <c r="V51" s="315" t="s">
+      <c r="U51" s="199"/>
+      <c r="V51" s="298" t="s">
         <v>151</v>
       </c>
-      <c r="W51" s="316"/>
-      <c r="X51" s="122" t="s">
+      <c r="W51" s="299"/>
+      <c r="X51" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="Y51" s="214"/>
-      <c r="Z51" s="122" t="s">
+      <c r="Y51" s="212"/>
+      <c r="Z51" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="AA51" s="214"/>
+      <c r="AA51" s="212"/>
       <c r="AB51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AC51" s="224"/>
-      <c r="AD51" s="320"/>
+      <c r="AC51" s="222"/>
+      <c r="AD51" s="327"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B52" s="311" t="s">
+      <c r="B52" s="308" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="312"/>
-      <c r="D52" s="107">
+      <c r="C52" s="309"/>
+      <c r="D52" s="105">
         <f>SUM(((D33-D13)/2),D13)</f>
         <v>225</v>
       </c>
-      <c r="E52" s="108">
+      <c r="E52" s="106">
         <f t="shared" ref="E52:S52" si="25">SUM(((E33-E13)/2),E13)</f>
         <v>100</v>
       </c>
-      <c r="F52" s="109">
+      <c r="F52" s="107">
         <f t="shared" si="25"/>
         <v>100</v>
       </c>
-      <c r="G52" s="129">
+      <c r="G52" s="127">
         <f t="shared" si="25"/>
         <v>68.715000000000003</v>
       </c>
-      <c r="H52" s="127">
+      <c r="H52" s="125">
         <f t="shared" si="25"/>
         <v>87.397500000000008</v>
       </c>
-      <c r="I52" s="128">
+      <c r="I52" s="126">
         <f t="shared" si="25"/>
         <v>256.82500000000005</v>
       </c>
-      <c r="J52" s="137">
+      <c r="J52" s="135">
         <f t="shared" si="25"/>
         <v>75</v>
       </c>
-      <c r="K52" s="132">
+      <c r="K52" s="130">
         <f t="shared" si="25"/>
         <v>50</v>
       </c>
-      <c r="L52" s="132">
+      <c r="L52" s="130">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M52" s="138">
+      <c r="M52" s="136">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N52" s="146">
+      <c r="N52" s="144">
         <f t="shared" si="25"/>
         <v>63.75</v>
       </c>
-      <c r="O52" s="141">
+      <c r="O52" s="139">
         <f t="shared" si="25"/>
         <v>127.5</v>
       </c>
-      <c r="P52" s="147">
+      <c r="P52" s="145">
         <f t="shared" si="25"/>
         <v>255</v>
       </c>
-      <c r="Q52" s="129">
+      <c r="Q52" s="127">
         <f t="shared" si="25"/>
         <v>68.715000000000003</v>
       </c>
-      <c r="R52" s="127">
+      <c r="R52" s="125">
         <f t="shared" si="25"/>
         <v>20.322500000000005</v>
       </c>
-      <c r="S52" s="148">
+      <c r="S52" s="146">
         <f t="shared" si="25"/>
         <v>-49.244999999999997</v>
       </c>
-      <c r="T52" s="108" t="s">
+      <c r="T52" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="U52" s="202"/>
-      <c r="V52" s="311" t="s">
+      <c r="U52" s="200"/>
+      <c r="V52" s="308" t="s">
         <v>151</v>
       </c>
-      <c r="W52" s="312"/>
-      <c r="X52" s="120" t="s">
+      <c r="W52" s="309"/>
+      <c r="X52" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="Y52" s="215"/>
-      <c r="Z52" s="120" t="s">
+      <c r="Y52" s="213"/>
+      <c r="Z52" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="AA52" s="215"/>
-      <c r="AB52" s="108" t="s">
+      <c r="AA52" s="213"/>
+      <c r="AB52" s="106" t="s">
         <v>182</v>
       </c>
-      <c r="AC52" s="225"/>
-      <c r="AD52" s="320"/>
+      <c r="AC52" s="223"/>
+      <c r="AD52" s="327"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B53" s="332" t="s">
+      <c r="B53" s="306" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="333"/>
-      <c r="D53" s="133">
+      <c r="C53" s="307"/>
+      <c r="D53" s="131">
         <f>SUM(((D28-D15)/2),D15)</f>
         <v>105</v>
       </c>
-      <c r="E53" s="130">
+      <c r="E53" s="128">
         <f t="shared" ref="E53:S53" si="26">SUM(((E28-E15)/2),E15)</f>
         <v>100</v>
       </c>
-      <c r="F53" s="134">
+      <c r="F53" s="132">
         <f t="shared" si="26"/>
         <v>100</v>
       </c>
-      <c r="G53" s="100">
+      <c r="G53" s="99">
         <f t="shared" si="26"/>
         <v>93.284999999999997</v>
       </c>
-      <c r="H53" s="98">
+      <c r="H53" s="97">
         <f t="shared" si="26"/>
         <v>90.92</v>
       </c>
-      <c r="I53" s="99">
+      <c r="I53" s="98">
         <f t="shared" si="26"/>
         <v>134.52499999999998</v>
       </c>
-      <c r="J53" s="95">
+      <c r="J53" s="94">
         <f t="shared" si="26"/>
         <v>50</v>
       </c>
-      <c r="K53" s="96">
+      <c r="K53" s="95">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L53" s="96">
+      <c r="L53" s="95">
         <f t="shared" si="26"/>
         <v>75</v>
       </c>
-      <c r="M53" s="97">
+      <c r="M53" s="96">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N53" s="142">
+      <c r="N53" s="140">
         <f t="shared" si="26"/>
         <v>127.5</v>
       </c>
-      <c r="O53" s="139">
+      <c r="O53" s="137">
         <f t="shared" si="26"/>
         <v>255</v>
       </c>
-      <c r="P53" s="143">
+      <c r="P53" s="141">
         <f t="shared" si="26"/>
         <v>63.75</v>
       </c>
-      <c r="Q53" s="100">
+      <c r="Q53" s="99">
         <f t="shared" si="26"/>
         <v>93.284999999999997</v>
       </c>
-      <c r="R53" s="98">
+      <c r="R53" s="97">
         <f t="shared" si="26"/>
         <v>-44.344999999999999</v>
       </c>
-      <c r="S53" s="101">
+      <c r="S53" s="100">
         <f t="shared" si="26"/>
         <v>64.5</v>
       </c>
-      <c r="T53" s="96" t="s">
+      <c r="T53" s="95" t="s">
         <v>161</v>
       </c>
-      <c r="U53" s="203"/>
-      <c r="V53" s="118" t="s">
+      <c r="U53" s="201"/>
+      <c r="V53" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="W53" s="207"/>
-      <c r="X53" s="118" t="s">
+      <c r="W53" s="205"/>
+      <c r="X53" s="116" t="s">
         <v>130</v>
       </c>
-      <c r="Y53" s="216"/>
-      <c r="Z53" s="96" t="s">
+      <c r="Y53" s="214"/>
+      <c r="Z53" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="AA53" s="222"/>
-      <c r="AB53" s="96" t="s">
+      <c r="AA53" s="220"/>
+      <c r="AB53" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="AC53" s="226"/>
-      <c r="AD53" s="320"/>
+      <c r="AC53" s="224"/>
+      <c r="AD53" s="327"/>
       <c r="AI53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B54" s="315" t="s">
+      <c r="B54" s="298" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="316"/>
-      <c r="D54" s="135">
+      <c r="C54" s="299"/>
+      <c r="D54" s="133">
         <f>SUM(((D36-D11)/2),D11)</f>
         <v>120</v>
       </c>
-      <c r="E54" s="131">
+      <c r="E54" s="129">
         <f t="shared" ref="E54:S54" si="27">SUM(((E36-E11)/2),E11)</f>
         <v>100</v>
       </c>
-      <c r="F54" s="136">
+      <c r="F54" s="134">
         <f t="shared" si="27"/>
         <v>100</v>
       </c>
@@ -6826,7 +6847,7 @@
         <f t="shared" si="27"/>
         <v>142.815</v>
       </c>
-      <c r="J54" s="72">
+      <c r="J54" s="71">
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
@@ -6838,19 +6859,19 @@
         <f t="shared" si="27"/>
         <v>75</v>
       </c>
-      <c r="M54" s="73">
+      <c r="M54" s="72">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="N54" s="144">
+      <c r="N54" s="142">
         <f t="shared" si="27"/>
         <v>63.75</v>
       </c>
-      <c r="O54" s="140">
+      <c r="O54" s="138">
         <f t="shared" si="27"/>
         <v>255</v>
       </c>
-      <c r="P54" s="145">
+      <c r="P54" s="143">
         <f>SUM(((P36-P11)/2),P11)</f>
         <v>63.75</v>
       </c>
@@ -6862,7 +6883,7 @@
         <f t="shared" si="27"/>
         <v>-60.5</v>
       </c>
-      <c r="S54" s="78">
+      <c r="S54" s="77">
         <f t="shared" si="27"/>
         <v>61.675000000000004</v>
       </c>
@@ -6870,218 +6891,218 @@
         <v>70</v>
       </c>
       <c r="U54" s="43"/>
-      <c r="V54" s="122" t="s">
+      <c r="V54" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="W54" s="208"/>
-      <c r="X54" s="122" t="s">
+      <c r="W54" s="206"/>
+      <c r="X54" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="Y54" s="217"/>
+      <c r="Y54" s="215"/>
       <c r="Z54" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AA54" s="217"/>
+      <c r="AA54" s="215"/>
       <c r="AB54" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AC54" s="227"/>
-      <c r="AD54" s="320"/>
+      <c r="AC54" s="225"/>
+      <c r="AD54" s="327"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="311" t="s">
+      <c r="B55" s="308" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="312"/>
-      <c r="D55" s="137">
+      <c r="C55" s="309"/>
+      <c r="D55" s="135">
         <f>SUM(((D13-D31)/2),D31)</f>
         <v>135</v>
       </c>
-      <c r="E55" s="132">
+      <c r="E55" s="130">
         <f t="shared" ref="E55:S55" si="28">SUM(((E13-E31)/2),E31)</f>
         <v>100</v>
       </c>
-      <c r="F55" s="138">
+      <c r="F55" s="136">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="G55" s="129">
+      <c r="G55" s="127">
         <f t="shared" si="28"/>
         <v>91.78</v>
       </c>
-      <c r="H55" s="127">
+      <c r="H55" s="125">
         <f t="shared" si="28"/>
         <v>79.222499999999997</v>
       </c>
-      <c r="I55" s="128">
+      <c r="I55" s="126">
         <f t="shared" si="28"/>
         <v>157.91</v>
       </c>
-      <c r="J55" s="107">
+      <c r="J55" s="105">
         <f t="shared" si="28"/>
         <v>75</v>
       </c>
-      <c r="K55" s="108">
+      <c r="K55" s="106">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="L55" s="108">
+      <c r="L55" s="106">
         <f t="shared" si="28"/>
         <v>50</v>
       </c>
-      <c r="M55" s="109">
+      <c r="M55" s="107">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N55" s="146">
+      <c r="N55" s="144">
         <f t="shared" si="28"/>
         <v>63.75</v>
       </c>
-      <c r="O55" s="141">
+      <c r="O55" s="139">
         <f t="shared" si="28"/>
         <v>255</v>
       </c>
-      <c r="P55" s="147">
+      <c r="P55" s="145">
         <f t="shared" si="28"/>
         <v>127.5</v>
       </c>
-      <c r="Q55" s="129">
+      <c r="Q55" s="127">
         <f t="shared" si="28"/>
         <v>91.78</v>
       </c>
-      <c r="R55" s="127">
+      <c r="R55" s="125">
         <f t="shared" si="28"/>
         <v>-50.975000000000001</v>
       </c>
-      <c r="S55" s="148">
+      <c r="S55" s="146">
         <f t="shared" si="28"/>
         <v>37.345000000000006</v>
       </c>
-      <c r="T55" s="108" t="s">
+      <c r="T55" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="U55" s="126"/>
-      <c r="V55" s="120" t="s">
+      <c r="U55" s="124"/>
+      <c r="V55" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="W55" s="209"/>
-      <c r="X55" s="120" t="s">
+      <c r="W55" s="207"/>
+      <c r="X55" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="Y55" s="218"/>
-      <c r="Z55" s="120" t="s">
+      <c r="Y55" s="216"/>
+      <c r="Z55" s="118" t="s">
         <v>175</v>
       </c>
-      <c r="AA55" s="218"/>
-      <c r="AB55" s="108" t="s">
+      <c r="AA55" s="216"/>
+      <c r="AB55" s="106" t="s">
         <v>185</v>
       </c>
-      <c r="AC55" s="228"/>
-      <c r="AD55" s="320"/>
+      <c r="AC55" s="226"/>
+      <c r="AD55" s="327"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B56" s="332" t="s">
+      <c r="B56" s="306" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="333"/>
-      <c r="D56" s="133">
+      <c r="C56" s="307"/>
+      <c r="D56" s="131">
         <v>15</v>
       </c>
-      <c r="E56" s="130">
+      <c r="E56" s="128">
         <f t="shared" ref="E56:S56" si="29">SUM(((E24-E15)/2),E15)</f>
         <v>100</v>
       </c>
-      <c r="F56" s="134">
+      <c r="F56" s="132">
         <f t="shared" si="29"/>
         <v>100</v>
       </c>
-      <c r="G56" s="100">
+      <c r="G56" s="99">
         <f t="shared" si="29"/>
         <v>76.957499999999996</v>
       </c>
-      <c r="H56" s="98">
+      <c r="H56" s="97">
         <f t="shared" si="29"/>
         <v>103.4825</v>
       </c>
-      <c r="I56" s="99">
+      <c r="I56" s="98">
         <f t="shared" si="29"/>
         <v>53.484999999999999</v>
       </c>
-      <c r="J56" s="184">
+      <c r="J56" s="182">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="K56" s="185">
+      <c r="K56" s="183">
         <f t="shared" si="29"/>
         <v>50</v>
       </c>
-      <c r="L56" s="185">
+      <c r="L56" s="183">
         <f t="shared" si="29"/>
         <v>75</v>
       </c>
-      <c r="M56" s="186">
+      <c r="M56" s="184">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="N56" s="142">
+      <c r="N56" s="140">
         <f t="shared" si="29"/>
         <v>255</v>
       </c>
-      <c r="O56" s="139">
+      <c r="O56" s="137">
         <f t="shared" si="29"/>
         <v>127.5</v>
       </c>
-      <c r="P56" s="143">
+      <c r="P56" s="141">
         <f t="shared" si="29"/>
         <v>63.75</v>
       </c>
-      <c r="Q56" s="100">
+      <c r="Q56" s="99">
         <f t="shared" si="29"/>
         <v>76.957499999999996</v>
       </c>
-      <c r="R56" s="98">
+      <c r="R56" s="97">
         <f t="shared" si="29"/>
         <v>33.81</v>
       </c>
-      <c r="S56" s="101">
+      <c r="S56" s="100">
         <f t="shared" si="29"/>
         <v>48.835000000000001</v>
       </c>
-      <c r="T56" s="96" t="s">
+      <c r="T56" s="95" t="s">
         <v>163</v>
       </c>
-      <c r="U56" s="204"/>
-      <c r="V56" s="118" t="s">
+      <c r="U56" s="202"/>
+      <c r="V56" s="116" t="s">
         <v>168</v>
       </c>
-      <c r="W56" s="210"/>
-      <c r="X56" s="118" t="s">
+      <c r="W56" s="208"/>
+      <c r="X56" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="Y56" s="219"/>
-      <c r="Z56" s="118" t="s">
+      <c r="Y56" s="217"/>
+      <c r="Z56" s="116" t="s">
         <v>176</v>
       </c>
-      <c r="AA56" s="219"/>
-      <c r="AB56" s="96" t="s">
+      <c r="AA56" s="217"/>
+      <c r="AB56" s="95" t="s">
         <v>186</v>
       </c>
-      <c r="AC56" s="229"/>
-      <c r="AD56" s="320"/>
+      <c r="AC56" s="227"/>
+      <c r="AD56" s="327"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B57" s="315" t="s">
+      <c r="B57" s="298" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="316"/>
-      <c r="D57" s="135">
+      <c r="C57" s="299"/>
+      <c r="D57" s="133">
         <v>345</v>
       </c>
-      <c r="E57" s="131">
+      <c r="E57" s="129">
         <f>SUM(((E25-E14)/2),E14)</f>
         <v>100</v>
       </c>
-      <c r="F57" s="136">
+      <c r="F57" s="134">
         <f>SUM(((F25-F14)/2),F14)</f>
         <v>100</v>
       </c>
@@ -7096,31 +7117,31 @@
       <c r="I57" s="56">
         <v>19.829999999999998</v>
       </c>
-      <c r="J57" s="187">
+      <c r="J57" s="185">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="K57" s="188">
+      <c r="K57" s="186">
         <f t="shared" si="30"/>
         <v>75</v>
       </c>
-      <c r="L57" s="188">
+      <c r="L57" s="186">
         <f t="shared" si="30"/>
         <v>50</v>
       </c>
-      <c r="M57" s="189">
+      <c r="M57" s="187">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="N57" s="144">
+      <c r="N57" s="142">
         <f t="shared" si="30"/>
         <v>255</v>
       </c>
-      <c r="O57" s="140">
+      <c r="O57" s="138">
         <f t="shared" si="30"/>
         <v>63.75</v>
       </c>
-      <c r="P57" s="145">
+      <c r="P57" s="143">
         <f t="shared" si="30"/>
         <v>127.5</v>
       </c>
@@ -7132,46 +7153,46 @@
         <f t="shared" si="30"/>
         <v>63.762500000000003</v>
       </c>
-      <c r="S57" s="78">
+      <c r="S57" s="77">
         <f t="shared" si="30"/>
         <v>10.004999999999995</v>
       </c>
       <c r="T57" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="U57" s="205"/>
-      <c r="V57" s="122" t="s">
+      <c r="U57" s="203"/>
+      <c r="V57" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="W57" s="211"/>
-      <c r="X57" s="122" t="s">
+      <c r="W57" s="209"/>
+      <c r="X57" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="Y57" s="220"/>
-      <c r="Z57" s="122" t="s">
+      <c r="Y57" s="218"/>
+      <c r="Z57" s="120" t="s">
         <v>177</v>
       </c>
-      <c r="AA57" s="220"/>
+      <c r="AA57" s="218"/>
       <c r="AB57" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AC57" s="230"/>
-      <c r="AD57" s="320"/>
+      <c r="AC57" s="228"/>
+      <c r="AD57" s="327"/>
     </row>
     <row r="58" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="334" t="s">
+      <c r="B58" s="328" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="335"/>
-      <c r="D58" s="190">
+      <c r="C58" s="329"/>
+      <c r="D58" s="188">
         <f>SUM(((D27-D10)/2),D10)</f>
         <v>0</v>
       </c>
-      <c r="E58" s="191">
+      <c r="E58" s="189">
         <f t="shared" ref="E58:S58" si="31">SUM(((E27-E10)/2),E10)</f>
         <v>100</v>
       </c>
-      <c r="F58" s="192">
+      <c r="F58" s="190">
         <f t="shared" si="31"/>
         <v>100</v>
       </c>
@@ -7187,31 +7208,31 @@
         <f t="shared" si="31"/>
         <v>37.769999999999996</v>
       </c>
-      <c r="J58" s="193">
+      <c r="J58" s="191">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="K58" s="194">
+      <c r="K58" s="192">
         <f t="shared" si="31"/>
         <v>75</v>
       </c>
-      <c r="L58" s="194">
+      <c r="L58" s="192">
         <f t="shared" si="31"/>
         <v>75</v>
       </c>
-      <c r="M58" s="195">
+      <c r="M58" s="193">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="N58" s="196">
+      <c r="N58" s="194">
         <f t="shared" si="31"/>
         <v>255</v>
       </c>
-      <c r="O58" s="197">
+      <c r="O58" s="195">
         <f t="shared" si="31"/>
         <v>63.75</v>
       </c>
-      <c r="P58" s="198">
+      <c r="P58" s="196">
         <f t="shared" si="31"/>
         <v>63.75</v>
       </c>
@@ -7223,108 +7244,61 @@
         <f t="shared" si="31"/>
         <v>59.227499999999999</v>
       </c>
-      <c r="S58" s="199">
+      <c r="S58" s="197">
         <f t="shared" si="31"/>
         <v>42.019999999999996</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U58" s="206"/>
-      <c r="V58" s="124" t="s">
+      <c r="U58" s="204"/>
+      <c r="V58" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="W58" s="212"/>
-      <c r="X58" s="124" t="s">
+      <c r="W58" s="210"/>
+      <c r="X58" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="Y58" s="221"/>
-      <c r="Z58" s="124" t="s">
+      <c r="Y58" s="219"/>
+      <c r="Z58" s="122" t="s">
         <v>178</v>
       </c>
-      <c r="AA58" s="221"/>
+      <c r="AA58" s="219"/>
       <c r="AB58" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="AC58" s="231"/>
-      <c r="AD58" s="320"/>
+      <c r="AC58" s="229"/>
+      <c r="AD58" s="327"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G60" s="330" t="s">
+      <c r="G60" s="326" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="330"/>
-      <c r="I60" s="330"/>
-      <c r="J60" s="330"/>
-      <c r="K60" s="330"/>
-      <c r="L60" s="330"/>
-      <c r="M60" s="330"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AD38:AD58"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B37:AC37"/>
+    <mergeCell ref="V21:W21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="T17:AC17"/>
     <mergeCell ref="AD19:AD36"/>
     <mergeCell ref="J17:M17"/>
@@ -7341,22 +7315,69 @@
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B37:AC37"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AD38:AD58"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7375,7 +7396,7 @@
   </sheetPr>
   <dimension ref="A1:AG48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A20" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A20" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="A24" sqref="A24"/>
@@ -7397,31 +7418,31 @@
       <c r="B1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="244" t="s">
+      <c r="C1" s="242" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="245" t="s">
+      <c r="D1" s="243" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="244" t="s">
+      <c r="E1" s="242" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="244" t="s">
+      <c r="F1" s="242" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="245" t="s">
+      <c r="G1" s="243" t="s">
         <v>78</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="244" t="s">
+      <c r="I1" s="242" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="244" t="s">
+      <c r="J1" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="245" t="s">
+      <c r="K1" s="243" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="14" t="s">
@@ -7443,28 +7464,28 @@
         <v>75</v>
       </c>
       <c r="R1" s="13"/>
-      <c r="S1" s="284"/>
-      <c r="T1" s="284"/>
-      <c r="U1" s="284"/>
-      <c r="V1" s="284"/>
-      <c r="W1" s="284"/>
-      <c r="X1" s="284"/>
-      <c r="Y1" s="284"/>
-      <c r="Z1" s="284"/>
-      <c r="AA1" s="284"/>
-      <c r="AB1" s="284"/>
+      <c r="S1" s="282"/>
+      <c r="T1" s="282"/>
+      <c r="U1" s="282"/>
+      <c r="V1" s="282"/>
+      <c r="W1" s="282"/>
+      <c r="X1" s="282"/>
+      <c r="Y1" s="282"/>
+      <c r="Z1" s="282"/>
+      <c r="AA1" s="282"/>
+      <c r="AB1" s="282"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="289" t="s">
+      <c r="A2" s="287" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="234">
+      <c r="B2" s="232">
         <v>0</v>
       </c>
       <c r="C2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="235">
+      <c r="D2" s="233">
         <v>100</v>
       </c>
       <c r="E2" s="49">
@@ -7477,7 +7498,7 @@
       <c r="G2" s="50">
         <v>40</v>
       </c>
-      <c r="H2" s="234">
+      <c r="H2" s="232">
         <v>0</v>
       </c>
       <c r="I2" s="2">
@@ -7489,13 +7510,13 @@
       <c r="K2" s="11">
         <v>0</v>
       </c>
-      <c r="L2" s="234">
+      <c r="L2" s="232">
         <v>255</v>
       </c>
       <c r="M2" s="13">
         <v>0</v>
       </c>
-      <c r="N2" s="235">
+      <c r="N2" s="233">
         <v>0</v>
       </c>
       <c r="O2" s="54">
@@ -7508,28 +7529,28 @@
         <v>67.22</v>
       </c>
       <c r="R2" s="2"/>
-      <c r="S2" s="284"/>
-      <c r="T2" s="284"/>
-      <c r="U2" s="284"/>
-      <c r="V2" s="284"/>
-      <c r="W2" s="284"/>
-      <c r="X2" s="284"/>
-      <c r="Y2" s="284"/>
-      <c r="Z2" s="284"/>
-      <c r="AA2" s="284"/>
-      <c r="AB2" s="284"/>
+      <c r="S2" s="282"/>
+      <c r="T2" s="282"/>
+      <c r="U2" s="282"/>
+      <c r="V2" s="282"/>
+      <c r="W2" s="282"/>
+      <c r="X2" s="282"/>
+      <c r="Y2" s="282"/>
+      <c r="Z2" s="282"/>
+      <c r="AA2" s="282"/>
+      <c r="AB2" s="282"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="287" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="234">
+      <c r="B3" s="232">
         <v>120</v>
       </c>
       <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="235">
+      <c r="D3" s="233">
         <v>100</v>
       </c>
       <c r="E3" s="49">
@@ -7542,7 +7563,7 @@
       <c r="G3" s="50">
         <v>136.01</v>
       </c>
-      <c r="H3" s="234">
+      <c r="H3" s="232">
         <v>100</v>
       </c>
       <c r="I3" s="2">
@@ -7554,13 +7575,13 @@
       <c r="K3" s="11">
         <v>0</v>
       </c>
-      <c r="L3" s="234">
+      <c r="L3" s="232">
         <v>0</v>
       </c>
       <c r="M3" s="2">
         <v>255</v>
       </c>
-      <c r="N3" s="235">
+      <c r="N3" s="233">
         <v>0</v>
       </c>
       <c r="O3" s="54">
@@ -7573,28 +7594,28 @@
         <v>83.18</v>
       </c>
       <c r="R3" s="2"/>
-      <c r="S3" s="284"/>
-      <c r="T3" s="284"/>
-      <c r="U3" s="284"/>
-      <c r="V3" s="284"/>
-      <c r="W3" s="284"/>
-      <c r="X3" s="284"/>
-      <c r="Y3" s="284"/>
-      <c r="Z3" s="284"/>
-      <c r="AA3" s="284"/>
-      <c r="AB3" s="284"/>
+      <c r="S3" s="282"/>
+      <c r="T3" s="282"/>
+      <c r="U3" s="282"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="282"/>
+      <c r="X3" s="282"/>
+      <c r="Y3" s="282"/>
+      <c r="Z3" s="282"/>
+      <c r="AA3" s="282"/>
+      <c r="AB3" s="282"/>
     </row>
     <row r="4" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="287" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="236">
         <v>240</v>
       </c>
       <c r="C4" s="3">
         <v>100</v>
       </c>
-      <c r="D4" s="239">
+      <c r="D4" s="237">
         <v>100</v>
       </c>
       <c r="E4" s="51">
@@ -7607,7 +7628,7 @@
       <c r="G4" s="52">
         <v>306.29000000000002</v>
       </c>
-      <c r="H4" s="238">
+      <c r="H4" s="236">
         <v>100</v>
       </c>
       <c r="I4" s="3">
@@ -7619,13 +7640,13 @@
       <c r="K4" s="12">
         <v>0</v>
       </c>
-      <c r="L4" s="238">
+      <c r="L4" s="236">
         <v>0</v>
       </c>
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="239">
+      <c r="N4" s="237">
         <v>255</v>
       </c>
       <c r="O4" s="58">
@@ -7638,28 +7659,28 @@
         <v>-107.86</v>
       </c>
       <c r="R4" s="2"/>
-      <c r="S4" s="284"/>
-      <c r="T4" s="284"/>
-      <c r="U4" s="284"/>
-      <c r="V4" s="284"/>
-      <c r="W4" s="284"/>
-      <c r="X4" s="284"/>
-      <c r="Y4" s="284"/>
-      <c r="Z4" s="284"/>
-      <c r="AA4" s="284"/>
-      <c r="AB4" s="284"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="282"/>
+      <c r="AA4" s="282"/>
+      <c r="AB4" s="282"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5" s="289" t="s">
+      <c r="A5" s="287" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="234">
+      <c r="B5" s="232">
         <v>180</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="235">
+      <c r="D5" s="233">
         <v>100</v>
       </c>
       <c r="E5" s="49">
@@ -7672,7 +7693,7 @@
       <c r="G5" s="50">
         <v>196.39</v>
       </c>
-      <c r="H5" s="234">
+      <c r="H5" s="232">
         <v>100</v>
       </c>
       <c r="I5" s="2">
@@ -7684,13 +7705,13 @@
       <c r="K5" s="11">
         <v>0</v>
       </c>
-      <c r="L5" s="234">
+      <c r="L5" s="232">
         <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>255</v>
       </c>
-      <c r="N5" s="235">
+      <c r="N5" s="233">
         <v>255</v>
       </c>
       <c r="O5" s="54">
@@ -7703,28 +7724,28 @@
         <v>-14.14</v>
       </c>
       <c r="R5" s="2"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="284"/>
-      <c r="W5" s="284"/>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="284"/>
-      <c r="Z5" s="284"/>
-      <c r="AA5" s="284"/>
-      <c r="AB5" s="284"/>
+      <c r="S5" s="282"/>
+      <c r="T5" s="282"/>
+      <c r="U5" s="282"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="282"/>
+      <c r="X5" s="282"/>
+      <c r="Y5" s="282"/>
+      <c r="Z5" s="282"/>
+      <c r="AA5" s="282"/>
+      <c r="AB5" s="282"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="289" t="s">
+      <c r="A6" s="287" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="234">
+      <c r="B6" s="232">
         <v>300</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="235">
+      <c r="D6" s="233">
         <v>100</v>
       </c>
       <c r="E6" s="49">
@@ -7737,7 +7758,7 @@
       <c r="G6" s="50">
         <v>328.23</v>
       </c>
-      <c r="H6" s="234">
+      <c r="H6" s="232">
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -7749,13 +7770,13 @@
       <c r="K6" s="11">
         <v>0</v>
       </c>
-      <c r="L6" s="234">
+      <c r="L6" s="232">
         <v>255</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="235">
+      <c r="N6" s="233">
         <v>255</v>
       </c>
       <c r="O6" s="54">
@@ -7768,28 +7789,28 @@
         <v>-60.84</v>
       </c>
       <c r="R6" s="2"/>
-      <c r="S6" s="284"/>
-      <c r="T6" s="284"/>
-      <c r="U6" s="284"/>
-      <c r="V6" s="284"/>
-      <c r="W6" s="284"/>
-      <c r="X6" s="284"/>
-      <c r="Y6" s="284"/>
-      <c r="Z6" s="284"/>
-      <c r="AA6" s="284"/>
-      <c r="AB6" s="284"/>
+      <c r="S6" s="282"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="282"/>
+      <c r="AA6" s="282"/>
+      <c r="AB6" s="282"/>
     </row>
     <row r="7" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="289" t="s">
+      <c r="A7" s="287" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="238">
+      <c r="B7" s="236">
         <v>60</v>
       </c>
       <c r="C7" s="3">
         <v>100</v>
       </c>
-      <c r="D7" s="239">
+      <c r="D7" s="237">
         <v>100</v>
       </c>
       <c r="E7" s="53">
@@ -7802,7 +7823,7 @@
       <c r="G7" s="52">
         <v>102.85</v>
       </c>
-      <c r="H7" s="238">
+      <c r="H7" s="236">
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -7814,13 +7835,13 @@
       <c r="K7" s="12">
         <v>0</v>
       </c>
-      <c r="L7" s="238">
+      <c r="L7" s="236">
         <v>255</v>
       </c>
       <c r="M7" s="3">
         <v>255</v>
       </c>
-      <c r="N7" s="239">
+      <c r="N7" s="237">
         <v>0</v>
       </c>
       <c r="O7" s="58">
@@ -7833,28 +7854,28 @@
         <v>94.48</v>
       </c>
       <c r="R7" s="2"/>
-      <c r="S7" s="284"/>
-      <c r="T7" s="284"/>
-      <c r="U7" s="284"/>
-      <c r="V7" s="284"/>
-      <c r="W7" s="284"/>
-      <c r="X7" s="284"/>
-      <c r="Y7" s="284"/>
-      <c r="Z7" s="284"/>
-      <c r="AA7" s="284"/>
-      <c r="AB7" s="284"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="282"/>
+      <c r="U7" s="282"/>
+      <c r="V7" s="282"/>
+      <c r="W7" s="282"/>
+      <c r="X7" s="282"/>
+      <c r="Y7" s="282"/>
+      <c r="Z7" s="282"/>
+      <c r="AA7" s="282"/>
+      <c r="AB7" s="282"/>
     </row>
     <row r="8" spans="1:28" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="290" t="s">
+      <c r="A8" s="288" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="234">
+      <c r="B8" s="232">
         <v>60</v>
       </c>
-      <c r="C8" s="71">
-        <v>100</v>
-      </c>
-      <c r="D8" s="243">
+      <c r="C8" s="70">
+        <v>100</v>
+      </c>
+      <c r="D8" s="241">
         <v>100</v>
       </c>
       <c r="E8" s="55">
@@ -7868,62 +7889,62 @@
       <c r="G8" s="56">
         <v>88.01</v>
       </c>
-      <c r="H8" s="242">
+      <c r="H8" s="240">
         <v>50</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="70">
         <v>50</v>
       </c>
-      <c r="J8" s="71">
-        <v>100</v>
-      </c>
-      <c r="K8" s="243">
-        <v>0</v>
-      </c>
-      <c r="L8" s="242">
+      <c r="J8" s="70">
+        <v>100</v>
+      </c>
+      <c r="K8" s="241">
+        <v>0</v>
+      </c>
+      <c r="L8" s="240">
         <v>127.5</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="70">
         <v>127.5</v>
       </c>
-      <c r="N8" s="243">
-        <v>0</v>
-      </c>
-      <c r="O8" s="74">
+      <c r="N8" s="241">
+        <v>0</v>
+      </c>
+      <c r="O8" s="73">
         <f>SUM(((O3-O2) / 2), O2)</f>
         <v>70.484999999999999</v>
       </c>
-      <c r="P8" s="71">
+      <c r="P8" s="70">
         <f>SUM(((P2-P3)/2),P3)</f>
         <v>-3.0349999999999966</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="70">
         <f>SUM(((Q3-Q2)/2),Q2)</f>
         <v>75.2</v>
       </c>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="285"/>
+      <c r="U8" s="283"/>
       <c r="V8" s="13"/>
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
       <c r="Y8" s="13"/>
       <c r="Z8" s="13"/>
-      <c r="AA8" s="285"/>
-      <c r="AB8" s="286"/>
+      <c r="AA8" s="283"/>
+      <c r="AB8" s="284"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9" s="290" t="s">
+      <c r="A9" s="288" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="234">
+      <c r="B9" s="232">
         <v>300</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
       </c>
-      <c r="D9" s="235">
+      <c r="D9" s="233">
         <v>100</v>
       </c>
       <c r="E9" s="55">
@@ -7937,7 +7958,7 @@
       <c r="G9" s="56">
         <v>353.15</v>
       </c>
-      <c r="H9" s="234">
+      <c r="H9" s="232">
         <v>50</v>
       </c>
       <c r="I9" s="2">
@@ -7946,16 +7967,16 @@
       <c r="J9" s="2">
         <v>50</v>
       </c>
-      <c r="K9" s="235">
-        <v>0</v>
-      </c>
-      <c r="L9" s="234">
+      <c r="K9" s="233">
+        <v>0</v>
+      </c>
+      <c r="L9" s="232">
         <v>127.5</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="235">
+      <c r="N9" s="233">
         <v>127.5</v>
       </c>
       <c r="O9" s="54">
@@ -7973,26 +7994,26 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="285"/>
+      <c r="U9" s="283"/>
       <c r="V9" s="13"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
       <c r="Z9" s="13"/>
-      <c r="AA9" s="285"/>
-      <c r="AB9" s="286"/>
+      <c r="AA9" s="283"/>
+      <c r="AB9" s="284"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="289" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="234">
+      <c r="B10" s="232">
         <v>180</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" s="235">
+      <c r="D10" s="233">
         <v>100</v>
       </c>
       <c r="E10" s="55">
@@ -8007,7 +8028,7 @@
         <f>G3+85.14</f>
         <v>221.14999999999998</v>
       </c>
-      <c r="H10" s="234">
+      <c r="H10" s="232">
         <v>100</v>
       </c>
       <c r="I10" s="2">
@@ -8016,16 +8037,16 @@
       <c r="J10" s="2">
         <v>50</v>
       </c>
-      <c r="K10" s="235">
-        <v>0</v>
-      </c>
-      <c r="L10" s="236">
-        <v>0</v>
-      </c>
-      <c r="M10" s="108">
+      <c r="K10" s="233">
+        <v>0</v>
+      </c>
+      <c r="L10" s="234">
+        <v>0</v>
+      </c>
+      <c r="M10" s="106">
         <v>127.5</v>
       </c>
-      <c r="N10" s="237">
+      <c r="N10" s="235">
         <v>127.5</v>
       </c>
       <c r="O10" s="54">
@@ -8042,135 +8063,135 @@
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="287"/>
-      <c r="U10" s="287"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="285"/>
       <c r="V10" s="13"/>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
       <c r="Y10" s="13"/>
       <c r="Z10" s="13"/>
-      <c r="AA10" s="285"/>
-      <c r="AB10" s="286"/>
+      <c r="AA10" s="283"/>
+      <c r="AB10" s="284"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11" s="292" t="s">
+      <c r="A11" s="290" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="240">
+      <c r="B11" s="238">
         <v>90</v>
       </c>
-      <c r="C11" s="96">
-        <v>100</v>
-      </c>
-      <c r="D11" s="241">
-        <v>100</v>
-      </c>
-      <c r="E11" s="98">
+      <c r="C11" s="95">
+        <v>100</v>
+      </c>
+      <c r="D11" s="239">
+        <v>100</v>
+      </c>
+      <c r="E11" s="97">
         <f>SUM(((E5-E2)/2),E2)</f>
         <v>72.174999999999997</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="97">
         <f>SUM(((F2-F5)/2),F5)</f>
         <v>77.34</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <f>G2+78.195</f>
         <v>118.19499999999999</v>
       </c>
-      <c r="H11" s="240">
+      <c r="H11" s="238">
         <v>50</v>
       </c>
-      <c r="I11" s="96">
+      <c r="I11" s="95">
         <v>50</v>
       </c>
-      <c r="J11" s="96">
+      <c r="J11" s="95">
         <v>50</v>
       </c>
-      <c r="K11" s="241">
-        <v>0</v>
-      </c>
-      <c r="L11" s="240">
+      <c r="K11" s="239">
+        <v>0</v>
+      </c>
+      <c r="L11" s="238">
         <v>127.5</v>
       </c>
-      <c r="M11" s="96">
+      <c r="M11" s="95">
         <v>127.5</v>
       </c>
-      <c r="N11" s="96">
+      <c r="N11" s="95">
         <v>127.5</v>
       </c>
-      <c r="O11" s="100">
+      <c r="O11" s="99">
         <f>SUM(((O5-O2)/2),O2)</f>
         <v>72.174999999999997</v>
       </c>
-      <c r="P11" s="98">
+      <c r="P11" s="97">
         <f>SUM(((P2-P5)/2),P5)</f>
         <v>16.015000000000001</v>
       </c>
-      <c r="Q11" s="98">
+      <c r="Q11" s="97">
         <f>SUM(((Q2-Q5)/2),Q5)</f>
         <v>26.54</v>
       </c>
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="285"/>
+      <c r="U11" s="283"/>
       <c r="V11" s="13"/>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
       <c r="Z11" s="13"/>
-      <c r="AA11" s="285"/>
-      <c r="AB11" s="286"/>
+      <c r="AA11" s="283"/>
+      <c r="AB11" s="284"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="291" t="s">
+      <c r="A12" s="289" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="236">
+      <c r="B12" s="234">
         <v>270</v>
       </c>
-      <c r="C12" s="108">
-        <v>100</v>
-      </c>
-      <c r="D12" s="237">
-        <v>100</v>
-      </c>
-      <c r="E12" s="280"/>
-      <c r="F12" s="281"/>
-      <c r="G12" s="282"/>
-      <c r="H12" s="278"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="279"/>
-      <c r="L12" s="278"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="279"/>
-      <c r="O12" s="280"/>
-      <c r="P12" s="281"/>
-      <c r="Q12" s="281"/>
+      <c r="C12" s="106">
+        <v>100</v>
+      </c>
+      <c r="D12" s="235">
+        <v>100</v>
+      </c>
+      <c r="E12" s="278"/>
+      <c r="F12" s="279"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="276"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="281"/>
+      <c r="K12" s="277"/>
+      <c r="L12" s="276"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="277"/>
+      <c r="O12" s="278"/>
+      <c r="P12" s="279"/>
+      <c r="Q12" s="279"/>
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="287"/>
-      <c r="U12" s="287"/>
-      <c r="V12" s="287"/>
-      <c r="W12" s="287"/>
-      <c r="X12" s="287"/>
-      <c r="Y12" s="287"/>
-      <c r="Z12" s="287"/>
-      <c r="AA12" s="287"/>
-      <c r="AB12" s="286"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="285"/>
+      <c r="V12" s="285"/>
+      <c r="W12" s="285"/>
+      <c r="X12" s="285"/>
+      <c r="Y12" s="285"/>
+      <c r="Z12" s="285"/>
+      <c r="AA12" s="285"/>
+      <c r="AB12" s="284"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="292" t="s">
+      <c r="A13" s="290" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="234">
+      <c r="B13" s="232">
         <v>330</v>
       </c>
       <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="D13" s="235">
+      <c r="D13" s="233">
         <v>100</v>
       </c>
       <c r="E13" s="55">
@@ -8184,7 +8205,7 @@
       <c r="G13" s="56">
         <v>4.12</v>
       </c>
-      <c r="H13" s="234">
+      <c r="H13" s="232">
         <v>0</v>
       </c>
       <c r="I13" s="2">
@@ -8193,10 +8214,10 @@
       <c r="J13" s="2">
         <v>50</v>
       </c>
-      <c r="K13" s="235">
-        <v>0</v>
-      </c>
-      <c r="L13" s="234">
+      <c r="K13" s="233">
+        <v>0</v>
+      </c>
+      <c r="L13" s="232">
         <v>255</v>
       </c>
       <c r="M13" s="2">
@@ -8226,20 +8247,20 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
-      <c r="AA13" s="285"/>
-      <c r="AB13" s="286"/>
+      <c r="AA13" s="283"/>
+      <c r="AB13" s="284"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14" s="293" t="s">
+      <c r="A14" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="234">
+      <c r="B14" s="232">
         <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>100</v>
       </c>
-      <c r="D14" s="235">
+      <c r="D14" s="233">
         <v>100</v>
       </c>
       <c r="E14" s="55">
@@ -8254,7 +8275,7 @@
         <f>G2+31.425</f>
         <v>71.424999999999997</v>
       </c>
-      <c r="H14" s="234">
+      <c r="H14" s="232">
         <v>0</v>
       </c>
       <c r="I14" s="2">
@@ -8263,10 +8284,10 @@
       <c r="J14" s="2">
         <v>100</v>
       </c>
-      <c r="K14" s="235">
-        <v>0</v>
-      </c>
-      <c r="L14" s="234">
+      <c r="K14" s="233">
+        <v>0</v>
+      </c>
+      <c r="L14" s="232">
         <v>255</v>
       </c>
       <c r="M14" s="2">
@@ -8290,26 +8311,26 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="285"/>
+      <c r="U14" s="283"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
-      <c r="AA14" s="285"/>
-      <c r="AB14" s="286"/>
+      <c r="AA14" s="283"/>
+      <c r="AB14" s="284"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15" s="293" t="s">
+      <c r="A15" s="291" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="234">
+      <c r="B15" s="232">
         <v>240</v>
       </c>
       <c r="C15" s="2">
         <v>100</v>
       </c>
-      <c r="D15" s="235">
+      <c r="D15" s="233">
         <v>100</v>
       </c>
       <c r="E15" s="55">
@@ -8324,7 +8345,7 @@
         <f>G5+65.96</f>
         <v>262.34999999999997</v>
       </c>
-      <c r="H15" s="234">
+      <c r="H15" s="232">
         <v>50</v>
       </c>
       <c r="I15" s="2">
@@ -8333,10 +8354,10 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="235">
-        <v>0</v>
-      </c>
-      <c r="L15" s="234">
+      <c r="K15" s="233">
+        <v>0</v>
+      </c>
+      <c r="L15" s="232">
         <v>127.5</v>
       </c>
       <c r="M15" s="2">
@@ -8366,20 +8387,20 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
-      <c r="AA15" s="285"/>
-      <c r="AB15" s="286"/>
+      <c r="AA15" s="283"/>
+      <c r="AB15" s="284"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16" s="293" t="s">
+      <c r="A16" s="291" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="234">
+      <c r="B16" s="232">
         <v>0</v>
       </c>
       <c r="C16" s="2">
         <v>100</v>
       </c>
-      <c r="D16" s="235">
+      <c r="D16" s="233">
         <v>100</v>
       </c>
       <c r="E16" s="55">
@@ -8393,7 +8414,7 @@
       <c r="G16" s="56">
         <v>35.54</v>
       </c>
-      <c r="H16" s="234">
+      <c r="H16" s="232">
         <v>0</v>
       </c>
       <c r="I16" s="2">
@@ -8402,10 +8423,10 @@
       <c r="J16" s="2">
         <v>50</v>
       </c>
-      <c r="K16" s="235">
-        <v>0</v>
-      </c>
-      <c r="L16" s="234">
+      <c r="K16" s="233">
+        <v>0</v>
+      </c>
+      <c r="L16" s="232">
         <v>255</v>
       </c>
       <c r="M16" s="2">
@@ -8435,20 +8456,20 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
-      <c r="AA16" s="285"/>
-      <c r="AB16" s="286"/>
+      <c r="AA16" s="283"/>
+      <c r="AB16" s="284"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A17" s="291" t="s">
+      <c r="A17" s="289" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="234">
+      <c r="B17" s="232">
         <v>150</v>
       </c>
       <c r="C17" s="2">
         <v>100</v>
       </c>
-      <c r="D17" s="235">
+      <c r="D17" s="233">
         <v>100</v>
       </c>
       <c r="E17" s="55">
@@ -8463,7 +8484,7 @@
         <f>G3+30.19</f>
         <v>166.2</v>
       </c>
-      <c r="H17" s="234">
+      <c r="H17" s="232">
         <v>100</v>
       </c>
       <c r="I17" s="2">
@@ -8472,10 +8493,10 @@
       <c r="J17" s="2">
         <v>50</v>
       </c>
-      <c r="K17" s="235">
-        <v>0</v>
-      </c>
-      <c r="L17" s="234">
+      <c r="K17" s="233">
+        <v>0</v>
+      </c>
+      <c r="L17" s="232">
         <v>0</v>
       </c>
       <c r="M17" s="2">
@@ -8505,63 +8526,63 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="13"/>
-      <c r="AA17" s="285"/>
-      <c r="AB17" s="286"/>
+      <c r="AA17" s="283"/>
+      <c r="AB17" s="284"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A18" s="292" t="s">
+      <c r="A18" s="290" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="240">
+      <c r="B18" s="238">
         <v>210</v>
       </c>
-      <c r="C18" s="96">
-        <v>100</v>
-      </c>
-      <c r="D18" s="241">
-        <v>100</v>
-      </c>
-      <c r="E18" s="98">
+      <c r="C18" s="95">
+        <v>100</v>
+      </c>
+      <c r="D18" s="239">
+        <v>100</v>
+      </c>
+      <c r="E18" s="97">
         <f>SUM(((E3-E6)/2),E6)</f>
         <v>74.03</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="97">
         <f>SUM(((F3-F6)/2),F6)</f>
         <v>117.66499999999999</v>
       </c>
-      <c r="G18" s="99">
+      <c r="G18" s="98">
         <v>52.12</v>
       </c>
-      <c r="H18" s="240">
+      <c r="H18" s="238">
         <v>50</v>
       </c>
-      <c r="I18" s="96">
+      <c r="I18" s="95">
         <v>50</v>
       </c>
-      <c r="J18" s="96">
+      <c r="J18" s="95">
         <v>50</v>
       </c>
-      <c r="K18" s="241">
-        <v>0</v>
-      </c>
-      <c r="L18" s="240">
+      <c r="K18" s="239">
+        <v>0</v>
+      </c>
+      <c r="L18" s="238">
         <v>127.5</v>
       </c>
-      <c r="M18" s="96">
+      <c r="M18" s="95">
         <v>127.5</v>
       </c>
-      <c r="N18" s="96">
+      <c r="N18" s="95">
         <v>127.5</v>
       </c>
-      <c r="O18" s="100">
+      <c r="O18" s="99">
         <f>SUM(((O3-O6)/2),O6)</f>
         <v>74.03</v>
       </c>
-      <c r="P18" s="98">
+      <c r="P18" s="97">
         <f>SUM(((P6-P3)/2),P3)</f>
         <v>6.0349999999999966</v>
       </c>
-      <c r="Q18" s="98">
+      <c r="Q18" s="97">
         <f>SUM(((Q3-Q6)/2),Q6)</f>
         <v>11.170000000000002</v>
       </c>
@@ -8574,58 +8595,58 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="285"/>
-      <c r="AB18" s="286"/>
+      <c r="AA18" s="283"/>
+      <c r="AB18" s="284"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A19" s="291" t="s">
+      <c r="A19" s="289" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="236">
+      <c r="B19" s="234">
         <v>30</v>
       </c>
-      <c r="C19" s="108">
-        <v>100</v>
-      </c>
-      <c r="D19" s="237">
-        <v>100</v>
-      </c>
-      <c r="E19" s="280"/>
-      <c r="F19" s="281"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="278"/>
-      <c r="I19" s="283"/>
-      <c r="J19" s="283"/>
-      <c r="K19" s="279"/>
-      <c r="L19" s="278"/>
-      <c r="M19" s="283"/>
-      <c r="N19" s="279"/>
-      <c r="O19" s="280"/>
-      <c r="P19" s="281"/>
-      <c r="Q19" s="281"/>
+      <c r="C19" s="106">
+        <v>100</v>
+      </c>
+      <c r="D19" s="235">
+        <v>100</v>
+      </c>
+      <c r="E19" s="278"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="281"/>
+      <c r="K19" s="277"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="281"/>
+      <c r="N19" s="277"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="279"/>
+      <c r="Q19" s="279"/>
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
-      <c r="T19" s="287"/>
-      <c r="U19" s="287"/>
-      <c r="V19" s="287"/>
-      <c r="W19" s="287"/>
-      <c r="X19" s="287"/>
-      <c r="Y19" s="287"/>
-      <c r="Z19" s="287"/>
-      <c r="AA19" s="287"/>
-      <c r="AB19" s="286"/>
+      <c r="T19" s="285"/>
+      <c r="U19" s="285"/>
+      <c r="V19" s="285"/>
+      <c r="W19" s="285"/>
+      <c r="X19" s="285"/>
+      <c r="Y19" s="285"/>
+      <c r="Z19" s="285"/>
+      <c r="AA19" s="285"/>
+      <c r="AB19" s="284"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A20" s="292" t="s">
+      <c r="A20" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="234">
+      <c r="B20" s="232">
         <v>90</v>
       </c>
       <c r="C20" s="2">
         <v>100</v>
       </c>
-      <c r="D20" s="235">
+      <c r="D20" s="233">
         <v>100</v>
       </c>
       <c r="E20" s="55">
@@ -8640,7 +8661,7 @@
         <f>G7+16.58</f>
         <v>119.42999999999999</v>
       </c>
-      <c r="H20" s="234">
+      <c r="H20" s="232">
         <v>50</v>
       </c>
       <c r="I20" s="2">
@@ -8649,10 +8670,10 @@
       <c r="J20" s="2">
         <v>100</v>
       </c>
-      <c r="K20" s="235">
-        <v>0</v>
-      </c>
-      <c r="L20" s="234">
+      <c r="K20" s="233">
+        <v>0</v>
+      </c>
+      <c r="L20" s="232">
         <v>127.5</v>
       </c>
       <c r="M20" s="2">
@@ -8682,22 +8703,22 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="285"/>
-      <c r="AB20" s="286"/>
-      <c r="AF20" s="331"/>
-      <c r="AG20" s="331"/>
+      <c r="AA20" s="283"/>
+      <c r="AB20" s="284"/>
+      <c r="AF20" s="316"/>
+      <c r="AG20" s="316"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A21" s="293" t="s">
+      <c r="A21" s="291" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="234">
+      <c r="B21" s="232">
         <v>210</v>
       </c>
       <c r="C21" s="2">
         <v>100</v>
       </c>
-      <c r="D21" s="235">
+      <c r="D21" s="233">
         <v>100</v>
       </c>
       <c r="E21" s="55">
@@ -8712,7 +8733,7 @@
         <f>G5+54.95</f>
         <v>251.33999999999997</v>
       </c>
-      <c r="H21" s="234">
+      <c r="H21" s="232">
         <v>100</v>
       </c>
       <c r="I21" s="2">
@@ -8721,10 +8742,10 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="235">
-        <v>0</v>
-      </c>
-      <c r="L21" s="234">
+      <c r="K21" s="233">
+        <v>0</v>
+      </c>
+      <c r="L21" s="232">
         <v>0</v>
       </c>
       <c r="M21" s="2">
@@ -8754,20 +8775,20 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="285"/>
-      <c r="AB21" s="286"/>
+      <c r="AA21" s="283"/>
+      <c r="AB21" s="284"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A22" s="291" t="s">
+      <c r="A22" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="234">
+      <c r="B22" s="232">
         <v>270</v>
       </c>
       <c r="C22" s="2">
         <v>100</v>
       </c>
-      <c r="D22" s="235">
+      <c r="D22" s="233">
         <v>100</v>
       </c>
       <c r="E22" s="55">
@@ -8782,7 +8803,7 @@
         <f>G4+10.97</f>
         <v>317.26000000000005</v>
       </c>
-      <c r="H22" s="234">
+      <c r="H22" s="232">
         <v>50</v>
       </c>
       <c r="I22" s="2">
@@ -8791,10 +8812,10 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="235">
-        <v>0</v>
-      </c>
-      <c r="L22" s="234">
+      <c r="K22" s="233">
+        <v>0</v>
+      </c>
+      <c r="L22" s="232">
         <v>127.5</v>
       </c>
       <c r="M22" s="2">
@@ -8824,63 +8845,63 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
-      <c r="AA22" s="285"/>
-      <c r="AB22" s="286"/>
+      <c r="AA22" s="283"/>
+      <c r="AB22" s="284"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A23" s="292" t="s">
+      <c r="A23" s="290" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="240">
+      <c r="B23" s="238">
         <v>150</v>
       </c>
-      <c r="C23" s="96">
-        <v>100</v>
-      </c>
-      <c r="D23" s="241">
-        <v>100</v>
-      </c>
-      <c r="E23" s="98">
+      <c r="C23" s="95">
+        <v>100</v>
+      </c>
+      <c r="D23" s="239">
+        <v>100</v>
+      </c>
+      <c r="E23" s="97">
         <f>SUM(((E7-E4)/2),E4)</f>
         <v>64.72</v>
       </c>
-      <c r="F23" s="98">
+      <c r="F23" s="97">
         <f>SUM(((F4-F7)/2),F7)</f>
         <v>115.355</v>
       </c>
-      <c r="G23" s="99">
+      <c r="G23" s="98">
         <v>24.57</v>
       </c>
-      <c r="H23" s="240">
+      <c r="H23" s="238">
         <v>50</v>
       </c>
-      <c r="I23" s="96">
+      <c r="I23" s="95">
         <v>50</v>
       </c>
-      <c r="J23" s="96">
+      <c r="J23" s="95">
         <v>50</v>
       </c>
-      <c r="K23" s="241">
-        <v>0</v>
-      </c>
-      <c r="L23" s="240">
+      <c r="K23" s="239">
+        <v>0</v>
+      </c>
+      <c r="L23" s="238">
         <v>127.5</v>
       </c>
-      <c r="M23" s="96">
+      <c r="M23" s="95">
         <v>127.5</v>
       </c>
-      <c r="N23" s="96">
+      <c r="N23" s="95">
         <v>127.5</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="99">
         <f>SUM(((O7-O4)/2),O4)</f>
         <v>64.72</v>
       </c>
-      <c r="P23" s="98">
+      <c r="P23" s="97">
         <f>SUM(((P4-P7)/2),P7)</f>
         <v>28.820000000000004</v>
       </c>
-      <c r="Q23" s="98">
+      <c r="Q23" s="97">
         <f>SUM(((Q7-Q4)/2),Q4)</f>
         <v>-6.6899999999999977</v>
       </c>
@@ -8893,58 +8914,58 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="285"/>
-      <c r="AB23" s="286"/>
+      <c r="AA23" s="283"/>
+      <c r="AB23" s="284"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A24" s="291" t="s">
+      <c r="A24" s="289" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="236">
+      <c r="B24" s="234">
         <v>330</v>
       </c>
-      <c r="C24" s="108">
-        <v>100</v>
-      </c>
-      <c r="D24" s="237">
-        <v>100</v>
-      </c>
-      <c r="E24" s="280"/>
-      <c r="F24" s="281"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="278"/>
-      <c r="I24" s="283"/>
-      <c r="J24" s="283"/>
-      <c r="K24" s="279"/>
-      <c r="L24" s="278"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="279"/>
-      <c r="O24" s="280"/>
-      <c r="P24" s="281"/>
-      <c r="Q24" s="281"/>
+      <c r="C24" s="106">
+        <v>100</v>
+      </c>
+      <c r="D24" s="235">
+        <v>100</v>
+      </c>
+      <c r="E24" s="278"/>
+      <c r="F24" s="279"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="276"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="281"/>
+      <c r="K24" s="277"/>
+      <c r="L24" s="276"/>
+      <c r="M24" s="281"/>
+      <c r="N24" s="277"/>
+      <c r="O24" s="278"/>
+      <c r="P24" s="279"/>
+      <c r="Q24" s="279"/>
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
-      <c r="T24" s="287"/>
-      <c r="U24" s="287"/>
-      <c r="V24" s="287"/>
-      <c r="W24" s="287"/>
-      <c r="X24" s="287"/>
-      <c r="Y24" s="287"/>
-      <c r="Z24" s="287"/>
-      <c r="AA24" s="287"/>
-      <c r="AB24" s="286"/>
+      <c r="T24" s="285"/>
+      <c r="U24" s="285"/>
+      <c r="V24" s="285"/>
+      <c r="W24" s="285"/>
+      <c r="X24" s="285"/>
+      <c r="Y24" s="285"/>
+      <c r="Z24" s="285"/>
+      <c r="AA24" s="285"/>
+      <c r="AB24" s="284"/>
     </row>
     <row r="25" spans="1:33" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="294" t="s">
+      <c r="A25" s="292" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="234">
+      <c r="B25" s="232">
         <v>120</v>
       </c>
       <c r="C25" s="2">
         <v>100</v>
       </c>
-      <c r="D25" s="235">
+      <c r="D25" s="233">
         <v>100</v>
       </c>
       <c r="E25" s="55">
@@ -8959,7 +8980,7 @@
         <f>G7+46.77</f>
         <v>149.62</v>
       </c>
-      <c r="H25" s="234">
+      <c r="H25" s="232">
         <v>50</v>
       </c>
       <c r="I25" s="2">
@@ -8968,10 +8989,10 @@
       <c r="J25" s="2">
         <v>50</v>
       </c>
-      <c r="K25" s="235">
-        <v>0</v>
-      </c>
-      <c r="L25" s="234">
+      <c r="K25" s="233">
+        <v>0</v>
+      </c>
+      <c r="L25" s="232">
         <v>127.5</v>
       </c>
       <c r="M25" s="2">
@@ -8980,15 +9001,15 @@
       <c r="N25" s="2">
         <v>127.5</v>
       </c>
-      <c r="O25" s="75">
+      <c r="O25" s="74">
         <f>SUM(((O7-O5)/2),O5)</f>
         <v>94.13</v>
       </c>
-      <c r="P25" s="79">
+      <c r="P25" s="78">
         <f>SUM(((P7-P5)/2),P5)</f>
         <v>-34.82</v>
       </c>
-      <c r="Q25" s="79">
+      <c r="Q25" s="78">
         <f>SUM(((Q7-Q5)/2),Q5)</f>
         <v>40.17</v>
       </c>
@@ -9001,73 +9022,73 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
-      <c r="AA25" s="285"/>
-      <c r="AB25" s="286"/>
+      <c r="AA25" s="283"/>
+      <c r="AB25" s="284"/>
     </row>
     <row r="26" spans="1:33" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="295" t="s">
+      <c r="A26" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="242">
+      <c r="B26" s="240">
         <f>SUM(((B8-B4)/2),B4)</f>
         <v>150</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="70">
         <f>SUM(((C8-C4)/2),C4)</f>
         <v>100</v>
       </c>
-      <c r="D26" s="243">
+      <c r="D26" s="241">
         <f>SUM(((D8-D4)/2),D4)</f>
         <v>100</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="73">
         <f>SUM(((E8-E4)/2),E4)</f>
         <v>51.392499999999998</v>
       </c>
-      <c r="F26" s="181">
+      <c r="F26" s="179">
         <f>SUM(((F8-F4)/2),F4)</f>
         <v>122.99</v>
       </c>
-      <c r="G26" s="182">
+      <c r="G26" s="180">
         <v>17.149999999999999</v>
       </c>
-      <c r="H26" s="248">
+      <c r="H26" s="246">
         <f t="shared" ref="H26:Q26" si="1">SUM(((H8-H4)/2),H4)</f>
         <v>75</v>
       </c>
-      <c r="I26" s="249">
+      <c r="I26" s="247">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="J26" s="249">
+      <c r="J26" s="247">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K26" s="250">
+      <c r="K26" s="248">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="257">
+      <c r="L26" s="255">
         <f t="shared" si="1"/>
         <v>63.75</v>
       </c>
-      <c r="M26" s="258">
+      <c r="M26" s="256">
         <f t="shared" si="1"/>
         <v>63.75</v>
       </c>
-      <c r="N26" s="259">
+      <c r="N26" s="257">
         <f t="shared" si="1"/>
         <v>127.5</v>
       </c>
-      <c r="O26" s="74">
+      <c r="O26" s="73">
         <f t="shared" si="1"/>
         <v>51.392499999999998</v>
       </c>
-      <c r="P26" s="181">
+      <c r="P26" s="179">
         <f t="shared" si="1"/>
         <v>38.082500000000003</v>
       </c>
-      <c r="Q26" s="181">
+      <c r="Q26" s="179">
         <f t="shared" si="1"/>
         <v>-16.329999999999998</v>
       </c>
@@ -9081,13 +9102,13 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
-      <c r="AB26" s="286"/>
+      <c r="AB26" s="284"/>
     </row>
     <row r="27" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="293" t="s">
+      <c r="A27" s="291" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="234">
+      <c r="B27" s="232">
         <f>SUM(((B9-B3)/2),B3)</f>
         <v>210</v>
       </c>
@@ -9095,7 +9116,7 @@
         <f>SUM(((C9-C3)/2),C3)</f>
         <v>100</v>
       </c>
-      <c r="D27" s="235">
+      <c r="D27" s="233">
         <f>SUM(((D9-D3)/2),D3)</f>
         <v>100</v>
       </c>
@@ -9110,31 +9131,31 @@
       <c r="G27" s="56">
         <v>64.58</v>
       </c>
-      <c r="H27" s="251">
+      <c r="H27" s="249">
         <f t="shared" ref="H27:Q27" si="2">SUM(((H9-H3)/2),H3)</f>
         <v>75</v>
       </c>
-      <c r="I27" s="252">
+      <c r="I27" s="250">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J27" s="252">
+      <c r="J27" s="250">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="K27" s="253">
+      <c r="K27" s="251">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L27" s="144">
+      <c r="L27" s="142">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
-      <c r="M27" s="140">
+      <c r="M27" s="138">
         <f t="shared" si="2"/>
         <v>127.5</v>
       </c>
-      <c r="N27" s="145">
+      <c r="N27" s="143">
         <f t="shared" si="2"/>
         <v>63.75</v>
       </c>
@@ -9160,151 +9181,151 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="286"/>
+      <c r="AB27" s="284"/>
     </row>
     <row r="28" spans="1:33" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="296" t="s">
+      <c r="A28" s="294" t="s">
         <v>192</v>
       </c>
-      <c r="B28" s="236">
+      <c r="B28" s="234">
         <f>SUM(((B10-B2)/2),B2)</f>
         <v>90</v>
       </c>
-      <c r="C28" s="108">
+      <c r="C28" s="106">
         <f>SUM(((C10-C2)/2),C2)</f>
         <v>100</v>
       </c>
-      <c r="D28" s="237">
+      <c r="D28" s="235">
         <f>SUM(((D10-D2)/2),D2)</f>
         <v>100</v>
       </c>
-      <c r="E28" s="129">
+      <c r="E28" s="127">
         <f>SUM(((E10-E2)/2),E2)</f>
         <v>56.625</v>
       </c>
-      <c r="F28" s="127">
+      <c r="F28" s="125">
         <f>SUM(((F10-F2)/2),F2)</f>
         <v>115.67999999999999</v>
       </c>
-      <c r="G28" s="128">
+      <c r="G28" s="126">
         <v>310.57499999999999</v>
       </c>
-      <c r="H28" s="254">
+      <c r="H28" s="252">
         <f t="shared" ref="H28:Q28" si="3">SUM(((H10-H2)/2),H2)</f>
         <v>50</v>
       </c>
-      <c r="I28" s="255">
+      <c r="I28" s="253">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="J28" s="255">
+      <c r="J28" s="253">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="K28" s="256">
+      <c r="K28" s="254">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="146">
+      <c r="L28" s="144">
         <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
-      <c r="M28" s="141">
+      <c r="M28" s="139">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="N28" s="147">
+      <c r="N28" s="145">
         <f t="shared" si="3"/>
         <v>63.75</v>
       </c>
-      <c r="O28" s="129">
+      <c r="O28" s="127">
         <f t="shared" si="3"/>
         <v>56.625</v>
       </c>
-      <c r="P28" s="127">
+      <c r="P28" s="125">
         <f t="shared" si="3"/>
         <v>38.309999999999995</v>
       </c>
-      <c r="Q28" s="127">
+      <c r="Q28" s="125">
         <f t="shared" si="3"/>
         <v>27.440000000000005</v>
       </c>
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
-      <c r="T28" s="287"/>
-      <c r="U28" s="287"/>
+      <c r="T28" s="285"/>
+      <c r="U28" s="285"/>
       <c r="V28" s="13"/>
       <c r="W28" s="13"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
-      <c r="AB28" s="286"/>
+      <c r="AB28" s="284"/>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A29" s="292" t="s">
+      <c r="A29" s="290" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="240">
+      <c r="B29" s="238">
         <f>SUM(((B13-B4)/2),B4)</f>
         <v>285</v>
       </c>
-      <c r="C29" s="96">
+      <c r="C29" s="95">
         <f>SUM(((C13-C4)/2),C4)</f>
         <v>100</v>
       </c>
-      <c r="D29" s="241">
+      <c r="D29" s="239">
         <f>SUM(((D13-D4)/2),D4)</f>
         <v>100</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="99">
         <f>SUM(((E13-E4)/2),E4)</f>
         <v>44.537499999999994</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="97">
         <f>SUM(((F13-F4)/2),F4)</f>
         <v>121.9375</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="98">
         <v>335.20499999999998</v>
       </c>
-      <c r="H29" s="133">
+      <c r="H29" s="131">
         <f t="shared" ref="H29:Q29" si="4">SUM(((H4-H13)/2),H13)</f>
         <v>50</v>
       </c>
-      <c r="I29" s="130">
+      <c r="I29" s="128">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="J29" s="130">
+      <c r="J29" s="128">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="K29" s="134">
+      <c r="K29" s="132">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L29" s="142">
+      <c r="L29" s="140">
         <f t="shared" si="4"/>
         <v>127.5</v>
       </c>
-      <c r="M29" s="139">
+      <c r="M29" s="137">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N29" s="143">
+      <c r="N29" s="141">
         <f t="shared" si="4"/>
         <v>191.25</v>
       </c>
-      <c r="O29" s="100">
+      <c r="O29" s="99">
         <f t="shared" si="4"/>
         <v>44.537499999999994</v>
       </c>
-      <c r="P29" s="98">
+      <c r="P29" s="97">
         <f t="shared" si="4"/>
         <v>84.19</v>
       </c>
-      <c r="Q29" s="98">
+      <c r="Q29" s="97">
         <f t="shared" si="4"/>
         <v>-52.335000000000001</v>
       </c>
@@ -9318,13 +9339,13 @@
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
-      <c r="AB29" s="286"/>
+      <c r="AB29" s="284"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A30" s="293" t="s">
+      <c r="A30" s="291" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="234">
+      <c r="B30" s="232">
         <f>SUM(((B9-B6)/2),B6)</f>
         <v>300</v>
       </c>
@@ -9332,7 +9353,7 @@
         <f>SUM(((C9-C6)/2),C6)</f>
         <v>100</v>
       </c>
-      <c r="D30" s="235">
+      <c r="D30" s="233">
         <f>SUM(((D9-D6)/2),D6)</f>
         <v>100</v>
       </c>
@@ -9348,43 +9369,43 @@
         <f t="shared" si="5"/>
         <v>340.69</v>
       </c>
-      <c r="H30" s="135">
+      <c r="H30" s="133">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="I30" s="131">
+      <c r="I30" s="129">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
-      <c r="J30" s="131">
+      <c r="J30" s="129">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="K30" s="136">
+      <c r="K30" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L30" s="144">
+      <c r="L30" s="142">
         <f t="shared" si="5"/>
         <v>191.25</v>
       </c>
-      <c r="M30" s="140">
+      <c r="M30" s="138">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N30" s="145">
+      <c r="N30" s="143">
         <f t="shared" si="5"/>
         <v>191.25</v>
       </c>
-      <c r="O30" s="144">
+      <c r="O30" s="142">
         <f t="shared" si="5"/>
         <v>51.542500000000004</v>
       </c>
-      <c r="P30" s="140">
+      <c r="P30" s="138">
         <f t="shared" si="5"/>
         <v>88.952500000000001</v>
       </c>
-      <c r="Q30" s="140">
+      <c r="Q30" s="138">
         <f t="shared" si="5"/>
         <v>-40.580000000000005</v>
       </c>
@@ -9398,72 +9419,72 @@
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
-      <c r="AB30" s="286"/>
+      <c r="AB30" s="284"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="291" t="s">
+      <c r="A31" s="289" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="236">
+      <c r="B31" s="234">
         <f>SUM(((B22-B2)/2),B2)</f>
         <v>135</v>
       </c>
-      <c r="C31" s="108">
+      <c r="C31" s="106">
         <f>SUM(((C22-C2)/2),C2)</f>
         <v>100</v>
       </c>
-      <c r="D31" s="237">
+      <c r="D31" s="235">
         <f>SUM(((D22-D2)/2),D2)</f>
         <v>100</v>
       </c>
-      <c r="E31" s="129">
+      <c r="E31" s="127">
         <f>SUM(((E2-E22)/2),E22)</f>
         <v>49.769999999999996</v>
       </c>
-      <c r="F31" s="127">
+      <c r="F31" s="125">
         <f>SUM(((F22-F2)/2),F2)</f>
         <v>114.6275</v>
       </c>
-      <c r="G31" s="128">
+      <c r="G31" s="126">
         <v>358.63</v>
       </c>
-      <c r="H31" s="137">
+      <c r="H31" s="135">
         <f t="shared" ref="H31:Q31" si="6">SUM(((H22-H2)/2),H2)</f>
         <v>25</v>
       </c>
-      <c r="I31" s="132">
+      <c r="I31" s="130">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="J31" s="132">
+      <c r="J31" s="130">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="136">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L31" s="146">
+      <c r="L31" s="144">
         <f t="shared" si="6"/>
         <v>191.25</v>
       </c>
-      <c r="M31" s="141">
+      <c r="M31" s="139">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="N31" s="147">
+      <c r="N31" s="145">
         <f t="shared" si="6"/>
         <v>127.5</v>
       </c>
-      <c r="O31" s="146">
+      <c r="O31" s="144">
         <f t="shared" si="6"/>
         <v>49.769999999999996</v>
       </c>
-      <c r="P31" s="141">
+      <c r="P31" s="139">
         <f t="shared" si="6"/>
         <v>84.41749999999999</v>
       </c>
-      <c r="Q31" s="141">
+      <c r="Q31" s="139">
         <f t="shared" si="6"/>
         <v>-8.5649999999999977</v>
       </c>
@@ -9477,93 +9498,93 @@
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
-      <c r="AB31" s="286"/>
+      <c r="AB31" s="284"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A32" s="292" t="s">
+      <c r="A32" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="240">
+      <c r="B32" s="238">
         <f t="shared" ref="B32:Q32" si="7">SUM(((B4-B17)/2),B17)</f>
         <v>195</v>
       </c>
-      <c r="C32" s="96">
+      <c r="C32" s="95">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="D32" s="241">
+      <c r="D32" s="239">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="99">
         <f t="shared" si="7"/>
         <v>60.865000000000002</v>
       </c>
-      <c r="F32" s="98">
+      <c r="F32" s="97">
         <f t="shared" si="7"/>
         <v>109.375</v>
       </c>
-      <c r="G32" s="99">
+      <c r="G32" s="98">
         <f t="shared" si="7"/>
         <v>236.245</v>
       </c>
-      <c r="H32" s="240">
+      <c r="H32" s="238">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="I32" s="96">
+      <c r="I32" s="95">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="J32" s="96">
+      <c r="J32" s="95">
         <f t="shared" si="7"/>
         <v>25</v>
       </c>
-      <c r="K32" s="241">
+      <c r="K32" s="239">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L32" s="142">
+      <c r="L32" s="140">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M32" s="139">
+      <c r="M32" s="137">
         <f t="shared" si="7"/>
         <v>127.5</v>
       </c>
-      <c r="N32" s="143">
+      <c r="N32" s="141">
         <f t="shared" si="7"/>
         <v>191.25</v>
       </c>
-      <c r="O32" s="100">
+      <c r="O32" s="99">
         <f t="shared" si="7"/>
         <v>60.865000000000002</v>
       </c>
-      <c r="P32" s="98">
+      <c r="P32" s="97">
         <f t="shared" si="7"/>
         <v>6.0349999999999966</v>
       </c>
-      <c r="Q32" s="98">
+      <c r="Q32" s="97">
         <f t="shared" si="7"/>
         <v>-36.669999999999995</v>
       </c>
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
-      <c r="T32" s="287"/>
-      <c r="U32" s="287"/>
+      <c r="T32" s="285"/>
+      <c r="U32" s="285"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
-      <c r="AB32" s="286"/>
+      <c r="AB32" s="284"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="293" t="s">
+      <c r="A33" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="234">
+      <c r="B33" s="232">
         <f>SUM(((B21-B3)/2),B3)</f>
         <v>165</v>
       </c>
@@ -9571,7 +9592,7 @@
         <f>SUM(((C21-C3)/2),C3)</f>
         <v>100</v>
       </c>
-      <c r="D33" s="235">
+      <c r="D33" s="233">
         <f>SUM(((D21-D3)/2),D3)</f>
         <v>100</v>
       </c>
@@ -9587,7 +9608,7 @@
         <f t="shared" si="8"/>
         <v>193.67499999999998</v>
       </c>
-      <c r="H33" s="234">
+      <c r="H33" s="232">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
@@ -9599,19 +9620,19 @@
         <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="K33" s="235">
+      <c r="K33" s="233">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L33" s="144">
+      <c r="L33" s="142">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M33" s="140">
+      <c r="M33" s="138">
         <f t="shared" si="8"/>
         <v>191.25</v>
       </c>
-      <c r="N33" s="145">
+      <c r="N33" s="143">
         <f t="shared" si="8"/>
         <v>127.5</v>
       </c>
@@ -9637,153 +9658,153 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
-      <c r="AB33" s="286"/>
+      <c r="AB33" s="284"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A34" s="291" t="s">
+      <c r="A34" s="289" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="236">
+      <c r="B34" s="234">
         <f>SUM(((B10-B5)/2),B5)</f>
         <v>180</v>
       </c>
-      <c r="C34" s="108">
+      <c r="C34" s="106">
         <f>SUM(((C10-C5)/2),C5)</f>
         <v>100</v>
       </c>
-      <c r="D34" s="237">
+      <c r="D34" s="235">
         <f>SUM(((D10-D5)/2),D5)</f>
         <v>100</v>
       </c>
-      <c r="E34" s="129">
+      <c r="E34" s="127">
         <f t="shared" ref="E34:Q34" si="9">SUM(((E5-E10)/2),E10)</f>
         <v>75.569999999999993</v>
       </c>
-      <c r="F34" s="127">
+      <c r="F34" s="125">
         <f t="shared" si="9"/>
         <v>88.449999999999989</v>
       </c>
-      <c r="G34" s="128">
+      <c r="G34" s="126">
         <f t="shared" si="9"/>
         <v>208.76999999999998</v>
       </c>
-      <c r="H34" s="236">
+      <c r="H34" s="234">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
-      <c r="I34" s="108">
+      <c r="I34" s="106">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="J34" s="108">
+      <c r="J34" s="106">
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="K34" s="237">
+      <c r="K34" s="235">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="L34" s="146">
+      <c r="L34" s="144">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M34" s="141">
+      <c r="M34" s="139">
         <f t="shared" si="9"/>
         <v>191.25</v>
       </c>
-      <c r="N34" s="147">
+      <c r="N34" s="145">
         <f t="shared" si="9"/>
         <v>191.25</v>
       </c>
-      <c r="O34" s="129">
+      <c r="O34" s="127">
         <f t="shared" si="9"/>
         <v>75.569999999999993</v>
       </c>
-      <c r="P34" s="127">
+      <c r="P34" s="125">
         <f t="shared" si="9"/>
         <v>-25.785000000000004</v>
       </c>
-      <c r="Q34" s="127">
+      <c r="Q34" s="125">
         <f t="shared" si="9"/>
         <v>-13.239999999999995</v>
       </c>
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
-      <c r="T34" s="287"/>
-      <c r="U34" s="287"/>
+      <c r="T34" s="285"/>
+      <c r="U34" s="285"/>
       <c r="V34" s="13"/>
       <c r="W34" s="13"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
-      <c r="AB34" s="286"/>
+      <c r="AB34" s="284"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="292" t="s">
+      <c r="A35" s="290" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="240">
+      <c r="B35" s="238">
         <f t="shared" ref="B35:Q35" si="10">SUM(((B15-B7)/2),B7)</f>
         <v>150</v>
       </c>
-      <c r="C35" s="96">
+      <c r="C35" s="95">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="D35" s="241">
+      <c r="D35" s="239">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="99">
         <f t="shared" si="10"/>
         <v>86.43</v>
       </c>
-      <c r="F35" s="98">
+      <c r="F35" s="97">
         <f t="shared" si="10"/>
         <v>89.867500000000007</v>
       </c>
-      <c r="G35" s="99">
+      <c r="G35" s="98">
         <f t="shared" si="10"/>
         <v>182.59999999999997</v>
       </c>
-      <c r="H35" s="133">
+      <c r="H35" s="131">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="I35" s="130">
+      <c r="I35" s="128">
         <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="J35" s="130">
+      <c r="J35" s="128">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="K35" s="134">
+      <c r="K35" s="132">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="L35" s="142">
+      <c r="L35" s="140">
         <f t="shared" si="10"/>
         <v>191.25</v>
       </c>
-      <c r="M35" s="139">
+      <c r="M35" s="137">
         <f t="shared" si="10"/>
         <v>191.25</v>
       </c>
-      <c r="N35" s="143">
+      <c r="N35" s="141">
         <f t="shared" si="10"/>
         <v>127.5</v>
       </c>
-      <c r="O35" s="100">
+      <c r="O35" s="99">
         <f t="shared" si="10"/>
         <v>86.43</v>
       </c>
-      <c r="P35" s="98">
+      <c r="P35" s="97">
         <f t="shared" si="10"/>
         <v>1.7624999999999993</v>
       </c>
-      <c r="Q35" s="98">
+      <c r="Q35" s="97">
         <f t="shared" si="10"/>
         <v>28.495000000000005</v>
       </c>
@@ -9796,14 +9817,14 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
-      <c r="AA35" s="288"/>
-      <c r="AB35" s="286"/>
+      <c r="AA35" s="286"/>
+      <c r="AB35" s="284"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A36" s="293" t="s">
+      <c r="A36" s="291" t="s">
         <v>193</v>
       </c>
-      <c r="B36" s="234">
+      <c r="B36" s="232">
         <f t="shared" ref="B36:Q36" si="11">SUM(((B25-B6)/2),B6)</f>
         <v>210</v>
       </c>
@@ -9811,7 +9832,7 @@
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="D36" s="235">
+      <c r="D36" s="233">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
@@ -9827,31 +9848,31 @@
         <f t="shared" si="11"/>
         <v>238.92500000000001</v>
       </c>
-      <c r="H36" s="135">
+      <c r="H36" s="133">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="I36" s="131">
+      <c r="I36" s="129">
         <f t="shared" si="11"/>
         <v>50</v>
       </c>
-      <c r="J36" s="131">
+      <c r="J36" s="129">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="K36" s="136">
+      <c r="K36" s="134">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="L36" s="144">
+      <c r="L36" s="142">
         <f t="shared" si="11"/>
         <v>191.25</v>
       </c>
-      <c r="M36" s="140">
+      <c r="M36" s="138">
         <f t="shared" si="11"/>
         <v>127.5</v>
       </c>
-      <c r="N36" s="145">
+      <c r="N36" s="143">
         <f t="shared" si="11"/>
         <v>191.25</v>
       </c>
@@ -9869,81 +9890,81 @@
       </c>
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="287"/>
-      <c r="U36" s="287"/>
+      <c r="T36" s="285"/>
+      <c r="U36" s="285"/>
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
       <c r="AA36" s="13"/>
-      <c r="AB36" s="286"/>
+      <c r="AB36" s="284"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A37" s="291" t="s">
+      <c r="A37" s="289" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="236">
+      <c r="B37" s="234">
         <f t="shared" ref="B37:Q37" si="12">SUM(((B16-B5)/2),B5)</f>
         <v>90</v>
       </c>
-      <c r="C37" s="108">
+      <c r="C37" s="106">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="D37" s="237">
+      <c r="D37" s="235">
         <f t="shared" si="12"/>
         <v>100</v>
       </c>
-      <c r="E37" s="129">
+      <c r="E37" s="127">
         <f t="shared" si="12"/>
         <v>84.925000000000011</v>
       </c>
-      <c r="F37" s="127">
+      <c r="F37" s="125">
         <f t="shared" si="12"/>
         <v>78.17</v>
       </c>
-      <c r="G37" s="128">
+      <c r="G37" s="126">
         <f t="shared" si="12"/>
         <v>115.96499999999999</v>
       </c>
-      <c r="H37" s="137">
+      <c r="H37" s="135">
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="I37" s="132">
+      <c r="I37" s="130">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="J37" s="132">
+      <c r="J37" s="130">
         <f t="shared" si="12"/>
         <v>25</v>
       </c>
-      <c r="K37" s="138">
+      <c r="K37" s="136">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L37" s="146">
+      <c r="L37" s="144">
         <f t="shared" si="12"/>
         <v>127.5</v>
       </c>
-      <c r="M37" s="141">
+      <c r="M37" s="139">
         <f t="shared" si="12"/>
         <v>191.25</v>
       </c>
-      <c r="N37" s="147">
+      <c r="N37" s="145">
         <f t="shared" si="12"/>
         <v>191.25</v>
       </c>
-      <c r="O37" s="129">
+      <c r="O37" s="127">
         <f t="shared" si="12"/>
         <v>84.925000000000011</v>
       </c>
-      <c r="P37" s="127">
+      <c r="P37" s="125">
         <f t="shared" si="12"/>
         <v>-4.8674999999999997</v>
       </c>
-      <c r="Q37" s="127">
+      <c r="Q37" s="125">
         <f t="shared" si="12"/>
         <v>1.3399999999999963</v>
       </c>
@@ -9957,93 +9978,93 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
       <c r="AA37" s="13"/>
-      <c r="AB37" s="286"/>
+      <c r="AB37" s="284"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="292" t="s">
+      <c r="A38" s="290" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="240">
+      <c r="B38" s="238">
         <f t="shared" ref="B38:Q38" si="13">SUM(((B15-B4)/2),B4)</f>
         <v>240</v>
       </c>
-      <c r="C38" s="96">
+      <c r="C38" s="95">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="D38" s="241">
+      <c r="D38" s="239">
         <f t="shared" si="13"/>
         <v>100</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E38" s="99">
         <f t="shared" si="13"/>
         <v>54.01</v>
       </c>
-      <c r="F38" s="98">
+      <c r="F38" s="97">
         <f t="shared" si="13"/>
         <v>108.32250000000001</v>
       </c>
-      <c r="G38" s="99">
+      <c r="G38" s="98">
         <f t="shared" si="13"/>
         <v>284.32</v>
       </c>
-      <c r="H38" s="133">
+      <c r="H38" s="131">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="I38" s="130">
+      <c r="I38" s="128">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
-      <c r="J38" s="130">
+      <c r="J38" s="128">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="K38" s="134">
+      <c r="K38" s="132">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="L38" s="142">
+      <c r="L38" s="140">
         <f t="shared" si="13"/>
         <v>63.75</v>
       </c>
-      <c r="M38" s="139">
+      <c r="M38" s="137">
         <f t="shared" si="13"/>
         <v>63.75</v>
       </c>
-      <c r="N38" s="143">
+      <c r="N38" s="141">
         <f t="shared" si="13"/>
         <v>255</v>
       </c>
-      <c r="O38" s="100">
+      <c r="O38" s="99">
         <f t="shared" si="13"/>
         <v>54.01</v>
       </c>
-      <c r="P38" s="98">
+      <c r="P38" s="97">
         <f t="shared" si="13"/>
         <v>52.142499999999998</v>
       </c>
-      <c r="Q38" s="98">
+      <c r="Q38" s="97">
         <f t="shared" si="13"/>
         <v>-72.674999999999997</v>
       </c>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
-      <c r="T38" s="287"/>
-      <c r="U38" s="287"/>
+      <c r="T38" s="285"/>
+      <c r="U38" s="285"/>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
       <c r="AA38" s="13"/>
-      <c r="AB38" s="286"/>
+      <c r="AB38" s="284"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="293" t="s">
+      <c r="A39" s="291" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="234">
+      <c r="B39" s="232">
         <f t="shared" ref="B39:Q39" si="14">SUM(((B6-B21)/2),B21)</f>
         <v>255</v>
       </c>
@@ -10051,7 +10072,7 @@
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
-      <c r="D39" s="235">
+      <c r="D39" s="233">
         <f t="shared" si="14"/>
         <v>100</v>
       </c>
@@ -10067,31 +10088,31 @@
         <f t="shared" si="14"/>
         <v>289.78499999999997</v>
       </c>
-      <c r="H39" s="135">
+      <c r="H39" s="133">
         <f t="shared" si="14"/>
         <v>50</v>
       </c>
-      <c r="I39" s="131">
+      <c r="I39" s="129">
         <f t="shared" si="14"/>
         <v>75</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="129">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K39" s="136">
+      <c r="K39" s="134">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L39" s="144">
+      <c r="L39" s="142">
         <f t="shared" si="14"/>
         <v>127.5</v>
       </c>
-      <c r="M39" s="140">
+      <c r="M39" s="138">
         <f t="shared" si="14"/>
         <v>63.75</v>
       </c>
-      <c r="N39" s="145">
+      <c r="N39" s="143">
         <f t="shared" si="14"/>
         <v>255</v>
       </c>
@@ -10109,161 +10130,161 @@
       </c>
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
-      <c r="T39" s="287"/>
-      <c r="U39" s="287"/>
+      <c r="T39" s="285"/>
+      <c r="U39" s="285"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13"/>
       <c r="X39" s="13"/>
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
       <c r="AA39" s="13"/>
-      <c r="AB39" s="286"/>
+      <c r="AB39" s="284"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A40" s="291" t="s">
+      <c r="A40" s="289" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="236">
+      <c r="B40" s="234">
         <f t="shared" ref="B40:Q40" si="15">SUM(((B22-B5)/2),B5)</f>
         <v>225</v>
       </c>
-      <c r="C40" s="108">
+      <c r="C40" s="106">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="D40" s="237">
+      <c r="D40" s="235">
         <f t="shared" si="15"/>
         <v>100</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="127">
         <f t="shared" si="15"/>
         <v>68.715000000000003</v>
       </c>
-      <c r="F40" s="127">
+      <c r="F40" s="125">
         <f t="shared" si="15"/>
         <v>87.397500000000008</v>
       </c>
-      <c r="G40" s="128">
+      <c r="G40" s="126">
         <f t="shared" si="15"/>
         <v>256.82500000000005</v>
       </c>
-      <c r="H40" s="137">
+      <c r="H40" s="135">
         <f t="shared" si="15"/>
         <v>75</v>
       </c>
-      <c r="I40" s="132">
+      <c r="I40" s="130">
         <f t="shared" si="15"/>
         <v>50</v>
       </c>
-      <c r="J40" s="132">
+      <c r="J40" s="130">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="K40" s="138">
+      <c r="K40" s="136">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L40" s="146">
+      <c r="L40" s="144">
         <f t="shared" si="15"/>
         <v>63.75</v>
       </c>
-      <c r="M40" s="141">
+      <c r="M40" s="139">
         <f t="shared" si="15"/>
         <v>127.5</v>
       </c>
-      <c r="N40" s="147">
+      <c r="N40" s="145">
         <f t="shared" si="15"/>
         <v>255</v>
       </c>
-      <c r="O40" s="129">
+      <c r="O40" s="127">
         <f t="shared" si="15"/>
         <v>68.715000000000003</v>
       </c>
-      <c r="P40" s="127">
+      <c r="P40" s="125">
         <f t="shared" si="15"/>
         <v>20.322500000000005</v>
       </c>
-      <c r="Q40" s="127">
+      <c r="Q40" s="125">
         <f t="shared" si="15"/>
         <v>-49.244999999999997</v>
       </c>
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="287"/>
+      <c r="T40" s="285"/>
+      <c r="U40" s="285"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
       <c r="X40" s="13"/>
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
       <c r="AA40" s="13"/>
-      <c r="AB40" s="286"/>
+      <c r="AB40" s="284"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A41" s="292" t="s">
+      <c r="A41" s="290" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="133">
+      <c r="B41" s="131">
         <f t="shared" ref="B41:Q41" si="16">SUM(((B17-B7)/2),B7)</f>
         <v>105</v>
       </c>
-      <c r="C41" s="130">
+      <c r="C41" s="128">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="D41" s="134">
+      <c r="D41" s="132">
         <f t="shared" si="16"/>
         <v>100</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="99">
         <f t="shared" si="16"/>
         <v>93.284999999999997</v>
       </c>
-      <c r="F41" s="98">
+      <c r="F41" s="97">
         <f t="shared" si="16"/>
         <v>90.92</v>
       </c>
-      <c r="G41" s="99">
+      <c r="G41" s="98">
         <f t="shared" si="16"/>
         <v>134.52499999999998</v>
       </c>
-      <c r="H41" s="240">
+      <c r="H41" s="238">
         <f t="shared" si="16"/>
         <v>50</v>
       </c>
-      <c r="I41" s="96">
+      <c r="I41" s="95">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J41" s="96">
+      <c r="J41" s="95">
         <f t="shared" si="16"/>
         <v>75</v>
       </c>
-      <c r="K41" s="241">
+      <c r="K41" s="239">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L41" s="142">
+      <c r="L41" s="140">
         <f t="shared" si="16"/>
         <v>127.5</v>
       </c>
-      <c r="M41" s="139">
+      <c r="M41" s="137">
         <f t="shared" si="16"/>
         <v>255</v>
       </c>
-      <c r="N41" s="143">
+      <c r="N41" s="141">
         <f t="shared" si="16"/>
         <v>63.75</v>
       </c>
-      <c r="O41" s="100">
+      <c r="O41" s="99">
         <f t="shared" si="16"/>
         <v>93.284999999999997</v>
       </c>
-      <c r="P41" s="98">
+      <c r="P41" s="97">
         <f t="shared" si="16"/>
         <v>-44.344999999999999</v>
       </c>
-      <c r="Q41" s="98">
+      <c r="Q41" s="97">
         <f t="shared" si="16"/>
         <v>64.5</v>
       </c>
@@ -10277,21 +10298,21 @@
       <c r="Y41" s="13"/>
       <c r="Z41" s="13"/>
       <c r="AA41" s="13"/>
-      <c r="AB41" s="286"/>
+      <c r="AB41" s="284"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A42" s="293" t="s">
+      <c r="A42" s="291" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="135">
+      <c r="B42" s="133">
         <f t="shared" ref="B42:Q42" si="17">SUM(((B25-B3)/2),B3)</f>
         <v>120</v>
       </c>
-      <c r="C42" s="131">
+      <c r="C42" s="129">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
-      <c r="D42" s="136">
+      <c r="D42" s="134">
         <f t="shared" si="17"/>
         <v>100</v>
       </c>
@@ -10307,7 +10328,7 @@
         <f t="shared" si="17"/>
         <v>142.815</v>
       </c>
-      <c r="H42" s="234">
+      <c r="H42" s="232">
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
@@ -10319,19 +10340,19 @@
         <f t="shared" si="17"/>
         <v>75</v>
       </c>
-      <c r="K42" s="235">
+      <c r="K42" s="233">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L42" s="144">
+      <c r="L42" s="142">
         <f t="shared" si="17"/>
         <v>63.75</v>
       </c>
-      <c r="M42" s="140">
+      <c r="M42" s="138">
         <f t="shared" si="17"/>
         <v>255</v>
       </c>
-      <c r="N42" s="145">
+      <c r="N42" s="143">
         <f t="shared" si="17"/>
         <v>63.75</v>
       </c>
@@ -10357,73 +10378,73 @@
       <c r="Y42" s="13"/>
       <c r="Z42" s="13"/>
       <c r="AA42" s="13"/>
-      <c r="AB42" s="286"/>
+      <c r="AB42" s="284"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A43" s="291" t="s">
+      <c r="A43" s="289" t="s">
         <v>126</v>
       </c>
-      <c r="B43" s="137">
+      <c r="B43" s="135">
         <f t="shared" ref="B43:Q43" si="18">SUM(((B5-B20)/2),B20)</f>
         <v>135</v>
       </c>
-      <c r="C43" s="132">
+      <c r="C43" s="130">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="D43" s="138">
+      <c r="D43" s="136">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="127">
         <f t="shared" si="18"/>
         <v>91.78</v>
       </c>
-      <c r="F43" s="127">
+      <c r="F43" s="125">
         <f t="shared" si="18"/>
         <v>79.222499999999997</v>
       </c>
-      <c r="G43" s="128">
+      <c r="G43" s="126">
         <f t="shared" si="18"/>
         <v>157.91</v>
       </c>
-      <c r="H43" s="236">
+      <c r="H43" s="234">
         <f t="shared" si="18"/>
         <v>75</v>
       </c>
-      <c r="I43" s="108">
+      <c r="I43" s="106">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J43" s="108">
+      <c r="J43" s="106">
         <f t="shared" si="18"/>
         <v>50</v>
       </c>
-      <c r="K43" s="237">
+      <c r="K43" s="235">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L43" s="146">
+      <c r="L43" s="144">
         <f t="shared" si="18"/>
         <v>63.75</v>
       </c>
-      <c r="M43" s="141">
+      <c r="M43" s="139">
         <f t="shared" si="18"/>
         <v>255</v>
       </c>
-      <c r="N43" s="147">
+      <c r="N43" s="145">
         <f t="shared" si="18"/>
         <v>127.5</v>
       </c>
-      <c r="O43" s="129">
+      <c r="O43" s="127">
         <f t="shared" si="18"/>
         <v>91.78</v>
       </c>
-      <c r="P43" s="127">
+      <c r="P43" s="125">
         <f t="shared" si="18"/>
         <v>-50.975000000000001</v>
       </c>
-      <c r="Q43" s="127">
+      <c r="Q43" s="125">
         <f t="shared" si="18"/>
         <v>37.345000000000006</v>
       </c>
@@ -10437,72 +10458,72 @@
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
       <c r="AA43" s="13"/>
-      <c r="AB43" s="286"/>
+      <c r="AB43" s="284"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A44" s="292" t="s">
+      <c r="A44" s="290" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="133">
+      <c r="B44" s="131">
         <v>15</v>
       </c>
-      <c r="C44" s="130">
+      <c r="C44" s="128">
         <f t="shared" ref="C44:Q44" si="19">SUM(((C13-C7)/2),C7)</f>
         <v>100</v>
       </c>
-      <c r="D44" s="134">
+      <c r="D44" s="132">
         <f t="shared" si="19"/>
         <v>100</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="99">
         <f t="shared" si="19"/>
         <v>76.957499999999996</v>
       </c>
-      <c r="F44" s="98">
+      <c r="F44" s="97">
         <f t="shared" si="19"/>
         <v>103.4825</v>
       </c>
-      <c r="G44" s="99">
+      <c r="G44" s="98">
         <f t="shared" si="19"/>
         <v>53.484999999999999</v>
       </c>
-      <c r="H44" s="184">
+      <c r="H44" s="182">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I44" s="185">
+      <c r="I44" s="183">
         <f t="shared" si="19"/>
         <v>50</v>
       </c>
-      <c r="J44" s="185">
+      <c r="J44" s="183">
         <f t="shared" si="19"/>
         <v>75</v>
       </c>
-      <c r="K44" s="186">
+      <c r="K44" s="184">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L44" s="142">
+      <c r="L44" s="140">
         <f t="shared" si="19"/>
         <v>255</v>
       </c>
-      <c r="M44" s="139">
+      <c r="M44" s="137">
         <f t="shared" si="19"/>
         <v>127.5</v>
       </c>
-      <c r="N44" s="143">
+      <c r="N44" s="141">
         <f t="shared" si="19"/>
         <v>63.75</v>
       </c>
-      <c r="O44" s="100">
+      <c r="O44" s="99">
         <f t="shared" si="19"/>
         <v>76.957499999999996</v>
       </c>
-      <c r="P44" s="98">
+      <c r="P44" s="97">
         <f t="shared" si="19"/>
         <v>33.81</v>
       </c>
-      <c r="Q44" s="98">
+      <c r="Q44" s="97">
         <f t="shared" si="19"/>
         <v>48.835000000000001</v>
       </c>
@@ -10516,20 +10537,20 @@
       <c r="Y44" s="13"/>
       <c r="Z44" s="13"/>
       <c r="AA44" s="13"/>
-      <c r="AB44" s="286"/>
+      <c r="AB44" s="284"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A45" s="293" t="s">
+      <c r="A45" s="291" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="135">
+      <c r="B45" s="133">
         <v>345</v>
       </c>
-      <c r="C45" s="131">
+      <c r="C45" s="129">
         <f>SUM(((C14-C6)/2),C6)</f>
         <v>100</v>
       </c>
-      <c r="D45" s="136">
+      <c r="D45" s="134">
         <f>SUM(((D14-D6)/2),D6)</f>
         <v>100</v>
       </c>
@@ -10544,31 +10565,31 @@
       <c r="G45" s="56">
         <v>19.829999999999998</v>
       </c>
-      <c r="H45" s="187">
+      <c r="H45" s="185">
         <f t="shared" ref="H45:Q45" si="20">SUM(((H14-H6)/2),H6)</f>
         <v>0</v>
       </c>
-      <c r="I45" s="188">
+      <c r="I45" s="186">
         <f t="shared" si="20"/>
         <v>75</v>
       </c>
-      <c r="J45" s="188">
+      <c r="J45" s="186">
         <f t="shared" si="20"/>
         <v>50</v>
       </c>
-      <c r="K45" s="189">
+      <c r="K45" s="187">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="L45" s="144">
+      <c r="L45" s="142">
         <f t="shared" si="20"/>
         <v>255</v>
       </c>
-      <c r="M45" s="140">
+      <c r="M45" s="138">
         <f t="shared" si="20"/>
         <v>63.75</v>
       </c>
-      <c r="N45" s="145">
+      <c r="N45" s="143">
         <f t="shared" si="20"/>
         <v>127.5</v>
       </c>
@@ -10594,21 +10615,21 @@
       <c r="Y45" s="13"/>
       <c r="Z45" s="13"/>
       <c r="AA45" s="13"/>
-      <c r="AB45" s="286"/>
+      <c r="AB45" s="284"/>
     </row>
     <row r="46" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="297" t="s">
+      <c r="A46" s="295" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="190">
+      <c r="B46" s="188">
         <f t="shared" ref="B46:Q46" si="21">SUM(((B16-B2)/2),B2)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="191">
+      <c r="C46" s="189">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
-      <c r="D46" s="192">
+      <c r="D46" s="190">
         <f t="shared" si="21"/>
         <v>100</v>
       </c>
@@ -10624,31 +10645,31 @@
         <f t="shared" si="21"/>
         <v>37.769999999999996</v>
       </c>
-      <c r="H46" s="193">
+      <c r="H46" s="191">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I46" s="194">
+      <c r="I46" s="192">
         <f t="shared" si="21"/>
         <v>75</v>
       </c>
-      <c r="J46" s="194">
+      <c r="J46" s="192">
         <f t="shared" si="21"/>
         <v>75</v>
       </c>
-      <c r="K46" s="195">
+      <c r="K46" s="193">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L46" s="196">
+      <c r="L46" s="194">
         <f t="shared" si="21"/>
         <v>255</v>
       </c>
-      <c r="M46" s="197">
+      <c r="M46" s="195">
         <f t="shared" si="21"/>
         <v>63.75</v>
       </c>
-      <c r="N46" s="198">
+      <c r="N46" s="196">
         <f t="shared" si="21"/>
         <v>63.75</v>
       </c>
@@ -10674,18 +10695,18 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="13"/>
-      <c r="AB46" s="286"/>
+      <c r="AB46" s="284"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="E48" s="277" t="s">
+      <c r="E48" s="275" t="s">
         <v>122</v>
       </c>
-      <c r="F48" s="277"/>
-      <c r="G48" s="277"/>
-      <c r="H48" s="277"/>
-      <c r="I48" s="277"/>
-      <c r="J48" s="277"/>
-      <c r="K48" s="277"/>
+      <c r="F48" s="275"/>
+      <c r="G48" s="275"/>
+      <c r="H48" s="275"/>
+      <c r="I48" s="275"/>
+      <c r="J48" s="275"/>
+      <c r="K48" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Color Mixtures/Color Blends.xlsx
+++ b/Color Mixtures/Color Blends.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulogarcia/Desktop/MEIC/blendingbox/Color Mixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PauloGarcia/Desktop/blendingbox/Color Mixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="8700" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Color Mixtures First Study" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="213">
   <si>
     <t>Cores a Misturar</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>#cbd7d1</t>
+  </si>
+  <si>
+    <t>#00A5FF</t>
   </si>
 </sst>
 </file>
@@ -731,7 +734,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="117">
+  <fills count="118">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1425,6 +1428,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A5FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,7 +1900,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="356">
+  <cellXfs count="358">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2730,10 +2739,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="116" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2742,23 +2820,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2766,16 +2871,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2790,125 +2907,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="116" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="2" fontId="0" fillId="41" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="117" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2924,6 +2939,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF00A5FF"/>
       <color rgb="FFCBD7D1"/>
       <color rgb="FFF0AAD3"/>
       <color rgb="FFF0D5A3"/>
@@ -2933,7 +2949,6 @@
       <color rgb="FF80BFBF"/>
       <color rgb="FFBF80BF"/>
       <color rgb="FFBFBF80"/>
-      <color rgb="FF804040"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3308,7 +3323,7 @@
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A14" workbookViewId="0">
       <pane xSplit="3" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="AB34" sqref="AB34"/>
+      <selection pane="topRight" activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3323,10 +3338,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B2" s="316" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="316"/>
+      <c r="B2" s="337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="337"/>
       <c r="E2" t="s">
         <v>7</v>
       </c>
@@ -3509,10 +3524,10 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="321" t="s">
+      <c r="B10" s="343" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="321"/>
+      <c r="C10" s="343"/>
       <c r="D10" s="4">
         <v>0</v>
       </c>
@@ -3567,10 +3582,10 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="322" t="s">
+      <c r="B11" s="344" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="322"/>
+      <c r="C11" s="344"/>
       <c r="D11" s="4">
         <v>120</v>
       </c>
@@ -3625,10 +3640,10 @@
       </c>
     </row>
     <row r="12" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="323" t="s">
+      <c r="B12" s="345" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="323"/>
+      <c r="C12" s="345"/>
       <c r="D12" s="25">
         <v>240</v>
       </c>
@@ -3683,10 +3698,10 @@
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="324" t="s">
+      <c r="B13" s="346" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="324"/>
+      <c r="C13" s="346"/>
       <c r="D13" s="4">
         <v>180</v>
       </c>
@@ -3741,10 +3756,10 @@
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="325" t="s">
+      <c r="B14" s="347" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="325"/>
+      <c r="C14" s="347"/>
       <c r="D14" s="4">
         <v>300</v>
       </c>
@@ -3799,10 +3814,10 @@
       </c>
     </row>
     <row r="15" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="320" t="s">
+      <c r="B15" s="342" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="320"/>
+      <c r="C15" s="342"/>
       <c r="D15" s="6">
         <v>60</v>
       </c>
@@ -3858,52 +3873,52 @@
     </row>
     <row r="16" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:35" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="341" t="s">
+      <c r="B17" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="342"/>
-      <c r="D17" s="317" t="s">
+      <c r="C17" s="312"/>
+      <c r="D17" s="327" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="318"/>
-      <c r="F17" s="319"/>
-      <c r="G17" s="318" t="s">
+      <c r="E17" s="304"/>
+      <c r="F17" s="305"/>
+      <c r="G17" s="304" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="318"/>
-      <c r="I17" s="319"/>
-      <c r="J17" s="317" t="s">
+      <c r="H17" s="304"/>
+      <c r="I17" s="305"/>
+      <c r="J17" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="318"/>
-      <c r="L17" s="318"/>
-      <c r="M17" s="319"/>
-      <c r="N17" s="317" t="s">
+      <c r="K17" s="304"/>
+      <c r="L17" s="304"/>
+      <c r="M17" s="305"/>
+      <c r="N17" s="327" t="s">
         <v>27</v>
       </c>
-      <c r="O17" s="318"/>
-      <c r="P17" s="318"/>
-      <c r="Q17" s="333" t="s">
+      <c r="O17" s="304"/>
+      <c r="P17" s="304"/>
+      <c r="Q17" s="328" t="s">
         <v>91</v>
       </c>
-      <c r="R17" s="334"/>
-      <c r="S17" s="335"/>
-      <c r="T17" s="330" t="s">
+      <c r="R17" s="329"/>
+      <c r="S17" s="330"/>
+      <c r="T17" s="323" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="331"/>
-      <c r="V17" s="331"/>
-      <c r="W17" s="331"/>
-      <c r="X17" s="331"/>
-      <c r="Y17" s="331"/>
-      <c r="Z17" s="331"/>
-      <c r="AA17" s="331"/>
-      <c r="AB17" s="331"/>
-      <c r="AC17" s="332"/>
+      <c r="U17" s="324"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="324"/>
+      <c r="X17" s="324"/>
+      <c r="Y17" s="324"/>
+      <c r="Z17" s="324"/>
+      <c r="AA17" s="324"/>
+      <c r="AB17" s="324"/>
+      <c r="AC17" s="325"/>
     </row>
     <row r="18" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="343"/>
-      <c r="C18" s="344"/>
+      <c r="B18" s="313"/>
+      <c r="C18" s="314"/>
       <c r="D18" s="22" t="s">
         <v>37</v>
       </c>
@@ -3952,32 +3967,32 @@
       <c r="S18" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="T18" s="336" t="s">
+      <c r="T18" s="331" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="337"/>
-      <c r="V18" s="338" t="s">
+      <c r="U18" s="332"/>
+      <c r="V18" s="333" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="337"/>
-      <c r="X18" s="338" t="s">
+      <c r="W18" s="332"/>
+      <c r="X18" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="Y18" s="337"/>
-      <c r="Z18" s="338" t="s">
+      <c r="Y18" s="332"/>
+      <c r="Z18" s="333" t="s">
         <v>27</v>
       </c>
-      <c r="AA18" s="337"/>
-      <c r="AB18" s="339" t="s">
+      <c r="AA18" s="332"/>
+      <c r="AB18" s="334" t="s">
         <v>91</v>
       </c>
-      <c r="AC18" s="340"/>
+      <c r="AC18" s="335"/>
     </row>
     <row r="19" spans="1:35" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="347" t="s">
+      <c r="B19" s="319" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="348"/>
+      <c r="C19" s="320"/>
       <c r="D19" s="20">
         <v>60</v>
       </c>
@@ -4031,35 +4046,35 @@
         <f>SUM(((S11-S10)/2),S10)</f>
         <v>75.2</v>
       </c>
-      <c r="T19" s="349" t="s">
+      <c r="T19" s="297" t="s">
         <v>61</v>
       </c>
       <c r="U19" s="32"/>
-      <c r="V19" s="350" t="s">
+      <c r="V19" s="298" t="s">
         <v>141</v>
       </c>
       <c r="W19" s="157"/>
-      <c r="X19" s="350" t="s">
+      <c r="X19" s="298" t="s">
         <v>83</v>
       </c>
       <c r="Y19" s="68"/>
-      <c r="Z19" s="350" t="s">
+      <c r="Z19" s="298" t="s">
         <v>83</v>
       </c>
       <c r="AA19" s="68"/>
-      <c r="AB19" s="351" t="s">
+      <c r="AB19" s="299" t="s">
         <v>94</v>
       </c>
       <c r="AC19" s="75"/>
-      <c r="AD19" s="327" t="s">
+      <c r="AD19" s="326" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B20" s="347" t="s">
+      <c r="B20" s="319" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="348"/>
+      <c r="C20" s="320"/>
       <c r="D20" s="20">
         <v>300</v>
       </c>
@@ -4113,33 +4128,33 @@
         <f>SUM(((S10-S12) /2),S12)</f>
         <v>-20.320000000000007</v>
       </c>
-      <c r="T20" s="349" t="s">
+      <c r="T20" s="297" t="s">
         <v>60</v>
       </c>
       <c r="U20" s="33"/>
-      <c r="V20" s="349" t="s">
+      <c r="V20" s="297" t="s">
         <v>140</v>
       </c>
       <c r="W20" s="156"/>
-      <c r="X20" s="349" t="s">
+      <c r="X20" s="297" t="s">
         <v>84</v>
       </c>
       <c r="Y20" s="44"/>
-      <c r="Z20" s="349" t="s">
+      <c r="Z20" s="297" t="s">
         <v>84</v>
       </c>
       <c r="AA20" s="44"/>
-      <c r="AB20" s="351" t="s">
+      <c r="AB20" s="299" t="s">
         <v>95</v>
       </c>
       <c r="AC20" s="76"/>
-      <c r="AD20" s="327"/>
+      <c r="AD20" s="326"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B21" s="298" t="s">
+      <c r="B21" s="321" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="299"/>
+      <c r="C21" s="322"/>
       <c r="D21" s="20">
         <v>180</v>
       </c>
@@ -4194,36 +4209,36 @@
         <f>SUM(((S11-S12)/2),S12)</f>
         <v>-12.339999999999989</v>
       </c>
-      <c r="T21" s="349" t="s">
+      <c r="T21" s="297" t="s">
         <v>59</v>
       </c>
       <c r="U21" s="34"/>
-      <c r="V21" s="308" t="s">
-        <v>151</v>
-      </c>
-      <c r="W21" s="309"/>
-      <c r="X21" s="349" t="s">
+      <c r="V21" s="296" t="s">
+        <v>212</v>
+      </c>
+      <c r="W21" s="357"/>
+      <c r="X21" s="297" t="s">
         <v>85</v>
       </c>
       <c r="Y21" s="45"/>
-      <c r="Z21" s="349" t="s">
+      <c r="Z21" s="297" t="s">
         <v>85</v>
       </c>
       <c r="AA21" s="45"/>
-      <c r="AB21" s="351" t="s">
+      <c r="AB21" s="299" t="s">
         <v>96</v>
       </c>
       <c r="AC21" s="80"/>
-      <c r="AD21" s="327"/>
+      <c r="AD21" s="326"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A22" s="310" t="s">
+      <c r="A22" s="354" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="306" t="s">
+      <c r="B22" s="338" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="307"/>
+      <c r="C22" s="339"/>
       <c r="D22" s="94">
         <v>90</v>
       </c>
@@ -4278,11 +4293,11 @@
         <f>SUM(((S10-S13)/2),S13)</f>
         <v>26.54</v>
       </c>
-      <c r="T22" s="355" t="s">
+      <c r="T22" s="303" t="s">
         <v>66</v>
       </c>
       <c r="U22" s="101"/>
-      <c r="V22" s="355" t="s">
+      <c r="V22" s="303" t="s">
         <v>109</v>
       </c>
       <c r="W22" s="102"/>
@@ -4298,12 +4313,12 @@
         <v>97</v>
       </c>
       <c r="AC22" s="104"/>
-      <c r="AD22" s="327"/>
+      <c r="AD22" s="326"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A23" s="310"/>
-      <c r="B23" s="308"/>
-      <c r="C23" s="309"/>
+      <c r="A23" s="354"/>
+      <c r="B23" s="317"/>
+      <c r="C23" s="318"/>
       <c r="D23" s="105">
         <v>270</v>
       </c>
@@ -4313,38 +4328,38 @@
       <c r="F23" s="107">
         <v>100</v>
       </c>
-      <c r="G23" s="303"/>
-      <c r="H23" s="304"/>
-      <c r="I23" s="311"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="302"/>
-      <c r="L23" s="302"/>
-      <c r="M23" s="301"/>
-      <c r="N23" s="300"/>
-      <c r="O23" s="302"/>
-      <c r="P23" s="301"/>
-      <c r="Q23" s="303"/>
-      <c r="R23" s="304"/>
-      <c r="S23" s="305"/>
-      <c r="T23" s="354" t="s">
+      <c r="G23" s="308"/>
+      <c r="H23" s="309"/>
+      <c r="I23" s="352"/>
+      <c r="J23" s="306"/>
+      <c r="K23" s="353"/>
+      <c r="L23" s="353"/>
+      <c r="M23" s="307"/>
+      <c r="N23" s="306"/>
+      <c r="O23" s="353"/>
+      <c r="P23" s="307"/>
+      <c r="Q23" s="308"/>
+      <c r="R23" s="309"/>
+      <c r="S23" s="310"/>
+      <c r="T23" s="302" t="s">
         <v>114</v>
       </c>
       <c r="U23" s="109"/>
-      <c r="V23" s="300"/>
-      <c r="W23" s="301"/>
-      <c r="X23" s="300"/>
-      <c r="Y23" s="301"/>
-      <c r="Z23" s="300"/>
-      <c r="AA23" s="301"/>
-      <c r="AB23" s="300"/>
-      <c r="AC23" s="301"/>
-      <c r="AD23" s="327"/>
+      <c r="V23" s="306"/>
+      <c r="W23" s="307"/>
+      <c r="X23" s="306"/>
+      <c r="Y23" s="307"/>
+      <c r="Z23" s="306"/>
+      <c r="AA23" s="307"/>
+      <c r="AB23" s="306"/>
+      <c r="AC23" s="307"/>
+      <c r="AD23" s="326"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B24" s="298" t="s">
+      <c r="B24" s="321" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="299"/>
+      <c r="C24" s="322"/>
       <c r="D24" s="20">
         <v>330</v>
       </c>
@@ -4398,33 +4413,33 @@
         <f>SUM(((S10-S14)/2),S14)</f>
         <v>3.1899999999999977</v>
       </c>
-      <c r="T24" s="349" t="s">
+      <c r="T24" s="297" t="s">
         <v>68</v>
       </c>
       <c r="U24" s="36"/>
-      <c r="V24" s="349" t="s">
+      <c r="V24" s="297" t="s">
         <v>68</v>
       </c>
       <c r="W24" s="36"/>
-      <c r="X24" s="349" t="s">
+      <c r="X24" s="297" t="s">
         <v>68</v>
       </c>
       <c r="Y24" s="36"/>
-      <c r="Z24" s="349" t="s">
+      <c r="Z24" s="297" t="s">
         <v>68</v>
       </c>
       <c r="AA24" s="36"/>
-      <c r="AB24" s="351" t="s">
+      <c r="AB24" s="299" t="s">
         <v>98</v>
       </c>
       <c r="AC24" s="81"/>
-      <c r="AD24" s="327"/>
+      <c r="AD24" s="326"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B25" s="298" t="s">
+      <c r="B25" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="299"/>
+      <c r="C25" s="322"/>
       <c r="D25" s="20">
         <v>30</v>
       </c>
@@ -4479,33 +4494,33 @@
         <f>SUM(((S10-S15)/2),S15)</f>
         <v>80.849999999999994</v>
       </c>
-      <c r="T25" s="349" t="s">
+      <c r="T25" s="297" t="s">
         <v>69</v>
       </c>
       <c r="U25" s="37"/>
-      <c r="V25" s="349" t="s">
+      <c r="V25" s="297" t="s">
         <v>142</v>
       </c>
       <c r="W25" s="158"/>
-      <c r="X25" s="349" t="s">
+      <c r="X25" s="297" t="s">
         <v>69</v>
       </c>
       <c r="Y25" s="37"/>
-      <c r="Z25" s="349" t="s">
+      <c r="Z25" s="297" t="s">
         <v>69</v>
       </c>
       <c r="AA25" s="37"/>
-      <c r="AB25" s="351" t="s">
+      <c r="AB25" s="299" t="s">
         <v>99</v>
       </c>
       <c r="AC25" s="82"/>
-      <c r="AD25" s="327"/>
+      <c r="AD25" s="326"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B26" s="298" t="s">
+      <c r="B26" s="321" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="299"/>
+      <c r="C26" s="322"/>
       <c r="D26" s="20">
         <v>240</v>
       </c>
@@ -4560,33 +4575,33 @@
         <f>SUM(((S13-S14)/2),S14)</f>
         <v>-37.49</v>
       </c>
-      <c r="T26" s="349" t="s">
+      <c r="T26" s="297" t="s">
         <v>63</v>
       </c>
       <c r="U26" s="38"/>
-      <c r="V26" s="352" t="s">
+      <c r="V26" s="300" t="s">
         <v>110</v>
       </c>
       <c r="W26" s="90"/>
-      <c r="X26" s="349" t="s">
+      <c r="X26" s="297" t="s">
         <v>87</v>
       </c>
       <c r="Y26" s="46"/>
-      <c r="Z26" s="349" t="s">
+      <c r="Z26" s="297" t="s">
         <v>87</v>
       </c>
       <c r="AA26" s="46"/>
-      <c r="AB26" s="349" t="s">
+      <c r="AB26" s="297" t="s">
         <v>100</v>
       </c>
       <c r="AC26" s="83"/>
-      <c r="AD26" s="327"/>
+      <c r="AD26" s="326"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B27" s="298" t="s">
+      <c r="B27" s="321" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="299"/>
+      <c r="C27" s="322"/>
       <c r="D27" s="20">
         <v>0</v>
       </c>
@@ -4640,33 +4655,33 @@
         <f>SUM(((S15-S14)/2),S14)</f>
         <v>16.819999999999993</v>
       </c>
-      <c r="T27" s="349" t="s">
+      <c r="T27" s="297" t="s">
         <v>56</v>
       </c>
       <c r="U27" s="39"/>
-      <c r="V27" s="352" t="s">
+      <c r="V27" s="300" t="s">
         <v>143</v>
       </c>
       <c r="W27" s="159"/>
-      <c r="X27" s="349" t="s">
+      <c r="X27" s="297" t="s">
         <v>88</v>
       </c>
       <c r="Y27" s="47"/>
-      <c r="Z27" s="349" t="s">
+      <c r="Z27" s="297" t="s">
         <v>88</v>
       </c>
       <c r="AA27" s="47"/>
-      <c r="AB27" s="349" t="s">
+      <c r="AB27" s="297" t="s">
         <v>101</v>
       </c>
       <c r="AC27" s="84"/>
-      <c r="AD27" s="327"/>
+      <c r="AD27" s="326"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B28" s="298" t="s">
+      <c r="B28" s="321" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="299"/>
+      <c r="C28" s="322"/>
       <c r="D28" s="20">
         <v>150</v>
       </c>
@@ -4721,36 +4736,36 @@
         <f>SUM(((S11-S13)/2),S13)</f>
         <v>34.520000000000003</v>
       </c>
-      <c r="T28" s="349" t="s">
+      <c r="T28" s="297" t="s">
         <v>64</v>
       </c>
       <c r="U28" s="40"/>
-      <c r="V28" s="352" t="s">
+      <c r="V28" s="300" t="s">
         <v>111</v>
       </c>
       <c r="W28" s="91"/>
-      <c r="X28" s="349" t="s">
+      <c r="X28" s="297" t="s">
         <v>64</v>
       </c>
       <c r="Y28" s="40"/>
-      <c r="Z28" s="349" t="s">
+      <c r="Z28" s="297" t="s">
         <v>64</v>
       </c>
       <c r="AA28" s="40"/>
-      <c r="AB28" s="349" t="s">
+      <c r="AB28" s="297" t="s">
         <v>102</v>
       </c>
       <c r="AC28" s="85"/>
-      <c r="AD28" s="327"/>
+      <c r="AD28" s="326"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A29" s="310" t="s">
+      <c r="A29" s="354" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="306" t="s">
+      <c r="B29" s="338" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="307"/>
+      <c r="C29" s="339"/>
       <c r="D29" s="94">
         <v>210</v>
       </c>
@@ -4804,32 +4819,32 @@
         <f>SUM(((S11-S14)/2),S14)</f>
         <v>11.170000000000002</v>
       </c>
-      <c r="T29" s="355" t="s">
+      <c r="T29" s="303" t="s">
         <v>67</v>
       </c>
       <c r="U29" s="110"/>
-      <c r="V29" s="353" t="s">
+      <c r="V29" s="301" t="s">
         <v>144</v>
       </c>
       <c r="W29" s="160"/>
-      <c r="X29" s="355" t="s">
+      <c r="X29" s="303" t="s">
         <v>86</v>
       </c>
       <c r="Y29" s="103"/>
-      <c r="Z29" s="355" t="s">
+      <c r="Z29" s="303" t="s">
         <v>86</v>
       </c>
       <c r="AA29" s="103"/>
-      <c r="AB29" s="355" t="s">
+      <c r="AB29" s="303" t="s">
         <v>103</v>
       </c>
       <c r="AC29" s="111"/>
-      <c r="AD29" s="327"/>
+      <c r="AD29" s="326"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="310"/>
-      <c r="B30" s="308"/>
-      <c r="C30" s="309"/>
+      <c r="A30" s="354"/>
+      <c r="B30" s="317"/>
+      <c r="C30" s="318"/>
       <c r="D30" s="105">
         <v>30</v>
       </c>
@@ -4839,38 +4854,38 @@
       <c r="F30" s="107">
         <v>100</v>
       </c>
-      <c r="G30" s="303"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="311"/>
-      <c r="J30" s="300"/>
-      <c r="K30" s="302"/>
-      <c r="L30" s="302"/>
-      <c r="M30" s="301"/>
-      <c r="N30" s="300"/>
-      <c r="O30" s="302"/>
-      <c r="P30" s="301"/>
-      <c r="Q30" s="303"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="305"/>
-      <c r="T30" s="354" t="s">
+      <c r="G30" s="308"/>
+      <c r="H30" s="309"/>
+      <c r="I30" s="352"/>
+      <c r="J30" s="306"/>
+      <c r="K30" s="353"/>
+      <c r="L30" s="353"/>
+      <c r="M30" s="307"/>
+      <c r="N30" s="306"/>
+      <c r="O30" s="353"/>
+      <c r="P30" s="307"/>
+      <c r="Q30" s="308"/>
+      <c r="R30" s="309"/>
+      <c r="S30" s="310"/>
+      <c r="T30" s="302" t="s">
         <v>115</v>
       </c>
       <c r="U30" s="112"/>
-      <c r="V30" s="300"/>
-      <c r="W30" s="301"/>
-      <c r="X30" s="300"/>
-      <c r="Y30" s="301"/>
-      <c r="Z30" s="300"/>
-      <c r="AA30" s="301"/>
-      <c r="AB30" s="300"/>
-      <c r="AC30" s="301"/>
-      <c r="AD30" s="327"/>
+      <c r="V30" s="306"/>
+      <c r="W30" s="307"/>
+      <c r="X30" s="306"/>
+      <c r="Y30" s="307"/>
+      <c r="Z30" s="306"/>
+      <c r="AA30" s="307"/>
+      <c r="AB30" s="306"/>
+      <c r="AC30" s="307"/>
+      <c r="AD30" s="326"/>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B31" s="298" t="s">
+      <c r="B31" s="321" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="299"/>
+      <c r="C31" s="322"/>
       <c r="D31" s="20">
         <v>90</v>
       </c>
@@ -4925,37 +4940,37 @@
         <f>SUM(((S15-S11)/2),S11)</f>
         <v>88.830000000000013</v>
       </c>
-      <c r="T31" s="349" t="s">
+      <c r="T31" s="297" t="s">
         <v>66</v>
       </c>
       <c r="U31" s="35"/>
-      <c r="V31" s="352" t="s">
+      <c r="V31" s="300" t="s">
         <v>145</v>
       </c>
       <c r="W31" s="161"/>
-      <c r="X31" s="349" t="s">
+      <c r="X31" s="297" t="s">
         <v>66</v>
       </c>
       <c r="Y31" s="35"/>
-      <c r="Z31" s="349" t="s">
+      <c r="Z31" s="297" t="s">
         <v>66</v>
       </c>
       <c r="AA31" s="35"/>
-      <c r="AB31" s="349" t="s">
+      <c r="AB31" s="297" t="s">
         <v>104</v>
       </c>
       <c r="AC31" s="86"/>
-      <c r="AD31" s="327"/>
-      <c r="AH31" s="316" t="s">
+      <c r="AD31" s="326"/>
+      <c r="AH31" s="337" t="s">
         <v>93</v>
       </c>
-      <c r="AI31" s="316"/>
+      <c r="AI31" s="337"/>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B32" s="298" t="s">
+      <c r="B32" s="321" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="299"/>
+      <c r="C32" s="322"/>
       <c r="D32" s="20">
         <v>210</v>
       </c>
@@ -5010,33 +5025,33 @@
         <f>SUM(((S13-S12)/2),S12)</f>
         <v>-61</v>
       </c>
-      <c r="T32" s="349" t="s">
+      <c r="T32" s="297" t="s">
         <v>67</v>
       </c>
       <c r="U32" s="41"/>
-      <c r="V32" s="352" t="s">
+      <c r="V32" s="300" t="s">
         <v>112</v>
       </c>
       <c r="W32" s="92"/>
-      <c r="X32" s="349" t="s">
+      <c r="X32" s="297" t="s">
         <v>67</v>
       </c>
       <c r="Y32" s="41"/>
-      <c r="Z32" s="349" t="s">
+      <c r="Z32" s="297" t="s">
         <v>67</v>
       </c>
       <c r="AA32" s="41"/>
-      <c r="AB32" s="349" t="s">
+      <c r="AB32" s="297" t="s">
         <v>105</v>
       </c>
       <c r="AC32" s="87"/>
-      <c r="AD32" s="327"/>
+      <c r="AD32" s="326"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="B33" s="298" t="s">
+      <c r="B33" s="321" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="299"/>
+      <c r="C33" s="322"/>
       <c r="D33" s="20">
         <v>270</v>
       </c>
@@ -5091,36 +5106,36 @@
         <f>SUM(((S14-S12)/2),S12)</f>
         <v>-84.35</v>
       </c>
-      <c r="T33" s="349" t="s">
+      <c r="T33" s="297" t="s">
         <v>65</v>
       </c>
       <c r="U33" s="42"/>
-      <c r="V33" s="352" t="s">
+      <c r="V33" s="300" t="s">
         <v>146</v>
       </c>
       <c r="W33" s="162"/>
-      <c r="X33" s="349" t="s">
+      <c r="X33" s="297" t="s">
         <v>65</v>
       </c>
       <c r="Y33" s="42"/>
-      <c r="Z33" s="349" t="s">
+      <c r="Z33" s="297" t="s">
         <v>65</v>
       </c>
       <c r="AA33" s="42"/>
-      <c r="AB33" s="349" t="s">
+      <c r="AB33" s="297" t="s">
         <v>106</v>
       </c>
       <c r="AC33" s="88"/>
-      <c r="AD33" s="327"/>
+      <c r="AD33" s="326"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="354" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="306" t="s">
+      <c r="B34" s="338" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="307"/>
+      <c r="C34" s="339"/>
       <c r="D34" s="94">
         <v>150</v>
       </c>
@@ -5174,19 +5189,19 @@
         <f>SUM(((S15-S12)/2),S12)</f>
         <v>-6.6899999999999977</v>
       </c>
-      <c r="T34" s="355" t="s">
+      <c r="T34" s="303" t="s">
         <v>64</v>
       </c>
       <c r="U34" s="113"/>
-      <c r="V34" s="353" t="s">
+      <c r="V34" s="301" t="s">
         <v>147</v>
       </c>
       <c r="W34" s="163"/>
-      <c r="X34" s="355" t="s">
+      <c r="X34" s="303" t="s">
         <v>86</v>
       </c>
       <c r="Y34" s="103"/>
-      <c r="Z34" s="355" t="s">
+      <c r="Z34" s="303" t="s">
         <v>86</v>
       </c>
       <c r="AA34" s="103"/>
@@ -5194,12 +5209,12 @@
         <v>107</v>
       </c>
       <c r="AC34" s="114"/>
-      <c r="AD34" s="327"/>
+      <c r="AD34" s="326"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35" s="310"/>
-      <c r="B35" s="308"/>
-      <c r="C35" s="309"/>
+      <c r="A35" s="354"/>
+      <c r="B35" s="317"/>
+      <c r="C35" s="318"/>
       <c r="D35" s="105">
         <v>330</v>
       </c>
@@ -5209,38 +5224,38 @@
       <c r="F35" s="107">
         <v>100</v>
       </c>
-      <c r="G35" s="303"/>
-      <c r="H35" s="304"/>
-      <c r="I35" s="311"/>
-      <c r="J35" s="300"/>
-      <c r="K35" s="302"/>
-      <c r="L35" s="302"/>
-      <c r="M35" s="301"/>
-      <c r="N35" s="300"/>
-      <c r="O35" s="302"/>
-      <c r="P35" s="301"/>
-      <c r="Q35" s="303"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="305"/>
-      <c r="T35" s="354" t="s">
+      <c r="G35" s="308"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="352"/>
+      <c r="J35" s="306"/>
+      <c r="K35" s="353"/>
+      <c r="L35" s="353"/>
+      <c r="M35" s="307"/>
+      <c r="N35" s="306"/>
+      <c r="O35" s="353"/>
+      <c r="P35" s="307"/>
+      <c r="Q35" s="308"/>
+      <c r="R35" s="309"/>
+      <c r="S35" s="310"/>
+      <c r="T35" s="302" t="s">
         <v>117</v>
       </c>
       <c r="U35" s="115"/>
-      <c r="V35" s="300"/>
-      <c r="W35" s="301"/>
-      <c r="X35" s="300"/>
-      <c r="Y35" s="301"/>
-      <c r="Z35" s="300"/>
-      <c r="AA35" s="301"/>
-      <c r="AB35" s="300"/>
-      <c r="AC35" s="301"/>
-      <c r="AD35" s="327"/>
+      <c r="V35" s="306"/>
+      <c r="W35" s="307"/>
+      <c r="X35" s="306"/>
+      <c r="Y35" s="307"/>
+      <c r="Z35" s="306"/>
+      <c r="AA35" s="307"/>
+      <c r="AB35" s="306"/>
+      <c r="AC35" s="307"/>
+      <c r="AD35" s="326"/>
     </row>
     <row r="36" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="298" t="s">
+      <c r="B36" s="321" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="299"/>
+      <c r="C36" s="322"/>
       <c r="D36" s="20">
         <v>120</v>
       </c>
@@ -5295,67 +5310,67 @@
         <f>SUM(((S15-S13)/2),S13)</f>
         <v>40.17</v>
       </c>
-      <c r="T36" s="349" t="s">
+      <c r="T36" s="297" t="s">
         <v>70</v>
       </c>
       <c r="U36" s="43"/>
-      <c r="V36" s="352" t="s">
+      <c r="V36" s="300" t="s">
         <v>113</v>
       </c>
       <c r="W36" s="93"/>
-      <c r="X36" s="349" t="s">
+      <c r="X36" s="297" t="s">
         <v>89</v>
       </c>
       <c r="Y36" s="48"/>
-      <c r="Z36" s="349" t="s">
+      <c r="Z36" s="297" t="s">
         <v>89</v>
       </c>
       <c r="AA36" s="48"/>
-      <c r="AB36" s="349" t="s">
+      <c r="AB36" s="297" t="s">
         <v>108</v>
       </c>
       <c r="AC36" s="89"/>
-      <c r="AD36" s="327"/>
+      <c r="AD36" s="326"/>
     </row>
     <row r="37" spans="1:30" ht="28" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="345" t="s">
+      <c r="B37" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="346"/>
-      <c r="D37" s="346"/>
-      <c r="E37" s="346"/>
-      <c r="F37" s="346"/>
-      <c r="G37" s="346"/>
-      <c r="H37" s="346"/>
-      <c r="I37" s="346"/>
-      <c r="J37" s="346"/>
-      <c r="K37" s="346"/>
-      <c r="L37" s="346"/>
-      <c r="M37" s="346"/>
-      <c r="N37" s="346"/>
-      <c r="O37" s="346"/>
-      <c r="P37" s="346"/>
-      <c r="Q37" s="346"/>
-      <c r="R37" s="346"/>
-      <c r="S37" s="346"/>
-      <c r="T37" s="346"/>
-      <c r="U37" s="346"/>
-      <c r="V37" s="346"/>
-      <c r="W37" s="346"/>
-      <c r="X37" s="346"/>
-      <c r="Y37" s="346"/>
-      <c r="Z37" s="346"/>
-      <c r="AA37" s="346"/>
-      <c r="AB37" s="346"/>
-      <c r="AC37" s="346"/>
+      <c r="C37" s="316"/>
+      <c r="D37" s="316"/>
+      <c r="E37" s="316"/>
+      <c r="F37" s="316"/>
+      <c r="G37" s="316"/>
+      <c r="H37" s="316"/>
+      <c r="I37" s="316"/>
+      <c r="J37" s="316"/>
+      <c r="K37" s="316"/>
+      <c r="L37" s="316"/>
+      <c r="M37" s="316"/>
+      <c r="N37" s="316"/>
+      <c r="O37" s="316"/>
+      <c r="P37" s="316"/>
+      <c r="Q37" s="316"/>
+      <c r="R37" s="316"/>
+      <c r="S37" s="316"/>
+      <c r="T37" s="316"/>
+      <c r="U37" s="316"/>
+      <c r="V37" s="316"/>
+      <c r="W37" s="316"/>
+      <c r="X37" s="316"/>
+      <c r="Y37" s="316"/>
+      <c r="Z37" s="316"/>
+      <c r="AA37" s="316"/>
+      <c r="AB37" s="316"/>
+      <c r="AC37" s="316"/>
       <c r="AD37" s="28"/>
     </row>
     <row r="38" spans="1:30" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A38" s="258"/>
-      <c r="B38" s="312" t="s">
+      <c r="B38" s="348" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="349"/>
       <c r="D38" s="177">
         <f>SUM(((D19-D12)/2),D12)</f>
         <v>150</v>
@@ -5439,16 +5454,16 @@
         <v>206</v>
       </c>
       <c r="AC38" s="269"/>
-      <c r="AD38" s="327" t="s">
+      <c r="AD38" s="326" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="258"/>
-      <c r="B39" s="298" t="s">
+      <c r="B39" s="321" t="s">
         <v>191</v>
       </c>
-      <c r="C39" s="299"/>
+      <c r="C39" s="322"/>
       <c r="D39" s="120">
         <f>SUM(((D20-D11)/2),D11)</f>
         <v>210</v>
@@ -5532,14 +5547,14 @@
         <v>207</v>
       </c>
       <c r="AC39" s="270"/>
-      <c r="AD39" s="327"/>
+      <c r="AD39" s="326"/>
     </row>
     <row r="40" spans="1:30" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="258"/>
-      <c r="B40" s="314" t="s">
+      <c r="B40" s="350" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="315"/>
+      <c r="C40" s="351"/>
       <c r="D40" s="118">
         <f>SUM(((D21-D10)/2),D10)</f>
         <v>90</v>
@@ -5607,10 +5622,10 @@
         <v>66</v>
       </c>
       <c r="U40" s="35"/>
-      <c r="V40" s="296" t="s">
+      <c r="V40" s="355" t="s">
         <v>151</v>
       </c>
-      <c r="W40" s="297"/>
+      <c r="W40" s="356"/>
       <c r="X40" s="244" t="s">
         <v>202</v>
       </c>
@@ -5623,14 +5638,14 @@
         <v>208</v>
       </c>
       <c r="AC40" s="271"/>
-      <c r="AD40" s="327"/>
+      <c r="AD40" s="326"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="231"/>
-      <c r="B41" s="306" t="s">
+      <c r="B41" s="338" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="307"/>
+      <c r="C41" s="339"/>
       <c r="D41" s="94">
         <f>SUM(((D24-D12)/2),D12)</f>
         <v>285</v>
@@ -5714,14 +5729,14 @@
         <v>136</v>
       </c>
       <c r="AC41" s="150"/>
-      <c r="AD41" s="327"/>
+      <c r="AD41" s="326"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="231"/>
-      <c r="B42" s="298" t="s">
+      <c r="B42" s="321" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="299"/>
+      <c r="C42" s="322"/>
       <c r="D42" s="71">
         <f>SUM(((D20-D14)/2),D14)</f>
         <v>300</v>
@@ -5806,14 +5821,14 @@
         <v>137</v>
       </c>
       <c r="AC42" s="152"/>
-      <c r="AD42" s="327"/>
+      <c r="AD42" s="326"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="231"/>
-      <c r="B43" s="308" t="s">
+      <c r="B43" s="317" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="309"/>
+      <c r="C43" s="318"/>
       <c r="D43" s="105">
         <f>SUM(((D33-D10)/2),D10)</f>
         <v>135</v>
@@ -5897,14 +5912,14 @@
         <v>138</v>
       </c>
       <c r="AC43" s="154"/>
-      <c r="AD43" s="327"/>
+      <c r="AD43" s="326"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="231"/>
-      <c r="B44" s="306" t="s">
+      <c r="B44" s="338" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="307"/>
+      <c r="C44" s="339"/>
       <c r="D44" s="94">
         <f t="shared" ref="D44:I44" si="9">SUM(((D12-D28)/2),D28)</f>
         <v>195</v>
@@ -5973,10 +5988,10 @@
         <v>149</v>
       </c>
       <c r="U44" s="165"/>
-      <c r="V44" s="306" t="s">
+      <c r="V44" s="338" t="s">
         <v>151</v>
       </c>
-      <c r="W44" s="307"/>
+      <c r="W44" s="339"/>
       <c r="X44" s="116" t="s">
         <v>153</v>
       </c>
@@ -5989,14 +6004,14 @@
         <v>156</v>
       </c>
       <c r="AC44" s="174"/>
-      <c r="AD44" s="327"/>
+      <c r="AD44" s="326"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="231"/>
-      <c r="B45" s="298" t="s">
+      <c r="B45" s="321" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="299"/>
+      <c r="C45" s="322"/>
       <c r="D45" s="71">
         <f>SUM(((D32-D11)/2),D11)</f>
         <v>165</v>
@@ -6081,14 +6096,14 @@
         <v>157</v>
       </c>
       <c r="AC45" s="175"/>
-      <c r="AD45" s="327"/>
+      <c r="AD45" s="326"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="231"/>
-      <c r="B46" s="308" t="s">
+      <c r="B46" s="317" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="309"/>
+      <c r="C46" s="318"/>
       <c r="D46" s="105">
         <f>SUM(((D21-D13)/2),D13)</f>
         <v>180</v>
@@ -6157,10 +6172,10 @@
         <v>59</v>
       </c>
       <c r="U46" s="167"/>
-      <c r="V46" s="308" t="s">
+      <c r="V46" s="317" t="s">
         <v>151</v>
       </c>
-      <c r="W46" s="309"/>
+      <c r="W46" s="318"/>
       <c r="X46" s="118" t="s">
         <v>155</v>
       </c>
@@ -6173,14 +6188,14 @@
         <v>158</v>
       </c>
       <c r="AC46" s="176"/>
-      <c r="AD46" s="327"/>
+      <c r="AD46" s="326"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="258"/>
-      <c r="B47" s="306" t="s">
+      <c r="B47" s="338" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="307"/>
+      <c r="C47" s="339"/>
       <c r="D47" s="116">
         <f>SUM(((D26-D15)/2),D15)</f>
         <v>150</v>
@@ -6265,14 +6280,14 @@
         <v>209</v>
       </c>
       <c r="AC47" s="272"/>
-      <c r="AD47" s="327"/>
+      <c r="AD47" s="326"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="258"/>
-      <c r="B48" s="298" t="s">
+      <c r="B48" s="321" t="s">
         <v>193</v>
       </c>
-      <c r="C48" s="299"/>
+      <c r="C48" s="322"/>
       <c r="D48" s="120">
         <f>SUM(((D36-D14)/2),D14)</f>
         <v>210</v>
@@ -6341,10 +6356,10 @@
         <v>67</v>
       </c>
       <c r="U48" s="41"/>
-      <c r="V48" s="298" t="s">
+      <c r="V48" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="W48" s="299"/>
+      <c r="W48" s="322"/>
       <c r="X48" s="120" t="s">
         <v>204</v>
       </c>
@@ -6357,14 +6372,14 @@
         <v>210</v>
       </c>
       <c r="AC48" s="273"/>
-      <c r="AD48" s="327"/>
+      <c r="AD48" s="326"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="258"/>
-      <c r="B49" s="308" t="s">
+      <c r="B49" s="317" t="s">
         <v>194</v>
       </c>
-      <c r="C49" s="309"/>
+      <c r="C49" s="318"/>
       <c r="D49" s="118">
         <f>SUM(((D27-D13)/2),D13)</f>
         <v>90</v>
@@ -6449,13 +6464,13 @@
         <v>211</v>
       </c>
       <c r="AC49" s="274"/>
-      <c r="AD49" s="327"/>
+      <c r="AD49" s="326"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B50" s="306" t="s">
+      <c r="B50" s="338" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="307"/>
+      <c r="C50" s="339"/>
       <c r="D50" s="94">
         <f>SUM(((D26-D12)/2),D12)</f>
         <v>240</v>
@@ -6524,10 +6539,10 @@
         <v>63</v>
       </c>
       <c r="U50" s="198"/>
-      <c r="V50" s="306" t="s">
+      <c r="V50" s="338" t="s">
         <v>151</v>
       </c>
-      <c r="W50" s="307"/>
+      <c r="W50" s="339"/>
       <c r="X50" s="116" t="s">
         <v>171</v>
       </c>
@@ -6540,13 +6555,13 @@
         <v>180</v>
       </c>
       <c r="AC50" s="221"/>
-      <c r="AD50" s="327"/>
+      <c r="AD50" s="326"/>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B51" s="298" t="s">
+      <c r="B51" s="321" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="299"/>
+      <c r="C51" s="322"/>
       <c r="D51" s="71">
         <f>SUM(((D14-D32)/2),D32)</f>
         <v>255</v>
@@ -6615,10 +6630,10 @@
         <v>159</v>
       </c>
       <c r="U51" s="199"/>
-      <c r="V51" s="298" t="s">
+      <c r="V51" s="321" t="s">
         <v>151</v>
       </c>
-      <c r="W51" s="299"/>
+      <c r="W51" s="322"/>
       <c r="X51" s="120" t="s">
         <v>172</v>
       </c>
@@ -6631,13 +6646,13 @@
         <v>181</v>
       </c>
       <c r="AC51" s="222"/>
-      <c r="AD51" s="327"/>
+      <c r="AD51" s="326"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B52" s="308" t="s">
+      <c r="B52" s="317" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="309"/>
+      <c r="C52" s="318"/>
       <c r="D52" s="105">
         <f>SUM(((D33-D13)/2),D13)</f>
         <v>225</v>
@@ -6706,10 +6721,10 @@
         <v>160</v>
       </c>
       <c r="U52" s="200"/>
-      <c r="V52" s="308" t="s">
+      <c r="V52" s="317" t="s">
         <v>151</v>
       </c>
-      <c r="W52" s="309"/>
+      <c r="W52" s="318"/>
       <c r="X52" s="118" t="s">
         <v>173</v>
       </c>
@@ -6722,13 +6737,13 @@
         <v>182</v>
       </c>
       <c r="AC52" s="223"/>
-      <c r="AD52" s="327"/>
+      <c r="AD52" s="326"/>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B53" s="306" t="s">
+      <c r="B53" s="338" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="307"/>
+      <c r="C53" s="339"/>
       <c r="D53" s="131">
         <f>SUM(((D28-D15)/2),D15)</f>
         <v>105</v>
@@ -6813,16 +6828,16 @@
         <v>183</v>
       </c>
       <c r="AC53" s="224"/>
-      <c r="AD53" s="327"/>
+      <c r="AD53" s="326"/>
       <c r="AI53" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B54" s="298" t="s">
+      <c r="B54" s="321" t="s">
         <v>125</v>
       </c>
-      <c r="C54" s="299"/>
+      <c r="C54" s="322"/>
       <c r="D54" s="133">
         <f>SUM(((D36-D11)/2),D11)</f>
         <v>120</v>
@@ -6907,13 +6922,13 @@
         <v>184</v>
       </c>
       <c r="AC54" s="225"/>
-      <c r="AD54" s="327"/>
+      <c r="AD54" s="326"/>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B55" s="308" t="s">
+      <c r="B55" s="317" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="309"/>
+      <c r="C55" s="318"/>
       <c r="D55" s="135">
         <f>SUM(((D13-D31)/2),D31)</f>
         <v>135</v>
@@ -6998,13 +7013,13 @@
         <v>185</v>
       </c>
       <c r="AC55" s="226"/>
-      <c r="AD55" s="327"/>
+      <c r="AD55" s="326"/>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B56" s="306" t="s">
+      <c r="B56" s="338" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="307"/>
+      <c r="C56" s="339"/>
       <c r="D56" s="131">
         <v>15</v>
       </c>
@@ -7088,13 +7103,13 @@
         <v>186</v>
       </c>
       <c r="AC56" s="227"/>
-      <c r="AD56" s="327"/>
+      <c r="AD56" s="326"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B57" s="298" t="s">
+      <c r="B57" s="321" t="s">
         <v>127</v>
       </c>
-      <c r="C57" s="299"/>
+      <c r="C57" s="322"/>
       <c r="D57" s="133">
         <v>345</v>
       </c>
@@ -7177,13 +7192,13 @@
         <v>187</v>
       </c>
       <c r="AC57" s="228"/>
-      <c r="AD57" s="327"/>
+      <c r="AD57" s="326"/>
     </row>
     <row r="58" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="328" t="s">
+      <c r="B58" s="340" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="329"/>
+      <c r="C58" s="341"/>
       <c r="D58" s="188">
         <f>SUM(((D27-D10)/2),D10)</f>
         <v>0</v>
@@ -7268,37 +7283,84 @@
         <v>188</v>
       </c>
       <c r="AC58" s="229"/>
-      <c r="AD58" s="327"/>
+      <c r="AD58" s="326"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="G60" s="326" t="s">
+      <c r="G60" s="336" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="326"/>
-      <c r="I60" s="326"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="326"/>
+      <c r="H60" s="336"/>
+      <c r="I60" s="336"/>
+      <c r="J60" s="336"/>
+      <c r="K60" s="336"/>
+      <c r="L60" s="336"/>
+      <c r="M60" s="336"/>
     </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="V23:W23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B37:AC37"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+  <mergeCells count="94">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="V40:W40"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="G60:M60"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="AD38:AD58"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="V46:W46"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="T17:AC17"/>
     <mergeCell ref="AD19:AD36"/>
     <mergeCell ref="J17:M17"/>
@@ -7315,69 +7377,21 @@
     <mergeCell ref="V30:W30"/>
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="G60:M60"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="AD38:AD58"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="V46:W46"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="V40:W40"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="V23:W23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B37:AC37"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8705,8 +8719,8 @@
       <c r="Z20" s="13"/>
       <c r="AA20" s="283"/>
       <c r="AB20" s="284"/>
-      <c r="AF20" s="316"/>
-      <c r="AG20" s="316"/>
+      <c r="AF20" s="337"/>
+      <c r="AG20" s="337"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="291" t="s">
